--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{128925F0-A14A-40DE-8D9B-9C731B3667F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AF135CB-03E6-457D-941B-F843FEDC132F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -831,15 +831,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Consumer Monopoly</t>
-  </si>
-  <si>
-    <t>Strongly agree</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>6. No big MCX-D&amp;A required?</t>
   </si>
   <si>
@@ -956,6 +947,15 @@
   </si>
   <si>
     <t>CN</t>
+  </si>
+  <si>
+    <t>Strongly agree</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>Consumer Monopoly</t>
   </si>
   <si>
     <t>Dividend</t>
@@ -1517,7 +1517,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2152,6 +2152,7 @@
     <xf numFmtId="9" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3566,7 +3567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3577,29 +3578,29 @@
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>197</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>45605</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3615,23 +3616,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>219</v>
       </c>
@@ -3639,15 +3641,15 @@
         <v>250010977486</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
         <v>10</v>
       </c>
@@ -3655,7 +3657,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
         <v>11</v>
       </c>
@@ -3663,7 +3665,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
         <v>221</v>
       </c>
@@ -3671,15 +3673,15 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
         <v>97</v>
       </c>
@@ -3693,25 +3695,25 @@
         <v>226</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3720,16 +3722,16 @@
         <v>230</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3738,7 +3740,7 @@
         <v>232</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3869,7 +3871,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C29" s="151"/>
       <c r="D29" s="151"/>
@@ -4152,11 +4154,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10973531401728931</v>
+        <v>4.0392422921917491E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4201,7 +4203,7 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
@@ -4599,7 +4601,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4607,7 +4609,7 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C87" s="237" t="s">
         <v>267</v>
@@ -4617,11 +4619,11 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="268">
+      <c r="C89" s="269">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="268"/>
+      <c r="D89" s="269"/>
       <c r="E89" s="89" t="s">
         <v>208</v>
       </c>
@@ -4635,10 +4637,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="269" t="s">
+      <c r="C90" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="269"/>
+      <c r="D90" s="270"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4687,7 +4689,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4708,7 +4710,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4726,7 +4728,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4832,7 +4834,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Y, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4868,8 +4870,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4912,17 +4914,17 @@
       <c r="B3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="274" t="str">
+      <c r="C3" s="275" t="str">
         <f>Inputs!C4</f>
         <v>0939.HK</v>
       </c>
-      <c r="D3" s="275"/>
+      <c r="D3" s="276"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.84</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4932,40 +4934,40 @@
       <c r="B4" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="276" t="str">
+      <c r="C4" s="277" t="str">
         <f>Inputs!C5</f>
         <v>建设银行</v>
       </c>
-      <c r="D4" s="277"/>
+      <c r="D4" s="278"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="280">
+      <c r="G4" s="281">
         <f>Inputs!C10</f>
         <v>250010977486</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="281"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="278">
+      <c r="C5" s="279">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="279"/>
+      <c r="D5" s="280"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="272">
+      <c r="G5" s="273">
         <f>G3*G4/1000000</f>
-        <v>1460064.10851824</v>
-      </c>
-      <c r="H5" s="272"/>
+        <v>3695162.1804829468</v>
+      </c>
+      <c r="H5" s="273"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4988,11 +4990,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="273" t="str">
+      <c r="G6" s="274" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="273"/>
+      <c r="H6" s="274"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5012,7 +5014,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0734576781590779</v>
+        <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5055,7 +5057,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5105,7 +5107,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5145,7 +5147,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5179,7 +5181,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.41780391047464605</v>
+        <v>1.1350604889985203</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5195,12 +5197,12 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>0.28306166911094233</v>
+        <v>0.10419204386576635</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5227,7 +5229,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.3524498504046437E-2</v>
+        <v>2.7063599947683415E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5244,12 +5246,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="G28" s="270" t="s">
-        <v>261</v>
-      </c>
-      <c r="H28" s="270"/>
+        <v>239</v>
+      </c>
+      <c r="G28" s="271" t="s">
+        <v>258</v>
+      </c>
+      <c r="H28" s="271"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5257,22 +5259,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.5933700553380956</v>
+        <v>2.6831435440509859</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.9071062072773683</v>
+        <v>5.1574864661098871</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.2274941827507009</v>
-      </c>
-      <c r="G29" s="271">
+        <v>3.1566394635893951</v>
+      </c>
+      <c r="G29" s="272">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.0061793106759733</v>
-      </c>
-      <c r="H29" s="271"/>
+        <v>4.4847708400955542</v>
+      </c>
+      <c r="H29" s="272"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5320,7 +5322,7 @@
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5330,7 +5332,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5357,7 +5359,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -6303,12 +6305,9 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
-      <formula1>"Y, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C33:C34 C36:C37 C39:C40" xr:uid="{AFC23D6B-591E-BA4C-B3BE-727ADB8DA907}">
       <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
@@ -6794,7 +6793,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6845,7 +6844,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6896,7 +6895,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6947,7 +6946,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7049,7 +7048,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C17" s="200" t="str">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7202,7 +7201,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8273,7 +8272,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8342,7 +8341,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8546,7 +8545,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10369,11 +10368,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-13705380.24497783</v>
+        <v>-12770319.984078508</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.2099466391329043</v>
+        <v>4.9227197448479139</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11440,7 +11439,7 @@
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>BV of the MI</v>
+        <v>P/B Approach</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -11460,11 +11459,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1</v>
+        <v>1.1350604889985203</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>20815</v>
+        <v>23626.284078504199</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11496,11 +11495,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="281">
+      <c r="D56" s="282">
         <f>I15+I34</f>
         <v>36209311</v>
       </c>
-      <c r="E56" s="279"/>
+      <c r="E56" s="280"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11511,11 +11510,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="280">
+      <c r="D57" s="281">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="279"/>
+      <c r="E57" s="280"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11527,11 +11526,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="280">
+      <c r="D58" s="281">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="279"/>
+      <c r="E58" s="280"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11745,19 +11744,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="268">
+      <c r="C72" s="269">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="268"/>
-      <c r="E72" s="282" t="s">
+      <c r="D72" s="269"/>
+      <c r="E72" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F72" s="282"/>
-      <c r="H72" s="282" t="s">
+      <c r="F72" s="283"/>
+      <c r="H72" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="282"/>
+      <c r="I72" s="283"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11767,18 +11766,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="269" t="s">
+      <c r="C73" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="269"/>
-      <c r="E73" s="283" t="s">
+      <c r="D73" s="270"/>
+      <c r="E73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="269"/>
-      <c r="H73" s="283" t="s">
+      <c r="F73" s="270"/>
+      <c r="H73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="269"/>
+      <c r="I73" s="270"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11855,7 +11854,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11915,7 +11914,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11978,7 +11977,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12008,7 +12007,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12145,17 +12144,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.28306166911094233</v>
+        <v>0.10419204386576635</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.28306166911094233</v>
+        <v>0.10419204386576635</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.28306166911094233</v>
+        <v>0.10419204386576635</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12196,17 +12195,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10973531401728931</v>
+        <v>4.0392422921917491E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3524498504046437E-2</v>
+        <v>2.7063599947683415E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3524498504046437E-2</v>
+        <v>2.7063599947683415E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12237,15 +12236,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="282" t="s">
+      <c r="E92" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F92" s="282"/>
+      <c r="F92" s="283"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="282" t="s">
+      <c r="H92" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I92" s="282"/>
+      <c r="I92" s="283"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12266,14 +12265,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>79.83605487225654</v>
+        <v>35.107471740052993</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>79.83605487225654</v>
+        <v>35.107471740052993</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12291,14 +12290,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>8.5030008095900573</v>
+        <v>6.3491294734366726</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>8.5030008095900573</v>
+        <v>6.3491294734366726</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12324,7 +12323,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12341,21 +12340,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9923593.0054013822</v>
+        <v>4363846.1539008841</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>39.692629120483637</v>
+        <v>17.454618184296521</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>39.692629120483637</v>
+        <v>17.454618184296521</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>56.392992516115832</v>
+        <v>24.798512329603515</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12365,14 +12364,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>22344.021570881207</v>
+        <v>23626.284078504199</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.9372161956898136E-2</v>
+        <v>9.4500986780979304E-2</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12383,17 +12382,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-29995704.330985796</v>
+        <v>-27943071.199999999</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-137.97418148395224</v>
+        <v>-128.53248366584006</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-119.97754911648022</v>
+        <v>-111.76737710073049</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12404,7 +12403,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-20094455.347155295</v>
+        <v>-23602851.33017762</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12448,7 +12447,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12465,27 +12464,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1056919.9529458815</v>
+        <v>789194.51786286733</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.5933700553380956</v>
+        <v>2.6831435440509859</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.2274941827507009</v>
+        <v>3.1566394635893951</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.2274941827507009</v>
+        <v>3.1566394635893951</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.2274941827507009</v>
+        <v>3.1566394635893951</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.0061793106759733</v>
+        <v>4.4847708400955542</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12509,7 +12508,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12526,27 +12525,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>528459.97647294076</v>
+        <v>394597.25893143367</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.7966850276690478</v>
+        <v>1.3415717720254929</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.1137470913753504</v>
+        <v>1.5783197317946975</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.1137470913753504</v>
+        <v>1.5783197317946975</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.1137470913753504</v>
+        <v>1.5783197317946975</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.0030896553379867</v>
+        <v>2.2423854200477771</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AF135CB-03E6-457D-941B-F843FEDC132F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1096B7F5-E99F-436D-8573-5BDAD0BB4A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -931,6 +928,10 @@
   </si>
   <si>
     <t>Base Case Valuation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1517,7 +1518,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2153,6 +2154,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3567,7 +3571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3581,12 +3585,12 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
         <v>259</v>
@@ -3594,7 +3598,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>260</v>
@@ -3618,7 +3622,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
@@ -3627,7 +3631,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
         <v>261</v>
@@ -3635,7 +3639,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>250010977486</v>
@@ -3643,7 +3647,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>262</v>
@@ -3667,7 +3671,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3675,7 +3679,7 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>263</v>
@@ -3692,7 +3696,7 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
         <v>264</v>
@@ -3701,7 +3705,7 @@
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
         <v>265</v>
@@ -3710,7 +3714,7 @@
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
         <v>265</v>
@@ -3719,7 +3723,7 @@
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
         <v>265</v>
@@ -3728,7 +3732,7 @@
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
         <v>264</v>
@@ -3737,7 +3741,7 @@
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
         <v>266</v>
@@ -3871,7 +3875,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C29" s="151"/>
       <c r="D29" s="151"/>
@@ -4135,7 +4139,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <f>0.4+0.197</f>
@@ -4154,11 +4158,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.0392422921917491E-2</v>
+        <v>0.1095646706605569</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4203,13 +4207,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4581,7 +4585,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59">
         <v>3234661</v>
@@ -4601,7 +4605,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4609,7 +4613,7 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="237" t="s">
         <v>267</v>
@@ -4619,16 +4623,16 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4637,10 +4641,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4689,7 +4693,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4710,7 +4714,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4728,7 +4732,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4785,7 +4789,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4871,7 +4875,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4912,19 +4916,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>0939.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>5.85</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4932,42 +4936,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>建设银行</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>250010977486</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>3695162.1804829468</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>1462564.2182930999</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4990,16 +4994,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -5014,7 +5018,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1</v>
+        <v>1.0736236572265625</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5024,40 +5028,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5070,29 +5074,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5102,12 +5106,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5117,7 +5121,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5125,7 +5129,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5139,7 +5143,7 @@
         <v>0.47700776116848903</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5147,7 +5151,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5158,14 +5162,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5177,11 +5181,11 @@
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.1350604889985203</v>
+        <v>0.41845462626934049</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5193,16 +5197,16 @@
         <v>0</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>0.10419204386576635</v>
+        <v>258</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>3.5383012829882281</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5225,11 +5229,11 @@
         <v>0.36602055622301682</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.7063599947683415E-2</v>
+        <v>7.3410164596688046E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5246,12 +5250,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>257</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5259,42 +5263,42 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.6831435440509859</v>
+        <v>3.5920122485045418</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.1574864661098871</v>
+        <v>6.9044962573240118</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.1566394635893951</v>
-      </c>
-      <c r="G29" s="272">
+        <v>4.2258967629465198</v>
+      </c>
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.4847708400955542</v>
-      </c>
-      <c r="H29" s="272"/>
+        <v>6.0039097889774018</v>
+      </c>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5304,7 +5308,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5315,14 +5319,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5332,7 +5336,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5342,14 +5346,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5359,7 +5363,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5374,14 +5378,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6366,16 +6370,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6393,7 +6397,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6426,7 +6430,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6793,7 +6797,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6844,7 +6848,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6895,7 +6899,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6946,7 +6950,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7048,7 +7052,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="200" t="str">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7201,7 +7205,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8272,7 +8276,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8341,7 +8345,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8545,7 +8549,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10368,11 +10372,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-12770319.984078508</v>
+        <v>-13707499.384165958</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>4.9227197448479139</v>
+        <v>5.2105975851660276</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10443,7 +10447,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11439,7 +11443,7 @@
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>P/B Approach</v>
+        <v>BV of the MI</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -11459,11 +11463,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.1350604889985203</v>
+        <v>1</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>23626.284078504199</v>
+        <v>20815</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11495,11 +11499,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>36209311</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11510,11 +11514,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11526,11 +11530,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11744,19 +11748,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11766,18 +11770,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11854,7 +11858,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11914,7 +11918,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11977,7 +11981,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12007,7 +12011,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12140,28 +12144,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10419204386576635</v>
+        <v>0.28262149546390875</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10419204386576635</v>
+        <v>0.28262149546390875</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10419204386576635</v>
+        <v>0.28262149546390875</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12191,21 +12195,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0392422921917491E-2</v>
+        <v>0.1095646706605569</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7063599947683415E-2</v>
+        <v>7.3410164596688046E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7063599947683415E-2</v>
+        <v>7.3410164596688046E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12236,15 +12240,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12261,24 +12265,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>35.107471740052993</v>
+        <v>79.711527159680671</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>35.107471740052993</v>
+        <v>79.711527159680671</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12286,18 +12290,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>6.3491294734366726</v>
+        <v>8.4997878277854628</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>6.3491294734366726</v>
+        <v>8.4997878277854628</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12316,14 +12320,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12340,21 +12344,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>4363846.1539008841</v>
+        <v>9908114.2553620189</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>17.454618184296521</v>
+        <v>39.630716838891004</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>17.454618184296521</v>
+        <v>39.630716838891004</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>24.798512329603515</v>
+        <v>56.305031126057465</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12364,14 +12368,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>23626.284078504199</v>
+        <v>22347.476425170898</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>9.4500986780979304E-2</v>
+        <v>8.9385980767273721E-2</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12382,17 +12386,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-27943071.199999999</v>
+        <v>-30000342.29588623</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-128.53248366584006</v>
+        <v>-137.99551518573259</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-111.76737710073049</v>
+        <v>-119.99610016150662</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12403,7 +12407,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-23602851.33017762</v>
+        <v>-20114575.516949382</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12440,14 +12444,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12464,27 +12468,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>789194.51786286733</v>
+        <v>1056520.5804591826</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.6831435440509859</v>
+        <v>3.5920122485045418</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.1566394635893951</v>
+        <v>4.2258967629465198</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.1566394635893951</v>
+        <v>4.2258967629465198</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.1566394635893951</v>
+        <v>4.2258967629465198</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.4847708400955542</v>
+        <v>6.0039097889774018</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12494,21 +12498,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12521,31 +12525,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>394597.25893143367</v>
+        <v>528260.29022959131</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.3415717720254929</v>
+        <v>1.7960061242522709</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.5783197317946975</v>
+        <v>2.1129483814732599</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.5783197317946975</v>
+        <v>2.1129483814732599</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.5783197317946975</v>
+        <v>2.1129483814732599</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.2423854200477771</v>
+        <v>3.0019548944887009</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1096B7F5-E99F-436D-8573-5BDAD0BB4A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E50A619-FDAB-4149-957D-213B70F19E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Current Price:</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -960,6 +957,10 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3585,28 +3586,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="190">
         <v>45605</v>
@@ -3614,7 +3615,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="191">
         <v>8</v>
@@ -3622,24 +3623,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="192" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="268"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="194">
         <v>250010977486</v>
@@ -3647,15 +3648,15 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="220">
         <v>45291</v>
@@ -3663,7 +3664,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="221">
         <v>1000000</v>
@@ -3671,7 +3672,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3679,15 +3680,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="224">
         <v>0.25</v>
@@ -3696,61 +3697,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3799,7 +3800,7 @@
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="150">
         <v>1402495</v>
@@ -3819,7 +3820,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="151">
         <v>669001</v>
@@ -3839,7 +3840,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="151">
         <v>220152</v>
@@ -3859,7 +3860,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="151"/>
       <c r="D28" s="151"/>
@@ -3875,7 +3876,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C29" s="151"/>
       <c r="D29" s="151"/>
@@ -3891,7 +3892,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="151">
         <v>-193</v>
@@ -3911,7 +3912,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="151"/>
       <c r="D31" s="151"/>
@@ -3927,7 +3928,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="151"/>
       <c r="D32" s="151"/>
@@ -3943,7 +3944,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="151"/>
       <c r="D33" s="151"/>
@@ -3959,7 +3960,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="218"/>
       <c r="D34" s="151">
@@ -3977,7 +3978,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="218"/>
       <c r="D35" s="151">
@@ -3995,7 +3996,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151">
@@ -4013,7 +4014,7 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="218"/>
       <c r="D37" s="151">
@@ -4031,7 +4032,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="218"/>
       <c r="D38" s="151">
@@ -4049,7 +4050,7 @@
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="218"/>
       <c r="D39" s="151">
@@ -4067,7 +4068,7 @@
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="218"/>
       <c r="D40" s="151">
@@ -4085,7 +4086,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151">
@@ -4103,7 +4104,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151">
@@ -4121,7 +4122,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151">
@@ -4139,7 +4140,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="251">
         <f>0.4+0.197</f>
@@ -4158,11 +4159,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.1095646706605569</v>
+        <v>0.10635277537808467</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4207,21 +4208,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="59">
         <v>3339708</v>
@@ -4233,7 +4234,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="59">
         <v>683021</v>
@@ -4245,7 +4246,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4256,7 +4257,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="59">
         <v>2962684</v>
@@ -4268,7 +4269,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="59">
         <v>6961515</v>
@@ -4280,7 +4281,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="59">
         <v>25589624</v>
@@ -4293,7 +4294,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4303,7 +4304,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4314,7 +4315,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4322,24 +4323,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4350,7 +4351,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="196">
@@ -4361,7 +4362,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="59">
         <v>82672</v>
@@ -4374,7 +4375,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4385,7 +4386,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4396,7 +4397,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4407,7 +4408,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4417,7 +4418,7 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="59">
         <v>21347</v>
@@ -4426,24 +4427,24 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="59">
         <v>4094</v>
@@ -4453,12 +4454,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="59">
         <v>181735</v>
@@ -4471,7 +4472,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4482,7 +4483,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="59">
         <v>5722</v>
@@ -4494,7 +4495,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="59">
         <v>118797</v>
@@ -4507,7 +4508,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="248">
         <v>343468</v>
@@ -4519,7 +4520,7 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73" s="59">
         <v>33710837</v>
@@ -4527,19 +4528,19 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="120">
         <v>2498474</v>
@@ -4547,7 +4548,7 @@
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="83">
         <v>37038911</v>
@@ -4555,37 +4556,37 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="59">
         <v>3234661</v>
@@ -4593,19 +4594,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4613,15 +4614,15 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="270">
         <f>C24</f>
@@ -4629,10 +4630,10 @@
       </c>
       <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4642,19 +4643,19 @@
         <v>(Numbers in 1000000CNY)</v>
       </c>
       <c r="C90" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="256" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4672,7 +4673,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4693,7 +4694,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4714,7 +4715,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4732,7 +4733,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4753,7 +4754,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4771,7 +4772,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4789,7 +4790,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4916,7 +4917,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
@@ -4928,15 +4929,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.85</v>
+        <v>6.02</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
@@ -4945,7 +4946,7 @@
       <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="282">
         <f>Inputs!C10</f>
@@ -4956,7 +4957,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="280">
         <f>Inputs!C6</f>
@@ -4965,11 +4966,11 @@
       <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>1462564.2182930999</v>
+        <v>1505066.08446572</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4977,7 +4978,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="186">
         <f>Inputs!C7</f>
@@ -4992,7 +4993,7 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
@@ -5003,7 +5004,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -5015,10 +5016,10 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0736236572265625</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5028,40 +5029,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5074,29 +5075,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5106,12 +5107,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5121,29 +5122,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>0.47700776116848903</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5151,7 +5152,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5162,58 +5163,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.41845462626934049</v>
+        <v>0.43109211913461959</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>0</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.5383012829882281</v>
+        <v>3.6451593612884317</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
@@ -5222,61 +5223,61 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>0.36602055622301682</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.3410164596688046E-2</v>
+        <v>7.1258140956840646E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="272" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.5920122485045418</v>
+        <v>3.5522120516219697</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.9044962573240118</v>
+        <v>6.8279930910191418</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.2258967629465198</v>
+        <v>4.1790730019081996</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.0039097889774018</v>
+        <v>5.9373852965383849</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -5284,21 +5285,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5308,7 +5309,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="226" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5319,14 +5320,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5336,7 +5337,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5346,14 +5347,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5363,7 +5364,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5378,14 +5379,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6365,21 +6366,21 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6390,14 +6391,14 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="202">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6419,7 +6420,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6430,7 +6431,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6441,7 +6442,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6491,7 +6492,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="201">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6542,7 +6543,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6593,7 +6594,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="200">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6644,7 +6645,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="152">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6695,7 +6696,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="200">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6746,7 +6747,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="200" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6797,7 +6798,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6848,7 +6849,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6899,7 +6900,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6950,7 +6951,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7001,7 +7002,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="200" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7052,7 +7053,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="200" t="str">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7103,7 +7104,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="153" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7154,7 +7155,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="200" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7205,7 +7206,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7256,7 +7257,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="200" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7307,7 +7308,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="162">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7358,7 +7359,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="154">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7409,7 +7410,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="155">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7460,7 +7461,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="234">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7511,7 +7512,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7562,7 +7563,7 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7613,7 +7614,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7664,7 +7665,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7715,7 +7716,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7766,7 +7767,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7817,7 +7818,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7868,7 +7869,7 @@
     <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7919,7 +7920,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -7970,7 +7971,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -8021,7 +8022,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8072,7 +8073,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8123,7 +8124,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8174,7 +8175,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8225,7 +8226,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="156">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8276,7 +8277,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8294,7 +8295,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8345,7 +8346,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8396,7 +8397,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="154">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8447,7 +8448,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="154">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8498,7 +8499,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8549,7 +8550,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8600,7 +8601,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8651,7 +8652,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8669,7 +8670,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8720,7 +8721,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8771,7 +8772,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8788,7 +8789,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="157">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8838,7 +8839,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="158">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -8888,7 +8889,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="154" t="str">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -8938,7 +8939,7 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="159">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -10297,7 +10298,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10307,12 +10308,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10326,7 +10327,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="205">
         <f>Inputs!C83</f>
@@ -10336,7 +10337,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10354,10 +10355,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10367,21 +10368,21 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-13707499.384165958</v>
+        <v>-13692323.465914955</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.2105975851660276</v>
+        <v>5.2059359263944671</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10392,7 +10393,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10404,7 +10405,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10422,7 +10423,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="204">
@@ -10441,32 +10442,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10483,7 +10484,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10494,7 +10495,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10511,7 +10512,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10522,7 +10523,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10539,7 +10540,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10550,7 +10551,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10567,7 +10568,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="206">
         <f>Inputs!C76</f>
@@ -10578,7 +10579,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10595,7 +10596,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10605,7 +10606,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10627,7 +10628,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10649,7 +10650,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10670,7 +10671,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10695,7 +10696,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10722,7 +10723,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10743,7 +10744,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10760,7 +10761,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10772,13 +10773,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10800,7 +10801,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10820,7 +10821,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10829,7 +10830,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10849,7 +10850,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10862,7 +10863,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10882,7 +10883,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10895,7 +10896,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10912,7 +10913,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="207">
         <f>Inputs!C77</f>
@@ -10928,7 +10929,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10937,7 +10938,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10953,7 +10954,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10963,7 +10964,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -10980,7 +10981,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -10990,7 +10991,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11007,7 +11008,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11017,7 +11018,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11037,7 +11038,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="206">
         <f>Inputs!C81</f>
@@ -11047,7 +11048,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11064,7 +11065,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11074,7 +11075,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11100,7 +11101,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11127,7 +11128,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11154,7 +11155,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11175,7 +11176,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11196,7 +11197,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11217,7 +11218,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11238,7 +11239,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11255,7 +11256,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11273,7 +11274,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11292,7 +11293,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11311,7 +11312,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11328,7 +11329,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11341,7 +11342,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11358,7 +11359,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11371,7 +11372,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11388,7 +11389,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="208">
         <f>Inputs!C82</f>
@@ -11398,7 +11399,7 @@
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11415,7 +11416,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11431,14 +11432,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11450,12 +11451,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11485,7 +11486,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11496,7 +11497,7 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="283">
@@ -11511,7 +11512,7 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="282">
@@ -11522,12 +11523,12 @@
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="282">
@@ -11551,11 +11552,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11565,7 +11566,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11586,7 +11587,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11607,7 +11608,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11628,7 +11629,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11643,7 +11644,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11674,11 +11675,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11688,7 +11689,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11709,7 +11710,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11724,7 +11725,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11746,7 +11747,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="270">
         <f>Data!C5</f>
@@ -11754,15 +11755,15 @@
       </c>
       <c r="D72" s="270"/>
       <c r="E72" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F72" s="284"/>
       <c r="H72" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11771,22 +11772,22 @@
         <v>(Numbers in 1000000CNY)</v>
       </c>
       <c r="C73" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="271"/>
       <c r="E73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="271"/>
       <c r="H73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11807,7 +11808,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11837,7 +11838,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="162">
         <f>C74-C75</f>
@@ -11858,7 +11859,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11888,7 +11889,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11918,7 +11919,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11949,7 +11950,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -11976,12 +11977,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12011,7 +12012,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12041,7 +12042,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12071,7 +12072,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="212"/>
       <c r="D84" s="160">
@@ -12092,7 +12093,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12123,7 +12124,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12144,28 +12145,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.28262149546390875</v>
+        <v>0.27433642836579203</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.28262149546390875</v>
+        <v>0.27433642836579203</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.28262149546390875</v>
+        <v>0.27433642836579203</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12195,21 +12196,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1095646706605569</v>
+        <v>0.10635277537808467</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3410164596688046E-2</v>
+        <v>7.1258140956840646E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3410164596688046E-2</v>
+        <v>7.1258140956840646E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12226,27 +12227,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F92" s="284"/>
       <c r="G92" s="87"/>
       <c r="H92" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" s="284"/>
       <c r="K92" s="24"/>
@@ -12265,24 +12266,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>79.711527159680671</v>
+        <v>77.084660757327683</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>79.711527159680671</v>
+        <v>77.084660757327683</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12290,18 +12291,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>8.4997878277854628</v>
+        <v>8.4056085194752566</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>8.4997878277854628</v>
+        <v>8.4056085194752566</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12320,94 +12321,94 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9908114.2553620189</v>
+        <v>9581595.703083545</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>39.630716838891004</v>
+        <v>38.324699976904377</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>39.630716838891004</v>
+        <v>38.324699976904377</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>56.305031126057465</v>
+        <v>54.449517879495396</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>22347.476425170898</v>
+        <v>22322.734970450401</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.9385980767273721E-2</v>
+        <v>8.9287019293784492E-2</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-30000342.29588623</v>
+        <v>-29967128.160366345</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-137.99551518573259</v>
+        <v>-137.84273687082836</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-119.99610016150662</v>
+        <v>-119.86324945289424</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-20114575.516949382</v>
+        <v>-20407855.192253251</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12437,58 +12438,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1056520.5804591826</v>
+        <v>1044814.1261924214</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.5920122485045418</v>
+        <v>3.5522120516219697</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.2258967629465198</v>
+        <v>4.1790730019081996</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.2258967629465198</v>
+        <v>4.1790730019081996</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.2258967629465198</v>
+        <v>4.1790730019081996</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.0039097889774018</v>
+        <v>5.9373852965383849</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12498,58 +12499,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>528260.29022959131</v>
+        <v>522407.06309621071</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.7960061242522709</v>
+        <v>1.7761060258109849</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.1129483814732599</v>
+        <v>2.0895365009540998</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.1129483814732599</v>
+        <v>2.0895365009540998</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.1129483814732599</v>
+        <v>2.0895365009540998</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.0019548944887009</v>
+        <v>2.9686926482691924</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12558,7 +12559,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E50A619-FDAB-4149-957D-213B70F19E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D481F0F-86B7-4F26-95BE-5D48EE116889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4163,7 +4163,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10635277537808467</v>
+        <v>0.10634946918170714</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4839,7 +4839,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -5019,7 +5019,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5186,7 +5186,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.43109211913461959</v>
+        <v>0.43110552094295607</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.6451593612884317</v>
+        <v>3.645272682142485</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5234,7 +5234,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.1258140956840646E-2</v>
+        <v>7.1255925749887539E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5264,20 +5264,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.5522120516219697</v>
+        <v>3.5520648977393394</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.8279930910191418</v>
+        <v>6.8277102346808043</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.1790730019081996</v>
+        <v>4.1788998796933408</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.9373852965383849</v>
+        <v>5.9371393345050478</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10373,11 +10373,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-13692323.465914955</v>
+        <v>-13691897.811670562</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.2059359263944671</v>
+        <v>5.2058051761618156</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12149,17 +12149,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.27433642836579203</v>
+        <v>0.27432790004951196</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.27433642836579203</v>
+        <v>0.27432790004951196</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.27433642836579203</v>
+        <v>0.27432790004951196</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12200,17 +12200,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10635277537808467</v>
+        <v>0.10634946918170714</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1258140956840646E-2</v>
+        <v>7.1255925749887539E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1258140956840646E-2</v>
+        <v>7.1255925749887539E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12270,14 +12270,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>77.084660757327683</v>
+        <v>77.079685144704442</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>77.084660757327683</v>
+        <v>77.079685144704442</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12295,14 +12295,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>8.4056085194752566</v>
+        <v>8.4052603088640829</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>8.4056085194752566</v>
+        <v>8.4052603088640829</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12345,21 +12345,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9581595.703083545</v>
+        <v>9580977.2362178601</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>38.324699976904377</v>
+        <v>38.322226218064245</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>38.324699976904377</v>
+        <v>38.322226218064245</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>54.449517879495396</v>
+        <v>54.446003305962492</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12369,14 +12369,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>22322.734970450401</v>
+        <v>22322.04102198283</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.9287019293784492E-2</v>
+        <v>8.928424362179381E-2</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12387,17 +12387,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-29967128.160366345</v>
+        <v>-29966196.57009786</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-137.84273687082836</v>
+        <v>-137.83845174375304</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-119.86324945289424</v>
+        <v>-119.85952325543742</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12408,7 +12408,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-20407855.192253251</v>
+        <v>-20407541.37490198</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12469,27 +12469,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1044814.1261924214</v>
+        <v>1044770.8437382599</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.5522120516219697</v>
+        <v>3.5520648977393394</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.1790730019081996</v>
+        <v>4.1788998796933408</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.1790730019081996</v>
+        <v>4.1788998796933408</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.1790730019081996</v>
+        <v>4.1788998796933408</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.9373852965383849</v>
+        <v>5.9371393345050478</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12530,27 +12530,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>522407.06309621071</v>
+        <v>522385.42186912993</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.7761060258109849</v>
+        <v>1.7760324488696697</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.0895365009540998</v>
+        <v>2.0894499398466704</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.0895365009540998</v>
+        <v>2.0894499398466704</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.0895365009540998</v>
+        <v>2.0894499398466704</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.9686926482691924</v>
+        <v>2.9685696672525239</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D481F0F-86B7-4F26-95BE-5D48EE116889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF1421CB-70DE-47B9-BE55-95B54019407B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4163,7 +4163,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10634946918170714</v>
+        <v>0.10618300404319321</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4929,7 +4929,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.02</v>
+        <v>6.03</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>1505066.08446572</v>
+        <v>1507566.1942405801</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5019,7 +5019,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0725016991297405</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5186,7 +5186,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.43110552094295607</v>
+        <v>0.43178137336307315</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.645272682142485</v>
+        <v>3.6509874462652547</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5234,7 +5234,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.1255925749887539E-2</v>
+        <v>7.1144391318722425E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5264,20 +5264,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.5520648977393394</v>
+        <v>3.5505472640425011</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.8277102346808043</v>
+        <v>6.8247930686315605</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.1788998796933408</v>
+        <v>4.1771144282852957</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.9371393345050478</v>
+        <v>5.9346026683752706</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10373,11 +10373,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-13691897.811670562</v>
+        <v>-13693174.774403747</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.2058051761618156</v>
+        <v>5.2061974268597728</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12149,17 +12149,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.27432790004951196</v>
+        <v>0.27389850409454053</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.27432790004951196</v>
+        <v>0.27389850409454053</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.27432790004951196</v>
+        <v>0.27389850409454053</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12200,17 +12200,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10634946918170714</v>
+        <v>0.10618300404319321</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1255925749887539E-2</v>
+        <v>7.1144391318722425E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1255925749887539E-2</v>
+        <v>7.1144391318722425E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12270,14 +12270,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>77.079685144704442</v>
+        <v>76.957085920184994</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>77.079685144704442</v>
+        <v>76.957085920184994</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12295,14 +12295,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>8.4052603088640829</v>
+        <v>8.401669128341581</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>8.4052603088640829</v>
+        <v>8.401669128341581</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12345,21 +12345,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9580977.2362178601</v>
+        <v>9565738.196552692</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>38.322226218064245</v>
+        <v>38.261272735867564</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>38.322226218064245</v>
+        <v>38.261272735867564</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>54.446003305962492</v>
+        <v>54.359404122650275</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12369,14 +12369,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>22322.04102198283</v>
+        <v>22324.122867385548</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.928424362179381E-2</v>
+        <v>8.929257063776587E-2</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12387,17 +12387,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-29966196.57009786</v>
+        <v>-29968991.340903316</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-137.83845174375304</v>
+        <v>-137.85130712497906</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-119.85952325543742</v>
+        <v>-119.87070184780789</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12408,7 +12408,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-20407541.37490198</v>
+        <v>-20425577.267218009</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12469,27 +12469,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1044770.8437382599</v>
+        <v>1044324.4612864809</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.5520648977393394</v>
+        <v>3.5505472640425011</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.1788998796933408</v>
+        <v>4.1771144282852957</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.1788998796933408</v>
+        <v>4.1771144282852957</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.1788998796933408</v>
+        <v>4.1771144282852957</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.9371393345050478</v>
+        <v>5.9346026683752706</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12530,27 +12530,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>522385.42186912993</v>
+        <v>522162.23064324044</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.7760324488696697</v>
+        <v>1.7752736320212505</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.0894499398466704</v>
+        <v>2.0885572141426478</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.0894499398466704</v>
+        <v>2.0885572141426478</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.0894499398466704</v>
+        <v>2.0885572141426478</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.9685696672525239</v>
+        <v>2.9673013341876353</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF1421CB-70DE-47B9-BE55-95B54019407B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{768E88FF-9917-43E3-85C9-F012B4C57243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4163,7 +4163,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10618300404319321</v>
+        <v>0.1061797033297284</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5019,7 +5019,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0725016991297405</v>
+        <v>1.072468360265096</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5186,7 +5186,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.43178137336307315</v>
+        <v>0.43179479576441937</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.6509874462652547</v>
+        <v>3.6511009412463653</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5234,7 +5234,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.1144391318722425E-2</v>
+        <v>7.1142179785412665E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5264,20 +5264,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.5505472640425011</v>
+        <v>3.5504002429722847</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.8247930686315605</v>
+        <v>6.8245104675826687</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.1771144282852957</v>
+        <v>4.1769414623203351</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.9346026683752706</v>
+        <v>5.9343569283327557</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10373,11 +10373,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-13693174.774403747</v>
+        <v>-13692749.12015935</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.2061974268597728</v>
+        <v>5.2060666766271204</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12149,17 +12149,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.27389850409454053</v>
+        <v>0.27388998992140517</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.27389850409454053</v>
+        <v>0.27388998992140517</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.27389850409454053</v>
+        <v>0.27388998992140517</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12200,17 +12200,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10618300404319321</v>
+        <v>0.1061797033297284</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1144391318722425E-2</v>
+        <v>7.1142179785412665E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1144391318722425E-2</v>
+        <v>7.1142179785412665E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12270,14 +12270,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>76.957085920184994</v>
+        <v>76.952122077459791</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>76.957085920184994</v>
+        <v>76.952122077459791</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12295,14 +12295,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>8.401669128341581</v>
+        <v>8.4013212320047632</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>8.401669128341581</v>
+        <v>8.4013212320047632</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12345,21 +12345,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9565738.196552692</v>
+        <v>9565121.1926811133</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>38.261272735867564</v>
+        <v>38.258804828746918</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>38.261272735867564</v>
+        <v>38.258804828746918</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>54.359404122650275</v>
+        <v>54.355897862902076</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12369,14 +12369,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>22324.122867385548</v>
+        <v>22323.428918917973</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.929257063776587E-2</v>
+        <v>8.9289794965775174E-2</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12387,17 +12387,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-29968991.340903316</v>
+        <v>-29968059.750634827</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-137.85130712497906</v>
+        <v>-137.84702199790371</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-119.87070184780789</v>
+        <v>-119.86697565035105</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12408,7 +12408,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-20425577.267218009</v>
+        <v>-20425261.986872632</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12469,27 +12469,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1044324.4612864809</v>
+        <v>1044281.2178965093</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.5505472640425011</v>
+        <v>3.5504002429722847</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.1771144282852957</v>
+        <v>4.1769414623203351</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.1771144282852957</v>
+        <v>4.1769414623203351</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.1771144282852957</v>
+        <v>4.1769414623203351</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.9346026683752706</v>
+        <v>5.9343569283327557</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12530,27 +12530,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>522162.23064324044</v>
+        <v>522140.60894825467</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.7752736320212505</v>
+        <v>1.7752001214861424</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.0885572141426478</v>
+        <v>2.0884707311601676</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.0885572141426478</v>
+        <v>2.0884707311601676</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.0885572141426478</v>
+        <v>2.0884707311601676</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.9673013341876353</v>
+        <v>2.9671784641663779</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{768E88FF-9917-43E3-85C9-F012B4C57243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00C091B9-CF37-48BC-8A2E-8FAB4A0FF96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4163,7 +4163,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.1061797033297284</v>
+        <v>0.10617640261626361</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4632,7 +4632,7 @@
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>205</v>
       </c>
       <c r="H89" s="31"/>
@@ -5019,7 +5019,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.072468360265096</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5186,7 +5186,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.43179479576441937</v>
+        <v>0.43180821900029176</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.6511009412463653</v>
+        <v>3.6512144432839277</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5234,7 +5234,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.1142179785412665E-2</v>
+        <v>7.1139968252102934E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5264,20 +5264,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.5504002429722847</v>
+        <v>3.550253224483479</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.8245104675826687</v>
+        <v>6.8242278714957161</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.1769414623203351</v>
+        <v>4.1767684993923284</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.9343569283327557</v>
+        <v>5.9341111926049708</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10373,11 +10373,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-13692749.12015935</v>
+        <v>-13692323.465914955</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.2060666766271204</v>
+        <v>5.2059359263944671</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12149,17 +12149,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.27388998992140517</v>
+        <v>0.27388147574826993</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.27388998992140517</v>
+        <v>0.27388147574826993</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.27388998992140517</v>
+        <v>0.27388147574826993</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12200,17 +12200,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1061797033297284</v>
+        <v>0.10617640261626361</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1142179785412665E-2</v>
+        <v>7.1139968252102934E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1142179785412665E-2</v>
+        <v>7.1139968252102934E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12270,14 +12270,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>76.952122077459791</v>
+        <v>76.947158463365767</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>76.952122077459791</v>
+        <v>76.947158463365767</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12295,14 +12295,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>8.4013212320047632</v>
+        <v>8.4009733417763464</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>8.4013212320047632</v>
+        <v>8.4009733417763464</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12345,21 +12345,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9565121.1926811133</v>
+        <v>9564504.2172283083</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>38.258804828746918</v>
+        <v>38.256337035296369</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>38.258804828746918</v>
+        <v>38.256337035296369</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>54.355897862902076</v>
+        <v>54.352391764649788</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12369,14 +12369,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>22323.428918917973</v>
+        <v>22322.734970450401</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.9289794965775174E-2</v>
+        <v>8.9287019293784492E-2</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12387,17 +12387,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-29968059.750634827</v>
+        <v>-29967128.160366345</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-137.84702199790371</v>
+        <v>-137.84273687082836</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-119.86697565035105</v>
+        <v>-119.86324945289424</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12408,7 +12408,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-20425261.986872632</v>
+        <v>-20424946.678108487</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12469,27 +12469,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1044281.2178965093</v>
+        <v>1044237.9752658095</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.5504002429722847</v>
+        <v>3.550253224483479</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.1769414623203351</v>
+        <v>4.1767684993923284</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.1769414623203351</v>
+        <v>4.1767684993923284</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.1769414623203351</v>
+        <v>4.1767684993923284</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.9343569283327557</v>
+        <v>5.9341111926049708</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12530,27 +12530,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>522140.60894825467</v>
+        <v>522118.98763290473</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.7752001214861424</v>
+        <v>1.7751266122417395</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.0884707311601676</v>
+        <v>2.0883842496961642</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.0884707311601676</v>
+        <v>2.0883842496961642</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.0884707311601676</v>
+        <v>2.0883842496961642</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.9671784641663779</v>
+        <v>2.9670555963024854</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00C091B9-CF37-48BC-8A2E-8FAB4A0FF96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0188C2B1-A8BA-4D2D-A002-4A100A996FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4163,7 +4163,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10617640261626361</v>
+        <v>0.10617310190279883</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5019,7 +5019,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5068,7 +5068,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5115,7 +5115,7 @@
         <v>253</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5186,7 +5186,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.43180821900029176</v>
+        <v>0.43182164307076831</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.6512144432839277</v>
+        <v>3.6513279523786024</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5234,7 +5234,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.1139968252102934E-2</v>
+        <v>7.1137756718793188E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5264,20 +5264,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.550253224483479</v>
+        <v>3.7044586524271774</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.8242278714957161</v>
+        <v>7.2211163415911166</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.1767684993923284</v>
+        <v>4.3581866499143267</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.9341111926049708</v>
+        <v>6.2792316013835805</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10373,11 +10373,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-13692323.465914955</v>
+        <v>-13691897.811670562</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.2059359263944671</v>
+        <v>5.2058051761618156</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12149,17 +12149,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.27388147574826993</v>
+        <v>0.27387296157513463</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.27388147574826993</v>
+        <v>0.27387296157513463</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.27388147574826993</v>
+        <v>0.27387296157513463</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12200,17 +12200,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10617640261626361</v>
+        <v>0.10617310190279883</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1139968252102934E-2</v>
+        <v>7.1137756718793188E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1139968252102934E-2</v>
+        <v>7.1137756718793188E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12259,7 +12259,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12270,14 +12270,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>76.947158463365767</v>
+        <v>80.287507907368621</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>76.947158463365767</v>
+        <v>80.287507907368621</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12295,14 +12295,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>8.4009733417763464</v>
+        <v>8.7658700427717253</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>8.4009733417763464</v>
+        <v>8.7658700427717253</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12345,21 +12345,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9564504.2172283083</v>
+        <v>9979708.4558538608</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>38.256337035296369</v>
+        <v>39.917081066621165</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>38.256337035296369</v>
+        <v>39.917081066621165</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>54.352391764649788</v>
+        <v>57.512129929874632</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12369,14 +12369,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>22322.734970450401</v>
+        <v>22322.04102198283</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.9287019293784492E-2</v>
+        <v>8.928424362179381E-2</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12387,17 +12387,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-29967128.160366345</v>
+        <v>-29966196.57009786</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-137.84273687082836</v>
+        <v>-137.83845174375304</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-119.86324945289424</v>
+        <v>-119.85952325543742</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12408,7 +12408,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-20424946.678108487</v>
+        <v>-20008810.155265979</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12469,27 +12469,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1044237.9752658095</v>
+        <v>1089594.5044115165</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.550253224483479</v>
+        <v>3.7044586524271774</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.1767684993923284</v>
+        <v>4.3581866499143267</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.1767684993923284</v>
+        <v>4.3581866499143267</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.1767684993923284</v>
+        <v>4.3581866499143267</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.9341111926049708</v>
+        <v>6.2792316013835805</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12530,27 +12530,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>522118.98763290473</v>
+        <v>544797.25220575824</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.7751266122417395</v>
+        <v>1.8522293262135887</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.0883842496961642</v>
+        <v>2.1790933249571633</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.0883842496961642</v>
+        <v>2.1790933249571633</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.0883842496961642</v>
+        <v>2.1790933249571633</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.9670555963024854</v>
+        <v>3.1396158006917902</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0188C2B1-A8BA-4D2D-A002-4A100A996FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E38D658F-FCDF-4602-A375-AF7DA3E0DE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,7 +967,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -980,6 +980,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1519,7 +1520,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1819,9 +1820,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2156,6 +2154,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3593,7 +3597,7 @@
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3601,7 +3605,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3609,7 +3613,7 @@
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45605</v>
       </c>
     </row>
@@ -3617,7 +3621,7 @@
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3625,16 +3629,16 @@
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3642,7 +3646,7 @@
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>250010977486</v>
       </c>
     </row>
@@ -3650,101 +3654,101 @@
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>254</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>263</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>263</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>265</v>
       </c>
       <c r="D22" s="24"/>
@@ -3802,406 +3806,406 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>1402495</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>1324203</v>
       </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>669001</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>567720</v>
       </c>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <v>220152</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <v>219991</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>255</v>
       </c>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>-193</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>136</v>
       </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151">
+      <c r="C34" s="217"/>
+      <c r="D34" s="150">
         <v>11972903</v>
       </c>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151">
+      <c r="C35" s="217"/>
+      <c r="D35" s="150">
         <v>213823</v>
       </c>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151">
+      <c r="C36" s="217"/>
+      <c r="D36" s="150">
         <v>8852611</v>
       </c>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151">
+      <c r="C37" s="217"/>
+      <c r="D37" s="150">
         <v>2466431</v>
       </c>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151">
+      <c r="C38" s="217"/>
+      <c r="D38" s="150">
         <v>241133</v>
       </c>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151">
+      <c r="C39" s="217"/>
+      <c r="D39" s="150">
         <v>35175</v>
       </c>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151">
+      <c r="C40" s="217"/>
+      <c r="D40" s="150">
         <v>67759</v>
       </c>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151">
+      <c r="C41" s="217"/>
+      <c r="D41" s="150">
         <v>12220942</v>
       </c>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151">
+      <c r="C42" s="217"/>
+      <c r="D42" s="150">
         <v>-498</v>
       </c>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151">
+      <c r="C43" s="217"/>
+      <c r="D43" s="150">
         <v>3475378</v>
       </c>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <f>0.4+0.197</f>
         <v>0.59699999999999998</v>
       </c>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10617310190279883</v>
-      </c>
-      <c r="D45" s="153" t="str">
+        <v>0.10503056990884992</v>
+      </c>
+      <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4210,10 +4214,10 @@
       <c r="B47" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4322,7 +4326,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4334,7 +4338,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4354,7 +4358,7 @@
         <v>50</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4426,7 +4430,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4438,7 +4442,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4453,7 +4457,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4507,16 +4511,16 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="248">
+      <c r="C72" s="247">
         <v>343468</v>
       </c>
-      <c r="D72" s="249">
+      <c r="D72" s="248">
         <v>0</v>
       </c>
-      <c r="E72" s="250"/>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4608,7 +4612,7 @@
       <c r="B86" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4616,19 +4620,20 @@
       <c r="B87" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>266</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4642,14 +4647,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4661,12 +4666,12 @@
         <f>C25</f>
         <v>1402495</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>1402495</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>1402495</v>
       </c>
@@ -4679,15 +4684,15 @@
         <f>C26</f>
         <v>669001</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.47700776116848903</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>669001</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>669001</v>
       </c>
@@ -4700,15 +4705,15 @@
         <f>C27+C28</f>
         <v>220152</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.15697168260849415</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>220152</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>220152</v>
       </c>
@@ -4721,12 +4726,12 @@
         <f>C29</f>
         <v>0</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>0</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>0</v>
       </c>
@@ -4739,15 +4744,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -4760,12 +4765,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4778,12 +4783,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>0</v>
       </c>
@@ -4792,16 +4797,16 @@
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>0.59699999999999998</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>0.4</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <v>0.4</v>
       </c>
       <c r="G98" s="1"/>
@@ -4919,17 +4924,17 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>0939.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.03</v>
+        <v>6.09</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4939,40 +4944,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>建设银行</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>250010977486</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1507566.1942405801</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>1522566.8528897399</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4980,11 +4985,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4995,22 +5000,22 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>Y</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0014</v>
       </c>
@@ -5019,7 +5024,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0714173714319866</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5039,7 +5044,7 @@
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5050,7 +5055,7 @@
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5064,11 +5069,11 @@
       <c r="B12" s="87" t="s">
         <v>252</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5077,7 +5082,7 @@
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5088,7 +5093,7 @@
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5099,10 +5104,10 @@
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -5114,10 +5119,10 @@
       <c r="B17" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5139,14 +5144,14 @@
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.47700776116848903</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5154,7 +5159,7 @@
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.15697168260849415</v>
       </c>
@@ -5165,7 +5170,7 @@
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
@@ -5177,46 +5182,46 @@
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="178">
+      <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.43182164307076831</v>
+        <v>0.43651903777514928</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>257</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.6513279523786024</v>
+        <v>3.6910474265242059</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>0.2597472795768383</v>
       </c>
@@ -5225,16 +5230,16 @@
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.36602055622301682</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.1137756718793188E-2</v>
+        <v>7.0372241144958075E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5253,10 +5258,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>256</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5264,22 +5269,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.7044586524271774</v>
+        <v>3.5341916024107651</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>7.2211163415911166</v>
+        <v>6.7933545331506764</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.3581866499143267</v>
-      </c>
-      <c r="G29" s="273">
+        <v>4.1578724734244297</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.2792316013835805</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>5.907264811435371</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5291,17 +5296,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -5311,7 +5316,7 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="226" t="str">
+      <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly disagree</v>
@@ -5319,17 +5324,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>agree</v>
       </c>
@@ -5339,24 +5344,24 @@
       <c r="B37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -5366,7 +5371,7 @@
       <c r="B40" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -5385,10 +5390,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -6370,16 +6375,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>204</v>
       </c>
       <c r="I2" s="7"/>
@@ -6393,11 +6398,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6430,7 +6435,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6494,47 +6499,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>1402495</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>1324203</v>
       </c>
-      <c r="E6" s="201" t="str">
+      <c r="E6" s="200" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="201" t="str">
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="201" t="str">
+      <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6596,47 +6601,47 @@
       <c r="B8" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>669001</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>567720</v>
       </c>
-      <c r="E8" s="200" t="str">
+      <c r="E8" s="199" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="200" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6647,47 +6652,47 @@
       <c r="B9" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>733494</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>756483</v>
       </c>
-      <c r="E9" s="152" t="str">
+      <c r="E9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="152" t="str">
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6698,47 +6703,47 @@
       <c r="B10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>220152</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>219991</v>
       </c>
-      <c r="E10" s="200" t="str">
+      <c r="E10" s="199" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="200" t="str">
+      <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6749,47 +6754,47 @@
       <c r="B11" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="200" t="str">
+      <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="200" t="str">
+      <c r="D11" s="199" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6800,47 +6805,47 @@
       <c r="B12" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>181.33333333333334</v>
       </c>
-      <c r="E12" s="200" t="str">
+      <c r="E12" s="199" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6848,50 +6853,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.36602055622301682</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>0.40500638245545934</v>
       </c>
-      <c r="E13" s="230" t="str">
+      <c r="E13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="230" t="str">
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="230" t="str">
+      <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6899,50 +6904,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>513342</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>536310.66666666663</v>
       </c>
-      <c r="E14" s="231" t="str">
+      <c r="E14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="231" t="str">
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="231" t="str">
+      <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6950,50 +6955,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-4.282716733833368E-2</v>
       </c>
-      <c r="D15" s="233" t="str">
+      <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="233" t="str">
+      <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -7004,47 +7009,47 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="200" t="str">
+      <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="200" t="str">
+      <c r="D16" s="199" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7055,47 +7060,47 @@
       <c r="B17" s="97" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="200" t="str">
+      <c r="C17" s="199" t="str">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v/>
       </c>
-      <c r="D17" s="200" t="str">
+      <c r="D17" s="199" t="str">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v/>
       </c>
-      <c r="E17" s="200" t="str">
+      <c r="E17" s="199" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="200" t="str">
+      <c r="F17" s="199" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="200" t="str">
+      <c r="G17" s="199" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7106,47 +7111,47 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="153" t="str">
+      <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="153" t="str">
+      <c r="D18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7157,47 +7162,47 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="200" t="str">
+      <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="200" t="str">
+      <c r="D19" s="199" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7208,47 +7213,47 @@
       <c r="B20" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="153" t="str">
+      <c r="E20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="153" t="str">
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="153" t="str">
+      <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7259,47 +7264,47 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="200" t="str">
+      <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="200" t="str">
+      <c r="D21" s="199" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7310,47 +7315,47 @@
       <c r="B22" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>513342</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>536310.66666666663</v>
       </c>
-      <c r="E22" s="162" t="str">
+      <c r="E22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="162" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="162" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7361,47 +7366,47 @@
       <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.27451541716726263</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>0.30375478684159452</v>
       </c>
-      <c r="E23" s="154" t="str">
+      <c r="E23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="154" t="str">
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="154" t="str">
+      <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7412,7 +7417,7 @@
       <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>385006.5</v>
       </c>
@@ -7460,50 +7465,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-4.2827167338333749E-2</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7620,43 +7625,43 @@
         <f>Fin_Analysis!C28</f>
         <v>39536552</v>
       </c>
-      <c r="D28" s="200">
+      <c r="D28" s="199">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v>11972903</v>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7671,43 +7676,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D29" s="200">
+      <c r="D29" s="199">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v>213823</v>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7722,43 +7727,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D30" s="200">
+      <c r="D30" s="199">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v>8852611</v>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7773,43 +7778,43 @@
         <f>Fin_Analysis!I28</f>
         <v>37038911</v>
       </c>
-      <c r="D31" s="200">
+      <c r="D31" s="199">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>2466431</v>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7824,43 +7829,43 @@
         <f>Fin_Analysis!I48</f>
         <v>0</v>
       </c>
-      <c r="D32" s="200">
+      <c r="D32" s="199">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v>241133</v>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7875,43 +7880,43 @@
         <f>Fin_Analysis!I15</f>
         <v>36209311</v>
       </c>
-      <c r="D33" s="200">
+      <c r="D33" s="199">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>35175</v>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7926,43 +7931,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D34" s="200">
+      <c r="D34" s="199">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>67759</v>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -8028,43 +8033,43 @@
         <f>Fin_Analysis!D3</f>
         <v>3255476</v>
       </c>
-      <c r="D36" s="200">
+      <c r="D36" s="199">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>12220942</v>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8079,43 +8084,43 @@
         <f>Fin_Analysis!D4</f>
         <v>20815</v>
       </c>
-      <c r="D37" s="200">
+      <c r="D37" s="199">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>-498</v>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8130,43 +8135,43 @@
         <f>Fin_Analysis!C63</f>
         <v>13367926</v>
       </c>
-      <c r="D38" s="200">
+      <c r="D38" s="199">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v>3475378</v>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8228,47 +8233,47 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>1.9064592261121876E-2</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>4.6826567088629992E-2</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8297,47 +8302,47 @@
       <c r="B42" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.47700776116848903</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.42872580714588321</v>
       </c>
-      <c r="E42" s="157" t="str">
+      <c r="E42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G42" s="157" t="str">
+      <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8348,47 +8353,47 @@
       <c r="B43" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.15697168260849415</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.16613087268341786</v>
       </c>
-      <c r="E43" s="154" t="str">
+      <c r="E43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F43" s="154" t="str">
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G43" s="154" t="str">
+      <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8399,47 +8404,47 @@
       <c r="B44" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="154" t="str">
+      <c r="E44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F44" s="154" t="str">
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G44" s="154" t="str">
+      <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8450,47 +8455,47 @@
       <c r="B45" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E45" s="154" t="str">
+      <c r="E45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F45" s="154" t="str">
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G45" s="154" t="str">
+      <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8501,47 +8506,47 @@
       <c r="B46" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>1.3693771523953151E-4</v>
       </c>
-      <c r="E46" s="154" t="str">
+      <c r="E46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F46" s="154" t="str">
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G46" s="154" t="str">
+      <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8552,47 +8557,47 @@
       <c r="B47" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="154" t="str">
+      <c r="E47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F47" s="154" t="str">
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G47" s="154" t="str">
+      <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8603,47 +8608,47 @@
       <c r="B48" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>0.36602055622301682</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>0.40500638245545934</v>
       </c>
-      <c r="E48" s="154" t="str">
+      <c r="E48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F48" s="154" t="str">
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G48" s="154" t="str">
+      <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8672,47 +8677,47 @@
       <c r="B50" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="157">
+      <c r="D50" s="156">
         <f t="shared" si="41"/>
         <v>0.16147297657534382</v>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8723,47 +8728,47 @@
       <c r="B51" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="154">
+      <c r="D51" s="153">
         <f t="shared" si="42"/>
         <v>6.6852370822298397</v>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8791,47 +8796,47 @@
       <c r="B53" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="157">
+      <c r="C53" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.91920770503345783</v>
       </c>
-      <c r="D53" s="157">
+      <c r="D53" s="156">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v>0.1813687183432823</v>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8841,47 +8846,47 @@
       <c r="B54" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="158">
+      <c r="C54" s="157">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>1.4177071748203107E-2</v>
       </c>
-      <c r="D54" s="158">
+      <c r="D54" s="157">
         <f t="shared" si="44"/>
         <v>5.2102382756588357</v>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8891,47 +8896,47 @@
       <c r="B55" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="154" t="str">
+      <c r="C55" s="153" t="str">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>-</v>
       </c>
-      <c r="D55" s="154" t="str">
+      <c r="D55" s="153" t="str">
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
-      <c r="E55" s="154" t="str">
+      <c r="E55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="154" t="str">
+      <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="154" t="str">
+      <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8941,47 +8946,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="159">
+      <c r="C56" s="158">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>1.0674328950978067</v>
       </c>
-      <c r="D56" s="159">
+      <c r="D56" s="158">
         <f t="shared" si="46"/>
         <v>4.8543433811852026</v>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10279,8 +10284,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10329,7 +10334,7 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>3234661</v>
       </c>
@@ -10373,11 +10378,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-13691897.811670562</v>
+        <v>-13679330.611089023</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.2058051761618156</v>
+        <v>5.2019448495670133</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10426,7 +10431,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10473,7 +10478,7 @@
         <f>Inputs!C48</f>
         <v>3339708</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10501,7 +10506,7 @@
         <f>Inputs!C49</f>
         <v>683021</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10529,7 +10534,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10557,7 +10562,7 @@
         <f>Inputs!C51</f>
         <v>2962684</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10570,7 +10575,7 @@
       <c r="H14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>2498474</v>
       </c>
@@ -10585,7 +10590,7 @@
         <f>Inputs!C52</f>
         <v>6961515</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10612,7 +10617,7 @@
         <f>Inputs!C53</f>
         <v>25589624</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10634,7 +10639,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10656,7 +10661,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10677,7 +10682,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10702,7 +10707,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10729,7 +10734,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10750,7 +10755,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10915,7 +10920,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>37038911</v>
       </c>
@@ -10944,7 +10949,7 @@
         <f>Inputs!C60</f>
         <v>82672</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10970,7 +10975,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10997,7 +11002,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -11024,7 +11029,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -11040,7 +11045,7 @@
       <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11054,7 +11059,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11081,7 +11086,7 @@
         <f>Inputs!C65</f>
         <v>21347</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11107,7 +11112,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11134,7 +11139,7 @@
         <f>Inputs!C67</f>
         <v>4094</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11161,7 +11166,7 @@
         <f>Inputs!C68</f>
         <v>181735</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11182,7 +11187,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11203,7 +11208,7 @@
         <f>Inputs!C70</f>
         <v>5722</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11224,7 +11229,7 @@
         <f>Inputs!C71</f>
         <v>118797</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11245,7 +11250,7 @@
         <f>Inputs!C72</f>
         <v>343468</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11391,7 +11396,7 @@
       <c r="H48" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>0</v>
       </c>
@@ -11500,11 +11505,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>36209311</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11515,11 +11520,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11531,11 +11536,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11631,8 +11636,8 @@
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>36209311</v>
@@ -11712,8 +11717,8 @@
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>829600</v>
@@ -11749,19 +11754,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11771,18 +11776,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11793,17 +11798,17 @@
         <f>Data!C6</f>
         <v>1402495</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>1402495</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>1402495</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11814,23 +11819,23 @@
         <f>Data!C8</f>
         <v>669001</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.47700776116848903</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>669001</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.47700776116848903</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>669001</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.47700776116848903</v>
       </c>
@@ -11840,21 +11845,21 @@
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>733494</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>733494</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>733494</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11865,23 +11870,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>220152</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.15697168260849415</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>220152</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.15697168260849415</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>220152</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.15697168260849415</v>
       </c>
@@ -11895,54 +11900,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>513342</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>0.36602055622301682</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>513342</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>0.36602055622301682</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>513342</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>0.36602055622301682</v>
       </c>
@@ -11956,27 +11961,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>131</v>
       </c>
     </row>
@@ -11988,23 +11993,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>0</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>0</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>0</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>0</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>0</v>
       </c>
@@ -12018,23 +12023,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -12044,27 +12049,27 @@
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>513342</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>0.36602055622301682</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>513342</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>0.36602055622301682</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>513342</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>0.36602055622301682</v>
       </c>
@@ -12074,49 +12079,49 @@
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>385006.5</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>0.27451541716726263</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>385006.5</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>0.27451541716726263</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>385006.5</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>0.27451541716726263</v>
       </c>
@@ -12126,69 +12131,69 @@
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.5399583805137493</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>1.5399583805137493</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>1.5399583805137493</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.27387296157513463</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>0.27092580626678164</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.27387296157513463</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>0.27092580626678164</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.27387296157513463</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>0.27092580626678164</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>0.59699999999999998</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>0.38767281476843118</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>0.4</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>0.2597472795768383</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>0.4</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>0.2597472795768383</v>
       </c>
@@ -12198,21 +12203,21 @@
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10617310190279883</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>0.10503056990884992</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1137756718793188E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>7.0372241144958075E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1137756718793188E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>7.0372241144958075E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12234,22 +12239,22 @@
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12259,9 +12264,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12269,15 +12274,15 @@
         <v>209</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>80.287507907368621</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>75.986451109138017</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>80.287507907368621</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>75.986451109138017</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12285,24 +12290,27 @@
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>8.7658700427717253</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>8.362966684130626</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>8.7658700427717253</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>8.362966684130626</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12323,14 +12331,14 @@
       <c r="D96" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12345,21 +12353,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9979708.4558538608</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>9445088.6374391168</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>39.917081066621165</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>37.77869568934436</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>39.917081066621165</v>
+        <v>37.77869568934436</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>57.512129929874632</v>
+        <v>53.673786556466212</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12369,16 +12377,16 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>22322.04102198283</v>
-      </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+        <v>22301.5525863568</v>
+      </c>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.928424362179381E-2</v>
-      </c>
-      <c r="I98" s="216"/>
+        <v>8.9202293477715924E-2</v>
+      </c>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12387,19 +12395,19 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-29966196.57009786</v>
-      </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+        <v>-29938691.894840844</v>
+      </c>
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-137.83845174375304</v>
-      </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+        <v>-137.71193579287907</v>
+      </c>
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-119.85952325543742</v>
-      </c>
-      <c r="I99" s="217"/>
+        <v>-119.74950938511225</v>
+      </c>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12408,7 +12416,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-20008810.155265979</v>
+        <v>-20515904.809988081</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12447,14 +12455,14 @@
       <c r="D102" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12469,27 +12477,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1089594.5044115165</v>
+        <v>1039513.7613429743</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.7044586524271774</v>
+        <v>3.5341916024107651</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.3581866499143267</v>
+        <v>4.1578724734244297</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.3581866499143267</v>
+        <v>4.1578724734244297</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.3581866499143267</v>
+        <v>4.1578724734244297</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.2792316013835805</v>
+        <v>5.907264811435371</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12508,14 +12516,14 @@
       <c r="D105" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12530,27 +12538,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>544797.25220575824</v>
+        <v>519756.88067148713</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.8522293262135887</v>
+        <v>1.7670958012053826</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.1790933249571633</v>
+        <v>2.0789362367122148</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.1790933249571633</v>
+        <v>2.0789362367122148</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.1790933249571633</v>
+        <v>2.0789362367122148</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.1396158006917902</v>
+        <v>2.9536324057176855</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E38D658F-FCDF-4602-A375-AF7DA3E0DE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64376BB6-D6D4-418E-B2EE-5214EE8A9140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
   <si>
     <t>Company Info:</t>
   </si>
@@ -936,6 +936,9 @@
   </si>
   <si>
     <t>建设银行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior Cycl. </t>
   </si>
   <si>
     <t>C0014</t>
@@ -3577,7 +3580,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3630,7 +3633,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3639,7 +3642,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3655,7 +3658,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3687,7 +3690,7 @@
         <v>254</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3704,7 +3707,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3713,7 +3716,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3722,7 +3725,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3731,7 +3734,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3740,7 +3743,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3749,7 +3752,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4167,7 +4170,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10503056990884992</v>
+        <v>0.10463687355401086</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4621,9 +4624,11 @@
         <v>247</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>266</v>
-      </c>
-      <c r="D87" s="269"/>
+        <v>267</v>
+      </c>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4934,10 +4939,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.09</v>
+        <v>6.1</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4975,7 +4980,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1522566.8528897399</v>
+        <v>1525066.9626645998</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5013,7 +5018,7 @@
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
-        <v>Y</v>
+        <v xml:space="preserve">Superior Cycl. </v>
       </c>
       <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
@@ -5024,7 +5029,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0714173714319866</v>
+        <v>1.0691539843877156</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5070,10 +5075,10 @@
         <v>252</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5120,7 +5125,7 @@
         <v>253</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5191,7 +5196,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.43651903777514928</v>
+        <v>0.43816144114742911</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5207,7 +5212,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.6910474265242059</v>
+        <v>3.7049349966321814</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5239,7 +5244,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.0372241144958075E-2</v>
+        <v>7.0108457992637097E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5269,20 +5274,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.5341916024107651</v>
+        <v>3.5223820637290446</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.7933545331506764</v>
+        <v>6.1729304745726754</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.1578724734244297</v>
+        <v>4.1439788985047583</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.907264811435371</v>
+        <v>5.3677656300631966</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10378,11 +10383,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-13679330.611089023</v>
+        <v>-13650432.797309825</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.2019448495670133</v>
+        <v>5.193068171078461</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12154,17 +12159,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.27092580626678164</v>
+        <v>0.26991026857664407</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.27092580626678164</v>
+        <v>0.26991026857664407</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.27092580626678164</v>
+        <v>0.26991026857664407</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12205,17 +12210,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10503056990884992</v>
+        <v>0.10463687355401086</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0372241144958075E-2</v>
+        <v>7.0108457992637097E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0372241144958075E-2</v>
+        <v>7.0108457992637097E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12264,7 +12269,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12275,14 +12280,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>75.986451109138017</v>
+        <v>75.523467356404851</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>75.986451109138017</v>
+        <v>75.523467356404851</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12296,21 +12301,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.362966684130626</v>
+        <v>8.3350217423558757</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.362966684130626</v>
+        <v>8.3350217423558757</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12353,21 +12358,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9445088.6374391168</v>
+        <v>9387539.9229192324</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>37.77869568934436</v>
+        <v>37.548510938664329</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>37.77869568934436</v>
+        <v>37.548510938664329</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>53.673786556466212</v>
+        <v>48.637218338476281</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12377,14 +12382,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>22301.5525863568</v>
+        <v>22254.4401850303</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.9202293477715924E-2</v>
+        <v>8.9013852146858211E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12395,17 +12400,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-29938691.894840844</v>
+        <v>-29875445.909509625</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-137.71193579287907</v>
+        <v>-137.42101703458187</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-119.74950938511225</v>
+        <v>-119.49653655181032</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12416,7 +12421,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-20515904.809988081</v>
+        <v>-20510160.426775426</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12477,27 +12482,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1039513.7613429743</v>
+        <v>1036040.2150965323</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.5341916024107651</v>
+        <v>3.5223820637290446</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.1578724734244297</v>
+        <v>4.1439788985047583</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.1578724734244297</v>
+        <v>4.1439788985047583</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.1578724734244297</v>
+        <v>4.1439788985047583</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.907264811435371</v>
+        <v>5.3677656300631966</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12538,27 +12543,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>519756.88067148713</v>
+        <v>518020.10754826613</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.7670958012053826</v>
+        <v>1.7611910318645223</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.0789362367122148</v>
+        <v>2.0719894492523792</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.0789362367122148</v>
+        <v>2.0719894492523792</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.0789362367122148</v>
+        <v>2.0719894492523792</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.9536324057176855</v>
+        <v>2.6838828150315983</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64376BB6-D6D4-418E-B2EE-5214EE8A9140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8FDC86B-CEE7-4F06-BCF7-8A1A7D018B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4170,7 +4170,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10463687355401086</v>
+        <v>0.10443614251862943</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4939,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.1</v>
+        <v>6.12</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -4980,7 +4980,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1525066.9626645998</v>
+        <v>1530067.1822143202</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5029,7 +5029,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691539843877156</v>
+        <v>1.0706016620000203</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.43816144114742911</v>
+        <v>0.4390036074475685</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.7049349966321814</v>
+        <v>3.7120560508951939</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5244,7 +5244,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.0108457992637097E-2</v>
+        <v>6.9973964836602634E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5274,20 +5274,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.5223820637290446</v>
+        <v>3.5249355744369657</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.1729304745726754</v>
+        <v>6.177405470124234</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.1439788985047583</v>
+        <v>4.1469830287493714</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.3677656300631966</v>
+        <v>5.3716569305428123</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10383,11 +10383,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-13650432.797309825</v>
+        <v>-13668916.033819722</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.193068171078461</v>
+        <v>5.1987457544825153</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12159,17 +12159,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26991026857664407</v>
+        <v>0.26939248391975157</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26991026857664407</v>
+        <v>0.26939248391975157</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26991026857664407</v>
+        <v>0.26939248391975157</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12210,17 +12210,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10463687355401086</v>
+        <v>0.10443614251862943</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0108457992637097E-2</v>
+        <v>6.9973964836602634E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0108457992637097E-2</v>
+        <v>6.9973964836602634E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12280,14 +12280,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>75.523467356404851</v>
+        <v>75.471679224336455</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>75.523467356404851</v>
+        <v>75.471679224336455</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12308,14 +12308,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.3350217423558757</v>
+        <v>8.341064121315565</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.3350217423558757</v>
+        <v>8.341064121315565</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12358,21 +12358,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9387539.9229192324</v>
+        <v>9381102.6766652819</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>37.548510938664329</v>
+        <v>37.522763084235372</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>37.548510938664329</v>
+        <v>37.522763084235372</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>48.637218338476281</v>
+        <v>48.603866709175875</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12382,14 +12382,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>22254.4401850303</v>
+        <v>22284.573594530422</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.9013852146858211E-2</v>
+        <v>8.913438049246579E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12400,17 +12400,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-29875445.909509625</v>
+        <v>-29915898.468104899</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-137.42101703458187</v>
+        <v>-137.60709063363879</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-119.49653655181032</v>
+        <v>-119.65833968142505</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12421,7 +12421,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-20510160.426775426</v>
+        <v>-20557080.365034148</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12482,27 +12482,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1036040.2150965323</v>
+        <v>1036791.2806354831</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.5223820637290446</v>
+        <v>3.5249355744369657</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.1439788985047583</v>
+        <v>4.1469830287493714</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.1439788985047583</v>
+        <v>4.1469830287493714</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.1439788985047583</v>
+        <v>4.1469830287493714</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.3677656300631966</v>
+        <v>5.3716569305428123</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12543,27 +12543,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>518020.10754826613</v>
+        <v>518395.64031774155</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.7611910318645223</v>
+        <v>1.7624677872184829</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.0719894492523792</v>
+        <v>2.0734915143746857</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.0719894492523792</v>
+        <v>2.0734915143746857</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.0719894492523792</v>
+        <v>2.0734915143746857</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.6838828150315983</v>
+        <v>2.6858284652714062</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8FDC86B-CEE7-4F06-BCF7-8A1A7D018B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94001601-15CF-4DD5-9502-806E1B8A5A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -932,6 +932,17 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>0939.HK</t>
   </si>
   <si>
@@ -945,9 +956,6 @@
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>CN</t>
   </si>
   <si>
     <t>Strongly agree</t>
@@ -3580,7 +3588,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3601,7 +3609,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3609,7 +3617,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3633,7 +3641,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3642,7 +3650,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3658,7 +3666,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3690,7 +3698,7 @@
         <v>254</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3707,7 +3715,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3716,7 +3724,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3725,7 +3733,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3734,7 +3742,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3743,7 +3751,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3752,7 +3760,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4170,7 +4178,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10443614251862943</v>
+        <v>0.10231235984802245</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4301,7 +4309,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4415,7 +4423,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>259</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4624,7 +4632,7 @@
         <v>247</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4939,10 +4947,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.12</v>
+        <v>6.25</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4980,7 +4988,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1530067.1822143202</v>
+        <v>1562568.6092874999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5029,7 +5037,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0706016620000203</v>
+        <v>1.0711092948913574</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5075,10 +5083,10 @@
         <v>252</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5125,7 +5133,7 @@
         <v>253</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5196,7 +5204,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.4390036074475685</v>
+        <v>0.44811637012077848</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5212,7 +5220,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.7120560508951939</v>
+        <v>3.7891102829051233</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5244,7 +5252,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.9973964836602634E-2</v>
+        <v>6.8550994873046889E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5274,20 +5282,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.5249355744369657</v>
+        <v>4.1691199812066975</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.177405470124234</v>
+        <v>7.7035100587955805</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.1469830287493714</v>
+        <v>4.904847036713762</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.3716569305428123</v>
+        <v>6.6987043989526791</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10383,11 +10391,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-13668916.033819722</v>
+        <v>-13675397.241176276</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.1987457544825153</v>
+        <v>5.2007366176793424</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12159,17 +12167,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26939248391975157</v>
+        <v>0.26391419761825902</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26939248391975157</v>
+        <v>0.26391419761825902</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26939248391975157</v>
+        <v>0.26391419761825902</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12210,17 +12218,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10443614251862943</v>
+        <v>0.10231235984802245</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9973964836602634E-2</v>
+        <v>6.8550994873046889E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9973964836602634E-2</v>
+        <v>6.8550994873046889E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12269,7 +12277,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12280,14 +12288,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>75.471679224336455</v>
+        <v>87.937751860571083</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>75.471679224336455</v>
+        <v>87.937751860571083</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12308,14 +12316,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.341064121315565</v>
+        <v>9.8653993408822984</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.341064121315565</v>
+        <v>9.8653993408822984</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12358,21 +12366,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9381102.6766652819</v>
+        <v>10930631.037199952</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>37.522763084235372</v>
+        <v>43.720604379509851</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>37.522763084235372</v>
+        <v>43.720604379509851</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>48.603866709175875</v>
+        <v>59.71060925849293</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12382,14 +12390,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>22284.573594530422</v>
+        <v>22295.139973163605</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.913438049246579E-2</v>
+        <v>8.9176644151203632E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12400,17 +12408,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-29915898.468104899</v>
+        <v>-29930083.290130995</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-137.60709063363879</v>
+        <v>-137.67233794995283</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-119.65833968142505</v>
+        <v>-119.71507647821987</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12421,7 +12429,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-20557080.365034148</v>
+        <v>-19021747.392904207</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12482,27 +12490,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1036791.2806354831</v>
+        <v>1226265.6020681181</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.5249355744369657</v>
+        <v>4.1691199812066975</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.1469830287493714</v>
+        <v>4.904847036713762</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.1469830287493714</v>
+        <v>4.904847036713762</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.1469830287493714</v>
+        <v>4.904847036713762</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.3716569305428123</v>
+        <v>6.6987043989526791</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12543,27 +12551,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>518395.64031774155</v>
+        <v>613132.80103405903</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.7624677872184829</v>
+        <v>2.0845599906033487</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.0734915143746857</v>
+        <v>2.452423518356881</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.0734915143746857</v>
+        <v>2.452423518356881</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.0734915143746857</v>
+        <v>2.452423518356881</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.6858284652714062</v>
+        <v>3.3493521994763396</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94001601-15CF-4DD5-9502-806E1B8A5A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48D6641A-8C65-4EA1-9CDF-489D663BD846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -940,6 +940,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3587,7 +3591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3609,7 +3613,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3617,7 +3621,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3641,7 +3645,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3650,7 +3654,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3666,7 +3670,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3715,7 +3719,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3724,7 +3728,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3733,7 +3737,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3742,7 +3746,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3751,7 +3755,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3760,7 +3764,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4178,7 +4182,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10231235984802245</v>
+        <v>0.10207262635231018</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4632,7 +4636,7 @@
         <v>247</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4947,10 +4951,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.25</v>
+        <v>6.26</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4988,7 +4992,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1562568.6092874999</v>
+        <v>1565068.7190623598</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5037,7 +5041,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0711092948913574</v>
+        <v>1.0703092813491821</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5058,7 +5062,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5069,7 +5073,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5096,7 +5100,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5204,7 +5208,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.44811637012077848</v>
+        <v>0.4491688413634029</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5220,7 +5224,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.7891102829051233</v>
+        <v>3.7980095998544576</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5252,7 +5256,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.8550994873046889E-2</v>
+        <v>6.8390369415283203E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5282,20 +5286,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.1691199812066975</v>
+        <v>4.1628758117379077</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>7.7035100587955805</v>
+        <v>7.691972366781803</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.904847036713762</v>
+        <v>4.897500954985774</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.6987043989526791</v>
+        <v>6.688671623288525</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5330,8 +5334,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly disagree</v>
       </c>
     </row>
@@ -6357,12 +6361,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8788,118 +8792,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="C52" s="153" t="e">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156">
+      <c r="C54" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.91920770503345783</v>
       </c>
-      <c r="D53" s="156">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
+      <c r="D54" s="156">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
         <v>0.1813687183432823</v>
       </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>1.4177071748203107E-2</v>
-      </c>
-      <c r="D54" s="157">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
-        <v>5.2102382756588357</v>
-      </c>
-      <c r="E54" s="157" t="str">
+        <v/>
+      </c>
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8907,107 +8912,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153" t="str">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>-</v>
-      </c>
-      <c r="D55" s="153" t="str">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>1.4177071748203107E-2</v>
+      </c>
+      <c r="D55" s="157">
         <f t="shared" si="45"/>
-        <v>-</v>
-      </c>
-      <c r="E55" s="153" t="str">
+        <v>5.2102382756588357</v>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153" t="str">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>-</v>
+      </c>
+      <c r="D56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v>-</v>
+      </c>
+      <c r="E56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>1.0674328950978067</v>
       </c>
-      <c r="D56" s="158">
-        <f t="shared" si="46"/>
+      <c r="D57" s="158">
+        <f t="shared" si="47"/>
         <v>4.8543433811852026</v>
       </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9575,7 +9627,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10258,6 +10312,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10391,11 +10446,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-13675397.241176276</v>
+        <v>-13665183.061316434</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.2007366176793424</v>
+        <v>5.197599079617369</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12167,17 +12222,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26391419761825902</v>
+        <v>0.26329580631874144</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26391419761825902</v>
+        <v>0.26329580631874144</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26391419761825902</v>
+        <v>0.26329580631874144</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12218,17 +12273,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10231235984802245</v>
+        <v>0.10207262635231018</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8550994873046889E-2</v>
+        <v>6.8390369415283203E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8550994873046889E-2</v>
+        <v>6.8390369415283203E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12288,14 +12343,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>87.937751860571083</v>
+        <v>87.657316785356343</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>87.937751860571083</v>
+        <v>87.657316785356343</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12316,14 +12371,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.8653993408822984</v>
+        <v>9.8506237465987478</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.8653993408822984</v>
+        <v>9.8506237465987478</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12366,21 +12421,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10930631.037199952</v>
+        <v>10895773.057865636</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>43.720604379509851</v>
+        <v>43.581178584351456</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>43.720604379509851</v>
+        <v>43.581178584351456</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>59.71060925849293</v>
+        <v>59.520191049655011</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12390,14 +12445,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>22295.139973163605</v>
+        <v>22278.487691283226</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.9176644151203632E-2</v>
+        <v>8.9110037948356757E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12408,17 +12463,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-29930083.290130995</v>
+        <v>-29907728.454761028</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-137.67233794995283</v>
+        <v>-137.56951022241074</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-119.71507647821987</v>
+        <v>-119.62566106296588</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12429,7 +12484,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-19021747.392904207</v>
+        <v>-19034233.884586677</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12490,27 +12545,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1226265.6020681181</v>
+        <v>1224429.0009946118</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.1691199812066975</v>
+        <v>4.1628758117379077</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.904847036713762</v>
+        <v>4.897500954985774</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.904847036713762</v>
+        <v>4.897500954985774</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.904847036713762</v>
+        <v>4.897500954985774</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.6987043989526791</v>
+        <v>6.688671623288525</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12551,27 +12606,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>613132.80103405903</v>
+        <v>612214.50049730588</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.0845599906033487</v>
+        <v>2.0814379058689538</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.452423518356881</v>
+        <v>2.448750477492887</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.452423518356881</v>
+        <v>2.448750477492887</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.452423518356881</v>
+        <v>2.448750477492887</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.3493521994763396</v>
+        <v>3.3443358116442625</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48D6641A-8C65-4EA1-9CDF-489D663BD846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85F507C1-682F-4897-A6EC-29453D3DE2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10207262635231018</v>
+        <v>0.10252581842446977</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4951,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.26</v>
+        <v>6.23</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1565068.7190623598</v>
+        <v>1557568.38973778</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5041,7 +5041,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0703092813491821</v>
+        <v>1.0699092944463093</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5208,7 +5208,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.4491688413634029</v>
+        <v>0.44718339261405238</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.7980095998544576</v>
+        <v>3.7812213618565527</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.8390369415283203E-2</v>
+        <v>6.8694015694787114E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5286,20 +5286,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.1628758117379077</v>
+        <v>4.1672368848404044</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>7.691972366781803</v>
+        <v>7.700030559077458</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.897500954985774</v>
+        <v>4.9026316292240049</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.688671623288525</v>
+        <v>6.6956787470238774</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10352,8 +10352,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10446,11 +10446,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-13665183.061316434</v>
+        <v>-13660076.225054119</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.197599079617369</v>
+        <v>5.1960303885066637</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12222,17 +12222,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26329580631874144</v>
+        <v>0.26446481290082607</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26329580631874144</v>
+        <v>0.26446481290082607</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26329580631874144</v>
+        <v>0.26446481290082607</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12273,17 +12273,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10207262635231018</v>
+        <v>0.10252581842446977</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8390369415283203E-2</v>
+        <v>6.8694015694787114E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8390369415283203E-2</v>
+        <v>6.8694015694787114E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12343,14 +12343,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>87.657316785356343</v>
+        <v>88.030731663835965</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>87.657316785356343</v>
+        <v>88.030731663835965</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12371,14 +12371,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.8506237465987478</v>
+        <v>9.860943365104534</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.8506237465987478</v>
+        <v>9.860943365104534</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12421,21 +12421,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10895773.057865636</v>
+        <v>10942188.393419508</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>43.581178584351456</v>
+        <v>43.766831774545757</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>43.581178584351456</v>
+        <v>43.766831774545757</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>59.520191049655011</v>
+        <v>59.773743470867203</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12444,15 +12444,15 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
-        <v>22278.487691283226</v>
+        <f>-E53*Exchange_Rate</f>
+        <v>-22270.161963899929</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.9110037948356757E-2</v>
+        <v>-8.9076736501088244E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12463,17 +12463,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-29907728.454761028</v>
+        <v>-29896551.592254985</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-137.56951022241074</v>
+        <v>-137.51809891235069</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-119.62566106296588</v>
+        <v>-119.58095557595713</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12483,15 +12483,15 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>-19034233.884586677</v>
+        <f>C97+C98+$C$99</f>
+        <v>-18976633.36079938</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
         <v>0</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
+        <f>MAX(E97+H98+E99,0)</f>
         <v>0</v>
       </c>
       <c r="F100" s="109">
@@ -12503,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
+        <f>MAX(I97+H98+H99,0)</f>
         <v>0</v>
       </c>
       <c r="K100" s="24"/>
@@ -12545,27 +12545,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1224429.0009946118</v>
+        <v>1225711.7258760743</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.1628758117379077</v>
+        <v>4.1672368848404044</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.897500954985774</v>
+        <v>4.9026316292240049</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.897500954985774</v>
+        <v>4.9026316292240049</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.897500954985774</v>
+        <v>4.9026316292240049</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.688671623288525</v>
+        <v>6.6956787470238774</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12606,27 +12606,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>612214.50049730588</v>
+        <v>612855.86293803714</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.0814379058689538</v>
+        <v>2.0836184424202022</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.448750477492887</v>
+        <v>2.4513158146120024</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.448750477492887</v>
+        <v>2.4513158146120024</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.448750477492887</v>
+        <v>2.4513158146120024</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.3443358116442625</v>
+        <v>3.3478393735119387</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85F507C1-682F-4897-A6EC-29453D3DE2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7A6C676-B6D2-4A5C-9CEC-A7CEB4A2E2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10252581842446977</v>
+        <v>0.10206799171984006</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4951,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.23</v>
+        <v>6.26</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1557568.38973778</v>
+        <v>1565068.7190623598</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5041,7 +5041,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0699092944463093</v>
+        <v>1.0702606836954753</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5208,7 +5208,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.44718339261405238</v>
+        <v>0.44918923691015239</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.7812213618565527</v>
+        <v>3.7981820572362159</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.8694015694787114E-2</v>
+        <v>6.8387264133896189E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5286,20 +5286,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.1672368848404044</v>
+        <v>4.1626263013600813</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>7.700030559077458</v>
+        <v>7.6915113328672069</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.9026316292240049</v>
+        <v>4.8972074133648018</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.6956787470238774</v>
+        <v>6.6882707242323542</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10446,11 +10446,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-13660076.225054119</v>
+        <v>-13664562.590349933</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.1960303885066637</v>
+        <v>5.1974084866083894</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12222,17 +12222,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26446481290082607</v>
+        <v>0.26328385130850196</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26446481290082607</v>
+        <v>0.26328385130850196</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26446481290082607</v>
+        <v>0.26328385130850196</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12273,17 +12273,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10252581842446977</v>
+        <v>0.10206799171984006</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8694015694787114E-2</v>
+        <v>6.8387264133896189E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8694015694787114E-2</v>
+        <v>6.8387264133896189E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12343,14 +12343,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>88.030731663835965</v>
+        <v>87.649189291052963</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>88.030731663835965</v>
+        <v>87.649189291052963</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12371,14 +12371,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.860943365104534</v>
+        <v>9.850033329549575</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.860943365104534</v>
+        <v>9.850033329549575</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12421,21 +12421,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10942188.393419508</v>
+        <v>10894762.813236821</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>43.766831774545757</v>
+        <v>43.577137783267546</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>43.766831774545757</v>
+        <v>43.577137783267546</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>59.773743470867203</v>
+        <v>59.514672400083789</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12445,14 +12445,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-22270.161963899929</v>
+        <v>-22277.476131121319</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-8.9076736501088244E-2</v>
+        <v>-8.9105991885371522E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12463,17 +12463,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-29896551.592254985</v>
+        <v>-29906370.487063345</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-137.51809891235069</v>
+        <v>-137.56326384527947</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-119.58095557595713</v>
+        <v>-119.62022943067781</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12484,7 +12484,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-18976633.36079938</v>
+        <v>-19033885.149957642</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12545,27 +12545,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1225711.7258760743</v>
+        <v>1224355.6123670198</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.1672368848404044</v>
+        <v>4.1626263013600813</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.9026316292240049</v>
+        <v>4.8972074133648018</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.9026316292240049</v>
+        <v>4.8972074133648018</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.9026316292240049</v>
+        <v>4.8972074133648018</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.6956787470238774</v>
+        <v>6.6882707242323542</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12606,27 +12606,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>612855.86293803714</v>
+        <v>612177.80618350988</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.0836184424202022</v>
+        <v>2.0813131506800406</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.4513158146120024</v>
+        <v>2.4486037066824009</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.4513158146120024</v>
+        <v>2.4486037066824009</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.4513158146120024</v>
+        <v>2.4486037066824009</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.3478393735119387</v>
+        <v>3.3441353621161771</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7A6C676-B6D2-4A5C-9CEC-A7CEB4A2E2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AAD83CB-8C81-4532-8C54-7BA4AE841DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10206799171984006</v>
+        <v>0.10189568452667772</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4951,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.26</v>
+        <v>6.27</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1565068.7190623598</v>
+        <v>1567568.8288372199</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5041,7 +5041,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0702606836954753</v>
+        <v>1.0701607068379719</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5087,10 +5087,10 @@
         <v>252</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5137,7 +5137,7 @@
         <v>253</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5208,7 +5208,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.44918923691015239</v>
+        <v>0.44994882292177057</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.7981820572362159</v>
+        <v>3.8046048423859697</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.8387264133896189E-2</v>
+        <v>6.8271815428259788E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5286,20 +5286,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.1626263013600813</v>
+        <v>3.7989334500255714</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>7.6915113328672069</v>
+        <v>6.8356663211020461</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.8972074133648018</v>
+        <v>4.4693334706183192</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.6882707242323542</v>
+        <v>5.9440576705235184</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10446,11 +10446,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-13664562.590349933</v>
+        <v>-13663286.134951958</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.1974084866083894</v>
+        <v>5.1970163917509939</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12222,17 +12222,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26328385130850196</v>
+        <v>0.26283938580409133</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26328385130850196</v>
+        <v>0.26283938580409133</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26328385130850196</v>
+        <v>0.26283938580409133</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12273,17 +12273,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10206799171984006</v>
+        <v>0.10189568452667772</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8387264133896189E-2</v>
+        <v>6.8271815428259788E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8387264133896189E-2</v>
+        <v>6.8271815428259788E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12332,7 +12332,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12343,14 +12343,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>87.649189291052963</v>
+        <v>79.893729268100444</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>87.649189291052963</v>
+        <v>79.893729268100444</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12371,14 +12371,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.850033329549575</v>
+        <v>8.9894259994624743</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.850033329549575</v>
+        <v>8.9894259994624743</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12421,21 +12421,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10894762.813236821</v>
+        <v>9930761.9121328481</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>43.577137783267546</v>
+        <v>39.721303488319613</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>43.577137783267546</v>
+        <v>39.721303488319613</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>59.514672400083789</v>
+        <v>52.827948559916749</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12445,14 +12445,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-22277.476131121319</v>
+        <v>-22275.395112832386</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-8.9105991885371522E-2</v>
+        <v>-8.9097668177709324E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12463,17 +12463,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-29906370.487063345</v>
+        <v>-29903576.826615777</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-137.56326384527947</v>
+        <v>-137.55041357147547</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-119.62022943067781</v>
+        <v>-119.6090552795439</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12484,7 +12484,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-19033885.149957642</v>
+        <v>-19995090.309595764</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12545,27 +12545,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1224355.6123670198</v>
+        <v>1117382.4297001828</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.1626263013600813</v>
+        <v>3.7989334500255714</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.8972074133648018</v>
+        <v>4.4693334706183192</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.8972074133648018</v>
+        <v>4.4693334706183192</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.8972074133648018</v>
+        <v>4.4693334706183192</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.6882707242323542</v>
+        <v>5.9440576705235184</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12606,27 +12606,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>612177.80618350988</v>
+        <v>558691.21485009138</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.0813131506800406</v>
+        <v>1.8994667250127857</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.4486037066824009</v>
+        <v>2.2346667353091596</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.4486037066824009</v>
+        <v>2.2346667353091596</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.4486037066824009</v>
+        <v>2.2346667353091596</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.3441353621161771</v>
+        <v>2.9720288352617592</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AAD83CB-8C81-4532-8C54-7BA4AE841DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE958271-A750-48AA-9CA8-0DB31AF0F6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4182,7 +4193,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10189568452667772</v>
+        <v>0.10164143699369613</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4951,7 +4962,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.27</v>
+        <v>6.28</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4992,7 +5003,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1567568.8288372199</v>
+        <v>1570068.9386120802</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5041,7 +5052,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0701607068379719</v>
+        <v>1.0691930055618286</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5208,7 +5219,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.44994882292177057</v>
+        <v>0.45107433217842274</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5224,7 +5235,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.8046048423859697</v>
+        <v>3.814121742419629</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5256,7 +5267,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.8271815428259788E-2</v>
+        <v>6.8101465322409474E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5286,20 +5297,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.7989334500255714</v>
+        <v>3.7924729868159748</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.8356663211020461</v>
+        <v>6.8240415923823932</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.4693334706183192</v>
+        <v>4.4617329256658529</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.9440576705235184</v>
+        <v>5.9339492107672989</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10446,11 +10457,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-13663286.134951958</v>
+        <v>-13650931.000489799</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.1970163917509939</v>
+        <v>5.1932212065116738</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12222,17 +12233,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26283938580409133</v>
+        <v>0.26218355562127732</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26283938580409133</v>
+        <v>0.26218355562127732</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26283938580409133</v>
+        <v>0.26218355562127732</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12273,17 +12284,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10189568452667772</v>
+        <v>0.10164143699369613</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8271815428259788E-2</v>
+        <v>6.8101465322409474E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8271815428259788E-2</v>
+        <v>6.8101465322409474E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12343,14 +12354,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>79.893729268100444</v>
+        <v>79.614431505031817</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>79.893729268100444</v>
+        <v>79.614431505031817</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12371,14 +12382,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.9894259994624743</v>
+        <v>8.9741385887434131</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.9894259994624743</v>
+        <v>8.9741385887434131</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12421,21 +12432,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9930761.9121328481</v>
+        <v>9896045.3002906553</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>39.721303488319613</v>
+        <v>39.582443138301038</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>39.721303488319613</v>
+        <v>39.582443138301038</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>52.827948559916749</v>
+        <v>52.643269136444395</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12445,14 +12456,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-22275.395112832386</v>
+        <v>-22255.252410769463</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-8.9097668177709324E-2</v>
+        <v>-8.9017100907161972E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12463,17 +12474,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-29903576.826615777</v>
+        <v>-29876536.280956171</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-137.55041357147547</v>
+        <v>-137.42603252300614</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-119.6090552795439</v>
+        <v>-119.50089784609231</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12484,7 +12495,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-19995090.309595764</v>
+        <v>-20002746.233076286</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12545,27 +12556,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1117382.4297001828</v>
+        <v>1115482.2100271904</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.7989334500255714</v>
+        <v>3.7924729868159748</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.4693334706183192</v>
+        <v>4.4617329256658529</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.4693334706183192</v>
+        <v>4.4617329256658529</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.4693334706183192</v>
+        <v>4.4617329256658529</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.9440576705235184</v>
+        <v>5.9339492107672989</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12606,27 +12617,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>558691.21485009138</v>
+        <v>557741.1050135952</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.8994667250127857</v>
+        <v>1.8962364934079874</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.2346667353091596</v>
+        <v>2.2308664628329264</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.2346667353091596</v>
+        <v>2.2308664628329264</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.2346667353091596</v>
+        <v>2.2308664628329264</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.9720288352617592</v>
+        <v>2.9669746053836494</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE958271-A750-48AA-9CA8-0DB31AF0F6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA1A9D06-1BA1-4D37-ABCA-3C3E1C963425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,15 +123,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -911,10 +894,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -955,6 +934,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1546,7 +1561,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2186,6 +2201,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3602,7 +3627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3616,28 +3641,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45605</v>
@@ -3653,24 +3678,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>250010977486</v>
@@ -3678,10 +3703,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3702,7 +3727,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3710,15 +3735,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3727,61 +3752,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3850,7 +3875,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>669001</v>
@@ -3870,7 +3895,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <v>220152</v>
@@ -3890,7 +3915,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3906,7 +3931,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C29" s="150"/>
       <c r="D29" s="150"/>
@@ -3922,7 +3947,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>-193</v>
@@ -3942,7 +3967,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -3958,7 +3983,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -3974,7 +3999,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -4008,7 +4033,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150">
@@ -4026,7 +4051,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -4062,7 +4087,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150">
@@ -4116,7 +4141,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150">
@@ -4134,7 +4159,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>256</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150">
@@ -4152,7 +4177,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150">
@@ -4170,7 +4195,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <f>0.4+0.197</f>
@@ -4189,11 +4214,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10164143699369613</v>
+        <v>0.10148617343796457</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4238,21 +4263,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59">
         <v>3339708</v>
@@ -4264,7 +4289,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59">
         <v>683021</v>
@@ -4276,7 +4301,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4287,7 +4312,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59">
         <v>2962684</v>
@@ -4299,7 +4324,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59">
         <v>6961515</v>
@@ -4311,7 +4336,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59">
         <v>25589624</v>
@@ -4324,7 +4349,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4334,7 +4359,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4345,7 +4370,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4353,24 +4378,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4381,7 +4406,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4392,7 +4417,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59">
         <v>82672</v>
@@ -4405,7 +4430,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4416,7 +4441,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4427,7 +4452,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4438,7 +4463,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4448,7 +4473,7 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59">
         <v>21347</v>
@@ -4457,24 +4482,24 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59">
         <v>4094</v>
@@ -4484,12 +4509,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59">
         <v>181735</v>
@@ -4502,7 +4527,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4513,7 +4538,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59">
         <v>5722</v>
@@ -4525,7 +4550,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59">
         <v>118797</v>
@@ -4538,7 +4563,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247">
         <v>343468</v>
@@ -4550,7 +4575,7 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59">
         <v>33710837</v>
@@ -4558,19 +4583,19 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120">
         <v>2498474</v>
@@ -4586,37 +4611,37 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59">
         <v>3234661</v>
@@ -4624,19 +4649,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4644,10 +4669,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4655,18 +4680,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4675,20 +4700,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4706,7 +4731,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4727,7 +4752,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4748,7 +4773,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4766,7 +4791,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4787,7 +4812,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4805,7 +4830,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4823,7 +4848,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4950,62 +4975,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>0939.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.28</v>
+        <v>6.29</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>建设银行</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>250010977486</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>1570068.9386120802</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>1572569.04838694</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5028,16 +5053,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5052,7 +5077,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691930055618286</v>
+        <v>1.0692596832911174</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5062,40 +5087,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5108,29 +5133,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5140,12 +5165,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5155,29 +5180,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.47700776116848903</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5185,7 +5210,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5196,58 +5221,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.45107433217842274</v>
+        <v>0.45176443017247186</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.814121742419629</v>
+        <v>3.8199569619737792</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5256,18 +5281,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.36602055622301682</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.8101465322409474E-2</v>
+        <v>6.7997436139339743E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5277,62 +5302,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>256</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>250</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.7924729868159748</v>
+        <v>3.7908628750078495</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.8240415923823932</v>
+        <v>6.8211444142125739</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.4617329256658529</v>
-      </c>
-      <c r="G29" s="274">
+        <v>4.4598386764798228</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.9339492107672989</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>5.9314299254022389</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5342,25 +5367,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly disagree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5370,7 +5395,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5380,14 +5405,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5397,7 +5422,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5412,14 +5437,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6372,12 +6397,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6404,16 +6429,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6431,7 +6456,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6464,7 +6489,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6475,7 +6500,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6627,7 +6652,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6678,7 +6703,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6729,7 +6754,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6780,7 +6805,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6831,7 +6856,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6882,7 +6907,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6933,7 +6958,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6984,7 +7009,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7035,7 +7060,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7086,7 +7111,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="199" t="str">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7137,7 +7162,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7188,7 +7213,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7239,7 +7264,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7290,7 +7315,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7341,7 +7366,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7392,7 +7417,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7443,7 +7468,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7494,7 +7519,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7545,7 +7570,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7698,7 +7723,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7749,7 +7774,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7851,7 +7876,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8055,7 +8080,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8106,7 +8131,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8157,7 +8182,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8208,7 +8233,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8259,7 +8284,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8310,7 +8335,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8328,7 +8353,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8379,7 +8404,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8430,7 +8455,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8481,7 +8506,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8532,7 +8557,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8583,7 +8608,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8634,7 +8659,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8685,7 +8710,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>258</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8702,50 +8727,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="156">
+      <c r="B50" s="271" t="s">
+        <v>260</v>
+      </c>
+      <c r="C50" s="272">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>5.2086124500356733E-2</v>
+      </c>
+      <c r="D50" s="272">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>0.11561933124295826</v>
+      </c>
+      <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
-        <v>0.16147297657534382</v>
-      </c>
-      <c r="E50" s="156" t="str">
+        <v/>
+      </c>
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8754,15 +8779,15 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
       <c r="D51" s="153">
         <f t="shared" si="42"/>
-        <v>6.6852370822298397</v>
+        <v>0.16147297657534382</v>
       </c>
       <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
@@ -8805,167 +8830,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="C52" s="153" t="e">
+        <v>143</v>
+      </c>
+      <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153">
+        <f t="shared" si="43"/>
+        <v>6.6852370822298397</v>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="D53" s="153" t="str">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>0.91920770503345783</v>
-      </c>
-      <c r="D54" s="156">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v>0.1813687183432823</v>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>259</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>1.4177071748203107E-2</v>
-      </c>
-      <c r="D55" s="157">
+      <c r="B55" s="95" t="s">
+        <v>261</v>
+      </c>
+      <c r="C55" s="156">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>8.0275721777328446E-2</v>
+      </c>
+      <c r="D55" s="156">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v>0.81866464065459732</v>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
-        <v>5.2102382756588357</v>
-      </c>
-      <c r="E55" s="157" t="str">
+        <v/>
+      </c>
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8973,112 +8999,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153" t="str">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>-</v>
-      </c>
-      <c r="D56" s="153" t="str">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>1.4177071748203107E-2</v>
+      </c>
+      <c r="D56" s="157">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v>5.2102382756588357</v>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="153" t="str">
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153" t="str">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>-</v>
+      </c>
+      <c r="D57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v>-</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>1.0674328950978067</v>
       </c>
-      <c r="D57" s="158">
-        <f t="shared" si="47"/>
+      <c r="D58" s="158">
+        <f t="shared" si="48"/>
         <v>4.8543433811852026</v>
       </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v>Error</v>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v>Error</v>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>263</v>
+      </c>
+      <c r="C60" s="274">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>0.15870040168042338</v>
+      </c>
+      <c r="D60" s="274">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>4.3882772133780196E-2</v>
+      </c>
+      <c r="E60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>264</v>
+      </c>
+      <c r="C61" s="274">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>0.15870040168042338</v>
+      </c>
+      <c r="D61" s="274">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>4.3882772133780196E-2</v>
+      </c>
+      <c r="E61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9641,7 +9857,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10324,6 +10542,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10363,8 +10582,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10382,7 +10601,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10397,7 +10616,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10411,7 +10630,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10421,7 +10640,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10439,10 +10658,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10451,22 +10670,23 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-13650931.000489799</v>
+        <f>(E49-I49-E53)</f>
+        <v>-12767508.700000003</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.1932212065116738</v>
+        <v>4.9218561893867445</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10476,8 +10696,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10489,7 +10710,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10507,7 +10728,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10526,32 +10747,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10568,7 +10789,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10579,7 +10800,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10596,7 +10817,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10607,7 +10828,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10624,7 +10845,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10635,7 +10856,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10652,7 +10873,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10663,7 +10884,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10680,7 +10901,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10690,7 +10911,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10712,7 +10933,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10734,7 +10955,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10755,7 +10976,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10780,7 +11001,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10807,7 +11028,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10828,7 +11049,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10845,7 +11066,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10857,13 +11078,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10885,7 +11106,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10905,7 +11126,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10914,7 +11135,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10934,7 +11155,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10947,7 +11168,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10967,7 +11188,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -11013,7 +11234,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11022,7 +11243,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11038,7 +11259,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11048,7 +11269,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11065,7 +11286,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11075,7 +11296,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11092,7 +11313,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11102,7 +11323,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11122,7 +11343,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11132,7 +11353,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11149,7 +11370,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11159,7 +11380,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11185,7 +11406,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11212,7 +11433,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11239,7 +11460,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11260,7 +11481,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11281,7 +11502,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11302,7 +11523,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11323,7 +11544,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11340,7 +11561,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11358,7 +11579,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11377,7 +11598,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11396,7 +11617,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11413,7 +11634,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11426,7 +11647,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11443,7 +11664,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11456,7 +11677,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11473,7 +11694,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11500,7 +11721,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11516,14 +11737,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11540,7 +11761,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11570,7 +11791,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11581,14 +11802,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>36209311</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11596,30 +11817,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11636,11 +11857,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11650,7 +11871,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11671,7 +11892,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11692,7 +11913,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11713,7 +11934,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11728,7 +11949,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11759,11 +11980,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11773,7 +11994,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11794,7 +12015,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11809,7 +12030,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11831,21 +12052,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11855,23 +12076,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11892,7 +12113,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11922,7 +12143,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11943,7 +12164,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11973,7 +12194,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12003,7 +12224,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12034,7 +12255,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12061,12 +12282,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12096,7 +12317,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12126,7 +12347,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12156,7 +12377,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12177,7 +12398,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12208,7 +12429,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12229,28 +12450,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26218355562127732</v>
+        <v>0.2617830540905618</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26218355562127732</v>
+        <v>0.2617830540905618</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26218355562127732</v>
+        <v>0.2617830540905618</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12280,21 +12501,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10164143699369613</v>
+        <v>0.10148617343796457</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8101465322409474E-2</v>
+        <v>6.7997436139339743E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8101465322409474E-2</v>
+        <v>6.7997436139339743E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12311,29 +12532,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12350,24 +12571,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>79.614431505031817</v>
+        <v>79.493157068844724</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>79.614431505031817</v>
+        <v>79.493157068844724</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12378,18 +12599,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.9741385887434131</v>
+        <v>8.9703285770281767</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.9741385887434131</v>
+        <v>8.9703285770281767</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12408,94 +12629,94 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9896045.3002906553</v>
+        <v>9880970.9313403629</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>39.582443138301038</v>
+        <v>39.522148310042397</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>39.582443138301038</v>
+        <v>39.522148310042397</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>52.643269136444395</v>
+        <v>52.563079117337566</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-22255.252410769463</v>
+        <v>-22256.640307704609</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-8.9017100907161972E-2</v>
+        <v>-8.902265225114335E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-29876536.280956171</v>
+        <v>-29878399.461493142</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-137.42603252300614</v>
+        <v>-137.43460277715681</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-119.50089784609231</v>
+        <v>-119.50835024100594</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-20002746.233076286</v>
+        <v>-20019685.170460485</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12525,58 +12746,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1115482.2100271904</v>
+        <v>1115008.6269365891</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.7924729868159748</v>
+        <v>3.7908628750078495</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.4617329256658529</v>
+        <v>4.4598386764798228</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.4617329256658529</v>
+        <v>4.4598386764798228</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.4617329256658529</v>
+        <v>4.4598386764798228</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.9339492107672989</v>
+        <v>5.9314299254022389</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12586,58 +12807,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>557741.1050135952</v>
+        <v>557504.31346829457</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.8962364934079874</v>
+        <v>1.8954314375039247</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.2308664628329264</v>
+        <v>2.2299193382399114</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.2308664628329264</v>
+        <v>2.2299193382399114</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.2308664628329264</v>
+        <v>2.2299193382399114</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.9669746053836494</v>
+        <v>2.9657149627011195</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12646,7 +12867,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12655,6 +12876,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA1A9D06-1BA1-4D37-ABCA-3C3E1C963425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{308D1D35-D2E2-488F-8E64-73382A42BB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>- (CAPX - D&amp;A)</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -953,10 +919,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -970,6 +932,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1297,7 +1295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1555,13 +1553,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2211,6 +2325,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2450,981 +2588,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.47700776116848903</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15697168260849415</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.36602055622301682</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3627,7 +2790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3641,28 +2804,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45605</v>
@@ -3678,24 +2841,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>250010977486</v>
@@ -3703,10 +2866,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3727,7 +2890,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3735,10 +2898,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3752,55 +2915,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3931,7 +3094,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C29" s="150"/>
       <c r="D29" s="150"/>
@@ -4051,7 +3214,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -4159,7 +3322,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150">
@@ -4195,7 +3358,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <f>0.4+0.197</f>
@@ -4214,11 +3377,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10148617343796457</v>
+        <v>0.10147668060703004</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4263,13 +3426,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4336,7 +3499,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59">
         <v>25589624</v>
@@ -4349,7 +3512,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4452,7 +3615,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4463,7 +3626,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4641,7 +3804,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59">
         <v>3234661</v>
@@ -4661,7 +3824,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4669,10 +3832,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4682,16 +3845,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4700,10 +3863,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4752,7 +3915,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4773,7 +3936,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4791,7 +3954,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4830,7 +3993,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4848,7 +4011,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4933,8 +4096,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4975,13 +4138,13 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>0939.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -4990,47 +4153,47 @@
         <v>6.29</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>建设银行</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>250010977486</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
         <v>1572569.04838694</v>
       </c>
-      <c r="H5" s="279"/>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5053,16 +4216,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5077,7 +4240,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0692596832911174</v>
+        <v>1.0691596666971843</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5087,40 +4250,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5133,29 +4296,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5165,12 +4328,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5178,9 +4341,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>262</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5188,91 +4351,91 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.47700776116848903</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="276">
+        <f>C23*C22*(1/C21)</f>
+        <v>0.15870040168042338</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.15697168260849415</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="278">
+        <f>Data!C55</f>
+        <v>8.0275721777328446E-2</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>0</v>
+      <c r="B22" s="279" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" s="280">
+        <f>Data!C50</f>
+        <v>3.4806212587376005E-2</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>0.36602055622301682</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.45176443017247186</v>
+        <v>0.45180669134353302</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>259</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.8199569619737792</v>
+        <v>3.8203143071825525</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
+        <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5281,18 +4444,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>261</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>0.36602055622301682</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.7997436139339743E-2</v>
+        <v>6.7991075783604721E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5302,62 +4465,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>250</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>240</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.7908628750078495</v>
+        <v>3.7903954159438107</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.8211444142125739</v>
+        <v>6.8203032849265322</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.4598386764798228</v>
-      </c>
-      <c r="G29" s="278">
+        <v>4.4592887246397774</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.9314299254022389</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>5.9306985086317674</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5367,7 +4530,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5378,14 +4541,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5395,7 +4558,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5405,14 +4568,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5422,7 +4585,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5437,14 +4600,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6388,7 +5551,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6402,7 +5564,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6429,16 +5591,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6456,7 +5618,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6489,7 +5651,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6856,7 +6018,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6907,7 +6069,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6958,7 +6120,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7009,7 +6171,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7111,7 +6273,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="199" t="str">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7264,7 +6426,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7774,7 +6936,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8284,7 +7446,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8335,7 +7497,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8404,7 +7566,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8608,7 +7770,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8710,7 +7872,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8728,15 +7890,15 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C50" s="272">
-        <f>IF(C6="","",C6/C39)</f>
-        <v>5.2086124500356733E-2</v>
+        <f>IF(C6="","",C6/C27)</f>
+        <v>3.4806212587376005E-2</v>
       </c>
       <c r="D50" s="272">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
-        <v>0.11561933124295826</v>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
+        <v>8.8702982066658248E-2</v>
       </c>
       <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
@@ -8779,7 +7941,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8830,7 +7992,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8881,7 +8043,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8932,7 +8094,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8949,7 +8111,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C55" s="156">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9149,15 +8311,15 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="D59" s="273" t="str">
         <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="E59" s="273" t="str">
         <f t="shared" si="49"/>
@@ -9199,7 +8361,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C60" s="274">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9249,7 +8411,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C61" s="274">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10753,7 +9915,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10911,7 +10073,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11323,7 +10485,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11791,7 +10953,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11805,11 +10967,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>36209311</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11820,11 +10982,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11836,11 +10998,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11857,7 +11019,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11934,7 +11096,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11980,7 +11142,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -12015,7 +11177,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12054,19 +11216,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12076,18 +11238,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12164,7 +11326,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12194,7 +11356,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12224,7 +11386,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12287,7 +11449,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12317,7 +11479,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12398,7 +11560,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12429,7 +11591,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12450,28 +11612,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2617830540905618</v>
+        <v>0.26175856738276887</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2617830540905618</v>
+        <v>0.26175856738276887</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2617830540905618</v>
+        <v>0.26175856738276887</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12501,21 +11663,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10148617343796457</v>
+        <v>0.10147668060703004</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7997436139339743E-2</v>
+        <v>6.7991075783604721E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7997436139339743E-2</v>
+        <v>6.7991075783604721E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12537,24 +11699,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12571,24 +11733,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>79.493157068844724</v>
+        <v>79.478009052280541</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>79.493157068844724</v>
+        <v>79.478009052280541</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12599,18 +11761,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.9703285770281767</v>
+        <v>8.9692224274419221</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.9703285770281767</v>
+        <v>8.9692224274419221</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12629,14 +11791,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12653,21 +11815,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9880970.9313403629</v>
+        <v>9879088.0383108594</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>39.522148310042397</v>
+        <v>39.514617068620772</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>39.522148310042397</v>
+        <v>39.514617068620772</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>52.563079117337566</v>
+        <v>52.553062828860753</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12677,14 +11839,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-22256.640307704609</v>
+        <v>-22254.558462301891</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-8.902265225114335E-2</v>
+        <v>-8.901432523517129E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12695,17 +11857,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-29878399.461493142</v>
+        <v>-29875604.69068769</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-137.43460277715681</v>
+        <v>-137.42174739593082</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-119.50835024100594</v>
+        <v>-119.49717164863551</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12716,7 +11878,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-20019685.170460485</v>
+        <v>-20018771.21083913</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12746,21 +11908,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12773,31 +11935,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1115008.6269365891</v>
+        <v>1114871.1329394891</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.7908628750078495</v>
+        <v>3.7903954159438107</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.4598386764798228</v>
+        <v>4.4592887246397774</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.4598386764798228</v>
+        <v>4.4592887246397774</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.4598386764798228</v>
+        <v>4.4592887246397774</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.9314299254022389</v>
+        <v>5.9306985086317674</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12807,21 +11969,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12834,31 +11996,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>557504.31346829457</v>
+        <v>557435.56646974455</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.8954314375039247</v>
+        <v>1.8951977079719053</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.2299193382399114</v>
+        <v>2.2296443623198887</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.2299193382399114</v>
+        <v>2.2296443623198887</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.2299193382399114</v>
+        <v>2.2296443623198887</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.9657149627011195</v>
+        <v>2.9653492543158837</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12867,7 +12029,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{308D1D35-D2E2-488F-8E64-73382A42BB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E4F69BD-53D9-4A45-8771-83EFEF3C226D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -903,10 +899,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -968,6 +960,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2399,7 +2403,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2496,12 +2500,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2790,7 +2810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2804,28 +2824,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45605</v>
@@ -2841,24 +2861,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>250010977486</v>
@@ -2866,10 +2886,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2890,7 +2910,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2898,10 +2918,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2915,61 +2935,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3094,7 +3114,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C29" s="150"/>
       <c r="D29" s="150"/>
@@ -3176,9 +3196,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>263</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150">
@@ -3196,7 +3216,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150">
@@ -3214,7 +3234,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -3231,10 +3251,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities Error</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150">
         <v>2466431</v>
       </c>
@@ -3248,9 +3269,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>262</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150">
@@ -3303,10 +3324,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity Error</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150">
         <v>12220942</v>
       </c>
@@ -3322,9 +3344,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150">
         <v>-498</v>
       </c>
@@ -3340,7 +3362,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150">
@@ -3358,7 +3380,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <f>0.4+0.197</f>
@@ -3377,11 +3399,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10147668060703004</v>
+        <v>0.10163192904678878</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3426,13 +3448,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3452,7 +3474,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59">
         <v>683021</v>
@@ -3464,7 +3486,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3499,7 +3521,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59">
         <v>25589624</v>
@@ -3512,7 +3534,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3546,7 +3568,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3615,7 +3637,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3626,7 +3648,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3677,7 +3699,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59">
         <v>181735</v>
@@ -3804,7 +3826,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59">
         <v>3234661</v>
@@ -3824,7 +3846,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3832,10 +3854,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3843,7 +3865,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3851,10 +3873,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3876,7 +3898,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3915,7 +3937,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3936,7 +3958,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3954,7 +3976,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -3993,7 +4015,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4011,7 +4033,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4033,28 +4055,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4096,8 +4123,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4138,7 +4165,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4150,15 +4177,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.29</v>
+        <v>6.28</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4178,7 +4205,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4191,7 +4218,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>1572569.04838694</v>
+        <v>1570068.9386120802</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4225,7 +4252,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4240,7 +4267,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691596666971843</v>
+        <v>1.0690929889678955</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4250,40 +4277,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4296,29 +4323,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4328,12 +4355,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4343,7 +4370,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4351,21 +4378,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="276">
+        <v>250</v>
+      </c>
+      <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
-        <v>0.15870040168042338</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4373,69 +4400,69 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="278">
-        <f>Data!C55</f>
-        <v>8.0275721777328446E-2</v>
+        <v>248</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>257</v>
-      </c>
-      <c r="C22" s="280">
-        <f>Data!C50</f>
-        <v>3.4806212587376005E-2</v>
+        <v>255</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C48</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.36602055622301682</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="177">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.45180669134353302</v>
+        <v>175</v>
+      </c>
+      <c r="G23" s="177" t="e">
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.8203143071825525</v>
+        <v>3.814478564014625</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4444,18 +4471,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.7991075783604721E-2</v>
+        <v>6.8095094838719464E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4465,40 +4492,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.7903954159438107</v>
+        <v>3.7920051382974691</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.8203032849265322</v>
+        <v>6.8231997623257747</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.4592887246397774</v>
+        <v>4.4611825156440812</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.9306985086317674</v>
+        <v>5.9332171846311086</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4506,21 +4533,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4530,25 +4557,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly disagree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4558,7 +4585,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4568,14 +4595,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4585,7 +4612,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4600,14 +4627,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5507,27 +5534,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5559,12 +5586,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5591,16 +5618,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5618,7 +5645,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5651,7 +5678,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5662,7 +5689,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6018,7 +6045,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6069,7 +6096,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6120,7 +6147,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6171,7 +6198,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6273,7 +6300,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="199" t="str">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6426,7 +6453,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6681,7 +6708,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6732,7 +6759,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6786,15 +6813,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
-        <v>40294387</v>
+        <f>IF(C34="","",C34+C30)</f>
+        <v>0</v>
       </c>
       <c r="D27" s="65">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
-        <v>14928506</v>
+        <f>IF(D34="","",D34+D30)</f>
+        <v>14687373</v>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6834,50 +6861,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
-        <v>39536552</v>
+        <f>Fin_Analysis!C13</f>
+        <v>0</v>
       </c>
       <c r="D28" s="199">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
-        <v>11972903</v>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <v>213823</v>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6885,50 +6912,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
+        <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
       <c r="D29" s="199">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
-        <v>213823</v>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <v>8852611</v>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6936,101 +6963,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>261</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D30" s="199">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
-        <v>8852611</v>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <v>2466431</v>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
-        <v>37038911</v>
+        <f>Fin_Analysis!I15</f>
+        <v>36209311</v>
       </c>
       <c r="D31" s="199">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
-        <v>2466431</v>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
+        <v>35175</v>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7038,101 +7065,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
+        <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
       <c r="D32" s="199">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
-        <v>241133</v>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <v>67759</v>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
         <v>36209311</v>
       </c>
-      <c r="D33" s="199">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v>35175</v>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+      <c r="D33" s="77">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v>102934</v>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7140,50 +7167,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="D34" s="199">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
-        <v>67759</v>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <v>12220942</v>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7191,50 +7218,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>36209311</v>
-      </c>
-      <c r="D35" s="77">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v>102934</v>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v>-498</v>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7242,50 +7269,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
-        <v>3255476</v>
+        <f>Inputs!C40</f>
+        <v>0</v>
       </c>
       <c r="D36" s="199">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
-        <v>12220942</v>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
+        <v>3475378</v>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7293,272 +7320,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>20815</v>
-      </c>
-      <c r="D37" s="199">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v>-498</v>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>26926461</v>
+      </c>
+      <c r="D37" s="65">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v>11211995</v>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>13367926</v>
-      </c>
-      <c r="D38" s="199">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v>3475378</v>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>1.9064592261121876E-2</v>
+      </c>
+      <c r="D38" s="155">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>4.7833651965298471E-2</v>
+      </c>
+      <c r="E38" s="155" t="str">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v/>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>26926461</v>
-      </c>
-      <c r="D39" s="65">
-        <f>IF(D38="","",D27-D38)</f>
-        <v>11453128</v>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>1.9064592261121876E-2</v>
-      </c>
-      <c r="D40" s="155">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>4.6826567088629992E-2</v>
-      </c>
-      <c r="E40" s="155" t="str">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.47700776116848903</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.42872580714588321</v>
+      </c>
+      <c r="E40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>247</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.15697168260849415</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.16613087268341786</v>
+      </c>
+      <c r="E41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.47700776116848903</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.42872580714588321</v>
-      </c>
-      <c r="E42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7566,50 +7593,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.15697168260849415</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>0</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.16613087268341786</v>
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
       <c r="E43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7617,50 +7644,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1.3693771523953151E-4</v>
       </c>
       <c r="E44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7668,50 +7695,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="E45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7719,221 +7746,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>0.36602055622301682</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>1.3693771523953151E-4</v>
+        <f t="shared" si="40"/>
+        <v>0.40500638245545934</v>
       </c>
       <c r="E46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>0.36602055622301682</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.40500638245545934</v>
-      </c>
-      <c r="E48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272">
+        <f t="shared" si="41"/>
+        <v>9.0159281717704043E-2</v>
+      </c>
+      <c r="E48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="153">
+        <f t="shared" si="42"/>
+        <v>0.16147297657534382</v>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="C50" s="272">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>3.4806212587376005E-2</v>
-      </c>
-      <c r="D50" s="272">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>8.8702982066658248E-2</v>
-      </c>
-      <c r="E50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153">
+        <f t="shared" si="43"/>
+        <v>6.6852370822298397</v>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7941,522 +7968,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="153">
-        <f t="shared" si="42"/>
-        <v>0.16147297657534382</v>
+        <v>244</v>
+      </c>
+      <c r="C51" s="153" t="e">
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D51" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153">
-        <f t="shared" si="43"/>
-        <v>6.6852370822298397</v>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>247</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="C53" s="153" t="e">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="153" t="str">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156">
+        <f t="shared" si="45"/>
+        <v>0.83210523760784183</v>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>1.4177071748203107E-2</v>
+      </c>
+      <c r="D54" s="157">
+        <f t="shared" si="46"/>
+        <v>5.2102382756588357</v>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C55" s="156">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>8.0275721777328446E-2</v>
-      </c>
-      <c r="D55" s="156">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v>0.81866464065459732</v>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153" t="str">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>-</v>
+      </c>
+      <c r="D55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v>-</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>1.4177071748203107E-2</v>
-      </c>
-      <c r="D56" s="157">
-        <f t="shared" si="46"/>
-        <v>5.2102382756588357</v>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153" t="str">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>-</v>
-      </c>
-      <c r="D57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v>-</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
-        <v>1.0674328950978067</v>
-      </c>
-      <c r="D58" s="158">
-        <f t="shared" si="48"/>
-        <v>4.8543433811852026</v>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="B58" s="271" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D58" s="274">
+        <f t="shared" si="49"/>
+        <v>4.3882772133780196E-2</v>
+      </c>
+      <c r="E58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>251</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274">
+        <f t="shared" si="50"/>
+        <v>4.3882772133780196E-2</v>
+      </c>
+      <c r="E59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C60" s="274">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>0.15870040168042338</v>
-      </c>
-      <c r="D60" s="274">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>4.3882772133780196E-2</v>
-      </c>
-      <c r="E60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C61" s="274">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>0.15870040168042338</v>
-      </c>
-      <c r="D61" s="274">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>4.3882772133780196E-2</v>
-      </c>
-      <c r="E61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9016,12 +8947,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9703,27 +9630,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9837,13 +9767,13 @@
         <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69">
+      <c r="D6" s="69" t="e">
         <f>(E49-I49-E53)</f>
-        <v>-12767508.700000003</v>
-      </c>
-      <c r="E6" s="56">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="56" t="e">
         <f>1-D6/D3</f>
-        <v>4.9218561893867445</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9863,9 +9793,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66">
+      <c r="D7" s="66" t="e">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9915,7 +9845,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -9962,7 +9892,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9990,7 +9920,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10073,7 +10003,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10095,7 +10025,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10163,7 +10093,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10485,7 +10415,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10622,7 +10552,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10909,9 +10839,9 @@
         <v>84</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="str">
+      <c r="D52" s="74" t="e">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>BV of the MI</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10929,13 +10859,13 @@
         <f>MAX(D4,0)</f>
         <v>20815</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="29" t="e">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1</v>
-      </c>
-      <c r="E53" s="88">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E53" s="88" t="e">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>20815</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10953,7 +10883,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11019,7 +10949,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11054,7 +10984,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11075,7 +11005,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11096,7 +11026,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11111,7 +11041,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11142,7 +11072,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11156,7 +11086,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11177,7 +11107,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11192,7 +11122,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11214,7 +11144,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11222,11 +11152,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11254,7 +11184,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11326,7 +11256,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11356,7 +11286,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11386,7 +11316,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11444,12 +11374,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11479,7 +11409,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11509,7 +11439,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11560,7 +11490,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11591,7 +11521,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11612,28 +11542,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26175856738276887</v>
+        <v>0.26215902992191148</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26175856738276887</v>
+        <v>0.26215902992191148</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26175856738276887</v>
+        <v>0.26215902992191148</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11663,21 +11593,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10147668060703004</v>
+        <v>0.10163192904678878</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7991075783604721E-2</v>
+        <v>6.8095094838719464E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7991075783604721E-2</v>
+        <v>6.8095094838719464E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11694,27 +11624,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11733,24 +11663,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>79.478009052280541</v>
+        <v>79.599250069983171</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>79.478009052280541</v>
+        <v>79.599250069983171</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11761,18 +11691,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.9692224274419221</v>
+        <v>8.9730315175900515</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.9692224274419221</v>
+        <v>8.9730315175900515</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11791,14 +11721,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11811,63 +11741,63 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9879088.0383108594</v>
+        <v>9894158.2533555124</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>39.514617068620772</v>
+        <v>39.574895281986407</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>39.514617068620772</v>
+        <v>39.574895281986407</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>52.553062828860753</v>
+        <v>52.633230750739244</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C98" s="91">
+        <v>139</v>
+      </c>
+      <c r="C98" s="91" t="e">
         <f>-E53*Exchange_Rate</f>
-        <v>-22254.558462301891</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="H98" s="123" t="e">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-8.901432523517129E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-29875604.69068769</v>
+        <v>-29873741.510150719</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-137.42174739593082</v>
+        <v>-137.41317714178015</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-119.49717164863551</v>
+        <v>-119.48971925372187</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -11876,29 +11806,29 @@
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="91">
+      <c r="C100" s="91" t="e">
         <f>C97+C98+$C$99</f>
-        <v>-20018771.21083913</v>
-      </c>
-      <c r="D100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D100" s="109" t="e">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0</v>
-      </c>
-      <c r="E100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E100" s="109" t="e">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F100" s="109" t="e">
         <f>(E100+H100)/2</f>
-        <v>0</v>
-      </c>
-      <c r="H100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H100" s="109" t="e">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I100" s="109" t="e">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11908,21 +11838,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11935,31 +11865,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1114871.1329394891</v>
+        <v>1115344.6014796291</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.7903954159438107</v>
+        <v>3.7920051382974691</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.4592887246397774</v>
+        <v>4.4611825156440812</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.4592887246397774</v>
+        <v>4.4611825156440812</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.4592887246397774</v>
+        <v>4.4611825156440812</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.9306985086317674</v>
+        <v>5.9332171846311086</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11969,21 +11899,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -11996,31 +11926,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="91">
+        <v>184</v>
+      </c>
+      <c r="C106" s="91" t="e">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>557435.56646974455</v>
-      </c>
-      <c r="D106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D106" s="109" t="e">
         <f>(D100+D103)/2</f>
-        <v>1.8951977079719053</v>
-      </c>
-      <c r="E106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E106" s="123" t="e">
         <f>(E100+E103)/2</f>
-        <v>2.2296443623198887</v>
-      </c>
-      <c r="F106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F106" s="109" t="e">
         <f>(F100+F103)/2</f>
-        <v>2.2296443623198887</v>
-      </c>
-      <c r="H106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H106" s="123" t="e">
         <f>(H100+H103)/2</f>
-        <v>2.2296443623198887</v>
-      </c>
-      <c r="I106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I106" s="123" t="e">
         <f>(I100+I103)/2</f>
-        <v>2.9653492543158837</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12029,7 +11959,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E4F69BD-53D9-4A45-8771-83EFEF3C226D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E63C3562-2D7C-4B1A-8229-702E0D611F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -939,10 +935,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -972,6 +964,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1914,7 +1922,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2150,12 +2157,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2354,6 +2357,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2593,8 +2601,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2810,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2828,162 +2836,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>264</v>
+      <c r="C4" s="187" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>265</v>
+      <c r="C5" s="190" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45605</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>266</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>267</v>
+      <c r="C9" s="191" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>250010977486</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>268</v>
+      <c r="C11" s="191" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>241</v>
+      <c r="B15" s="215" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>269</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>270</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>270</v>
+      <c r="C19" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>270</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>269</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>271</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>273</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3040,420 +3048,424 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>1402495</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>1324203</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>669001</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>567720</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>220152</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>219991</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C29" s="150"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+        <v>237</v>
+      </c>
+      <c r="C29" s="149"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>-193</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>136</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>263</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150">
+        <v>261</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149">
         <v>11972903</v>
       </c>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150">
+      <c r="C35" s="214"/>
+      <c r="D35" s="149">
         <v>213823</v>
       </c>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150">
+      <c r="C36" s="214"/>
+      <c r="D36" s="149">
         <v>8852611</v>
       </c>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities Error</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150">
+      <c r="B37" s="94" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" s="149">
+        <v>37038911</v>
+      </c>
+      <c r="D37" s="149">
         <v>2466431</v>
       </c>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150">
+        <v>260</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149">
         <v>241133</v>
       </c>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150">
+      <c r="C39" s="214"/>
+      <c r="D39" s="149">
         <v>35175</v>
       </c>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150">
+      <c r="C40" s="214"/>
+      <c r="D40" s="149">
         <v>67759</v>
       </c>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity Error</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150">
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>3255476</v>
+      </c>
+      <c r="D41" s="149">
         <v>12220942</v>
       </c>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150">
+      <c r="C42" s="149">
+        <v>20815</v>
+      </c>
+      <c r="D42" s="149">
         <v>-498</v>
       </c>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150">
+      <c r="C43" s="214"/>
+      <c r="D43" s="149">
         <v>3475378</v>
       </c>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <f>0.4+0.197</f>
         <v>0.59699999999999998</v>
       </c>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="C45" s="152">
+        <v>233</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10163192904678878</v>
-      </c>
-      <c r="D45" s="152" t="str">
+        <v>0.10187464834402163</v>
+      </c>
+      <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3534,7 +3546,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3562,7 +3574,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3574,7 +3586,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3593,8 +3605,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3648,7 +3660,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3666,7 +3678,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3678,7 +3690,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3693,7 +3705,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3747,16 +3759,16 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247">
+      <c r="C72" s="244">
         <v>343468</v>
       </c>
-      <c r="D72" s="248">
+      <c r="D72" s="245">
         <v>0</v>
       </c>
-      <c r="E72" s="249"/>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3782,7 +3794,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120">
+      <c r="C76" s="119">
         <v>2498474</v>
       </c>
     </row>
@@ -3816,19 +3828,19 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83"/>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+        <v>264</v>
+      </c>
+      <c r="C82" s="214"/>
+    </row>
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59">
+        <v>265</v>
+      </c>
+      <c r="C83" s="214">
         <v>3234661</v>
       </c>
     </row>
@@ -3846,20 +3858,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="197">
+        <v>232</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>272</v>
-      </c>
-      <c r="D87" s="269">
+        <v>230</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>274</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3889,10 +3901,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3904,12 +3916,12 @@
         <f>C25</f>
         <v>1402495</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>1402495</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>1402495</v>
       </c>
@@ -3922,75 +3934,75 @@
         <f>C26</f>
         <v>669001</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.47700776116848903</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>669001</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>669001</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>220152</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.15697168260849415</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>220152</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>220152</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>0</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>0</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -4003,12 +4015,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4021,12 +4033,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>0</v>
       </c>
@@ -4035,16 +4047,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.59699999999999998</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>0.4</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <v>0.4</v>
       </c>
       <c r="G98" s="1"/>
@@ -4124,7 +4136,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4176,11 +4188,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>6.28</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>273</v>
+      <c r="G3" s="131">
+        <v>6.26</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4218,7 +4230,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>1570068.9386120802</v>
+        <v>1565068.7190623598</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4228,11 +4240,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4254,11 +4266,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0014</v>
       </c>
@@ -4266,8 +4278,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>1.0690929889678955</v>
+      <c r="G7" s="132">
+        <v>1.0682333310445149</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4276,10 +4288,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4287,7 +4299,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4295,13 +4307,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4310,12 +4322,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="174">
+        <v>234</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4325,7 +4337,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4336,7 +4348,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4344,13 +4356,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4360,129 +4372,129 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="175">
+        <v>235</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>250</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="273">
         <f>C23*C22*(1/C21)</f>
-        <v>#DIV/0!</v>
+        <v>0.15870040168042338</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="275">
         <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>8.0275721777328446E-2</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>255</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="277">
         <f>Data!C48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="142" t="s">
+        <v>3.4806212587376005E-2</v>
+      </c>
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.36602055622301682</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>0.45004173323634566</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>0</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>240</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.814478564014625</v>
+        <v>3.8053904584710274</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0.2597472795768383</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.8095094838719464E-2</v>
+        <v>6.8257720833515334E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4499,10 +4511,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4510,22 +4522,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.7920051382974691</v>
-      </c>
-      <c r="D29" s="129">
+        <v>3.7918413583870363</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>6.8231997623257747</v>
+        <v>6.8229050625547609</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.4611825156440812</v>
+        <v>4.4609898333965132</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.9332171846311086</v>
+        <v>5.9329609239606622</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4533,23 +4545,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4557,9 +4569,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="str">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly disagree</v>
@@ -4567,17 +4579,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>agree</v>
       </c>
@@ -4585,26 +4597,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4612,9 +4624,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4627,16 +4639,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5588,10 +5600,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5617,16 +5629,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5640,11 +5652,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5669,7 +5681,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
@@ -5677,7 +5689,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5741,47 +5753,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>1402495</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>1324203</v>
       </c>
-      <c r="E6" s="200" t="str">
+      <c r="E6" s="199" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5843,47 +5855,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>669001</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>567720</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="198" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5894,47 +5906,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>733494</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>756483</v>
       </c>
-      <c r="E9" s="151" t="str">
+      <c r="E9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5945,47 +5957,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>220152</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>219991</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="198" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -5996,47 +6008,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6045,49 +6057,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>181.33333333333334</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6095,50 +6107,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.36602055622301682</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>0.40500638245545934</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6146,50 +6158,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>513342</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>536310.66666666663</v>
       </c>
-      <c r="E14" s="230" t="str">
+      <c r="E14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6197,50 +6209,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-4.282716733833368E-2</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="229" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6251,47 +6263,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="198" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="199" t="str">
+      <c r="D16" s="198" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6300,49 +6312,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="199" t="str">
+        <v>237</v>
+      </c>
+      <c r="C17" s="198" t="str">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v/>
       </c>
-      <c r="D17" s="199" t="str">
+      <c r="D17" s="198" t="str">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v/>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6353,47 +6365,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="151" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="152" t="str">
+      <c r="D18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6404,47 +6416,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="198" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="199" t="str">
+      <c r="D19" s="198" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6453,49 +6465,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="152" t="str">
+      <c r="E20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6506,47 +6518,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="198" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="199" t="str">
+      <c r="D21" s="198" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6557,47 +6569,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>513342</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>536310.66666666663</v>
       </c>
-      <c r="E22" s="161" t="str">
+      <c r="E22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6608,47 +6620,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.27451541716726263</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>0.30375478684159452</v>
       </c>
-      <c r="E23" s="153" t="str">
+      <c r="E23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6659,7 +6671,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>385006.5</v>
       </c>
@@ -6707,50 +6719,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-4.2827167338333749E-2</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6814,7 +6826,7 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>0</v>
+        <v>40294387</v>
       </c>
       <c r="D27" s="65">
         <f>IF(D34="","",D34+D30)</f>
@@ -6867,43 +6879,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="199">
+      <c r="D28" s="198">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v>213823</v>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6918,43 +6930,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199">
+      <c r="D29" s="198">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v>8852611</v>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6963,49 +6975,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="199">
+        <v>37038911</v>
+      </c>
+      <c r="D30" s="198">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>2466431</v>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7020,43 +7032,43 @@
         <f>Fin_Analysis!I15</f>
         <v>36209311</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>35175</v>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7071,43 +7083,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>67759</v>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7171,45 +7183,45 @@
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="199">
+        <v>3255476</v>
+      </c>
+      <c r="D34" s="198">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>12220942</v>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7222,45 +7234,45 @@
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="199">
+        <v>20815</v>
+      </c>
+      <c r="D35" s="198">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>-498</v>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7275,43 +7287,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v>3475378</v>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7373,47 +7385,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155">
+      <c r="C38" s="154">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>1.9064592261121876E-2</v>
       </c>
-      <c r="D38" s="155">
+      <c r="D38" s="154">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>4.7833651965298471E-2</v>
       </c>
-      <c r="E38" s="155" t="str">
+      <c r="E38" s="154" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7422,7 +7434,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7442,47 +7454,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.47700776116848903</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.42872580714588321</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7491,49 +7503,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.15697168260849415</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.16613087268341786</v>
       </c>
-      <c r="E41" s="153" t="str">
+      <c r="E41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7544,47 +7556,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153" t="str">
+      <c r="E42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7595,47 +7607,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E43" s="153" t="str">
+      <c r="E43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7646,47 +7658,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>1.3693771523953151E-4</v>
       </c>
-      <c r="E44" s="153" t="str">
+      <c r="E44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7695,49 +7707,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7748,47 +7760,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.36602055622301682</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>0.40500638245545934</v>
       </c>
-      <c r="E46" s="153" t="str">
+      <c r="E46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7797,9 +7809,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>246</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>245</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>263</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7814,50 +7828,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="269">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="272">
+        <v>3.4806212587376005E-2</v>
+      </c>
+      <c r="D48" s="269">
         <f t="shared" si="41"/>
         <v>9.0159281717704043E-2</v>
       </c>
-      <c r="E48" s="272" t="str">
+      <c r="E48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7866,49 +7880,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="C49" s="153">
+        <v>252</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="153">
+      <c r="D49" s="152">
         <f t="shared" si="42"/>
         <v>0.16147297657534382</v>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7917,49 +7931,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C50" s="153">
+        <v>253</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153">
+      <c r="D50" s="152">
         <f t="shared" si="43"/>
         <v>6.6852370822298397</v>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7968,49 +7982,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>244</v>
-      </c>
-      <c r="C51" s="153" t="e">
+        <v>243</v>
+      </c>
+      <c r="C51" s="152" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="153" t="str">
+      <c r="D51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8019,7 +8033,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8036,49 +8050,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>247</v>
+      </c>
+      <c r="C53" s="155">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="156">
+        <v>8.0275721777328446E-2</v>
+      </c>
+      <c r="D53" s="155">
         <f t="shared" si="45"/>
         <v>0.83210523760784183</v>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8088,47 +8102,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157">
+      <c r="C54" s="156">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>1.4177071748203107E-2</v>
       </c>
-      <c r="D54" s="157">
+      <c r="D54" s="156">
         <f t="shared" si="46"/>
         <v>5.2102382756588357</v>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8138,47 +8152,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153" t="str">
+      <c r="C55" s="152" t="str">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>-</v>
       </c>
-      <c r="D55" s="153" t="str">
+      <c r="D55" s="152" t="str">
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8188,47 +8202,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8236,149 +8250,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>248</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>250</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="271">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D58" s="274">
+        <v>0.15870040168042338</v>
+      </c>
+      <c r="D58" s="271">
         <f t="shared" si="49"/>
         <v>4.3882772133780196E-2</v>
       </c>
-      <c r="E58" s="274" t="str">
+      <c r="E58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>251</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59" s="271">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D59" s="274">
+        <v>0.15870040168042338</v>
+      </c>
+      <c r="D59" s="271">
         <f t="shared" si="50"/>
         <v>4.3882772133780196E-2</v>
       </c>
-      <c r="E59" s="274" t="str">
+      <c r="E59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9674,8 +9688,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9711,8 +9725,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>3255476</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9724,8 +9738,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>3234661</v>
       </c>
       <c r="K3" s="24"/>
@@ -9735,8 +9749,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>20815</v>
       </c>
       <c r="E4" s="37"/>
@@ -9767,13 +9781,13 @@
         <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69" t="e">
+      <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="56" t="e">
+        <v>-12767508.700000003</v>
+      </c>
+      <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>#DIV/0!</v>
+        <v>4.9218561893867445</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9793,9 +9807,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66" t="e">
+      <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9823,11 +9837,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9870,7 +9884,7 @@
         <f>Inputs!C48</f>
         <v>3339708</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9898,7 +9912,7 @@
         <f>Inputs!C49</f>
         <v>683021</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9926,7 +9940,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9954,7 +9968,7 @@
         <f>Inputs!C51</f>
         <v>2962684</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9967,7 +9981,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>2498474</v>
       </c>
@@ -9982,7 +9996,7 @@
         <f>Inputs!C52</f>
         <v>6961515</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10009,7 +10023,7 @@
         <f>Inputs!C53</f>
         <v>25589624</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10031,7 +10045,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10053,7 +10067,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10074,7 +10088,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10082,7 +10096,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10099,7 +10113,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10107,7 +10121,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10126,7 +10140,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10147,7 +10161,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10312,7 +10326,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>37038911</v>
       </c>
@@ -10341,7 +10355,7 @@
         <f>Inputs!C60</f>
         <v>82672</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10367,7 +10381,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10394,7 +10408,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10421,7 +10435,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10437,7 +10451,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10451,7 +10465,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10478,7 +10492,7 @@
         <f>Inputs!C65</f>
         <v>21347</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10486,7 +10500,7 @@
         <f t="shared" si="1"/>
         <v>2134.7000000000003</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10504,7 +10518,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10512,7 +10526,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10531,7 +10545,7 @@
         <f>Inputs!C67</f>
         <v>4094</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10539,7 +10553,7 @@
         <f t="shared" si="1"/>
         <v>409.40000000000003</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10558,7 +10572,7 @@
         <f>Inputs!C68</f>
         <v>181735</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10579,7 +10593,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10600,7 +10614,7 @@
         <f>Inputs!C70</f>
         <v>5722</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10621,7 +10635,7 @@
         <f>Inputs!C71</f>
         <v>118797</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10642,7 +10656,7 @@
         <f>Inputs!C72</f>
         <v>343468</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10788,8 +10802,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -10815,8 +10829,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>37038911</v>
       </c>
       <c r="J49" s="87"/>
@@ -10839,9 +10853,9 @@
         <v>84</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="e">
+      <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>#DIV/0!</v>
+        <v>BV of the MI</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10859,13 +10873,13 @@
         <f>MAX(D4,0)</f>
         <v>20815</v>
       </c>
-      <c r="D53" s="29" t="e">
+      <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E53" s="88" t="e">
+        <v>1</v>
+      </c>
+      <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>#DIV/0!</v>
+        <v>20815</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10886,7 +10900,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -10986,7 +11000,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>3422380</v>
       </c>
@@ -10994,7 +11008,7 @@
         <f t="shared" si="2"/>
         <v>0.87825933999146799</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>3005737.2</v>
       </c>
@@ -11025,11 +11039,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>36209311</v>
@@ -11106,12 +11120,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>829600</v>
       </c>
@@ -11190,17 +11204,17 @@
         <f>Data!C6</f>
         <v>1402495</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>1402495</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>1402495</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11211,23 +11225,23 @@
         <f>Data!C8</f>
         <v>669001</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.47700776116848903</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>669001</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.47700776116848903</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>669001</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.47700776116848903</v>
       </c>
@@ -11237,48 +11251,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>733494</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>733494</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>733494</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>220152</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.15697168260849415</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>220152</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.15697168260849415</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>220152</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.15697168260849415</v>
       </c>
@@ -11292,54 +11306,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>513342</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>0.36602055622301682</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>513342</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>0.36602055622301682</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>513342</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>0.36602055622301682</v>
       </c>
@@ -11353,55 +11367,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>0</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>0</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>0</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>0</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>0</v>
       </c>
@@ -11409,29 +11423,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11441,27 +11455,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>513342</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>0.36602055622301682</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>513342</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>0.36602055622301682</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>513342</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>0.36602055622301682</v>
       </c>
@@ -11471,49 +11485,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>385006.5</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>0.27451541716726263</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>385006.5</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>0.27451541716726263</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>385006.5</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>0.27451541716726263</v>
       </c>
@@ -11523,69 +11537,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.5399583805137493</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>1.5399583805137493</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>1.5399583805137493</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26215902992191148</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>0.26278512308084973</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26215902992191148</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>0.26278512308084973</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26215902992191148</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>0.26278512308084973</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.59699999999999998</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>0.38767281476843118</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.4</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0.2597472795768383</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.4</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0.2597472795768383</v>
       </c>
@@ -11593,23 +11607,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10163192904678878</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>0.10187464834402163</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8095094838719464E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>6.8257720833515334E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8095094838719464E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>6.8257720833515334E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11631,7 +11645,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11654,27 +11668,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>79.599250069983171</v>
+        <v>79.732707128606719</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>79.599250069983171</v>
+        <v>79.732707128606719</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11682,27 +11696,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.9730315175900515</v>
+        <v>8.9726439647665011</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.9730315175900515</v>
+        <v>8.9726439647665011</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11716,25 +11730,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11745,21 +11759,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9894158.2533555124</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>9910746.9179081023</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>39.574895281986407</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>39.641247026695375</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>39.574895281986407</v>
-      </c>
-      <c r="I97" s="123">
+        <v>39.641247026695375</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>52.633230750739244</v>
+        <v>52.721476257520685</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11767,18 +11781,18 @@
       <c r="B98" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91" t="e">
+      <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123" t="e">
+        <v>-22235.276785691578</v>
+      </c>
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I98" s="215"/>
+        <v>-8.8937201915210692E-2</v>
+      </c>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11787,48 +11801,48 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-29873741.510150719</v>
-      </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+        <v>-29849720.027590048</v>
+      </c>
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-137.41317714178015</v>
-      </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+        <v>-137.302683173785</v>
+      </c>
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-119.48971925372187</v>
-      </c>
-      <c r="I99" s="216"/>
+        <v>-119.39363754242174</v>
+      </c>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="91" t="e">
+      <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D100" s="109" t="e">
+        <v>-19961208.386467636</v>
+      </c>
+      <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E100" s="109" t="e">
+        <v>0</v>
+      </c>
+      <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F100" s="109" t="e">
+        <v>0</v>
+      </c>
+      <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H100" s="109" t="e">
+        <v>0</v>
+      </c>
+      <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I100" s="109" t="e">
+        <v>0</v>
+      </c>
+      <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11840,25 +11854,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11869,27 +11883,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1115344.6014796291</v>
+        <v>1115296.4288025706</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.7920051382974691</v>
-      </c>
-      <c r="E103" s="123">
+        <v>3.7918413583870363</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.4611825156440812</v>
+        <v>4.4609898333965132</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.4611825156440812</v>
-      </c>
-      <c r="H103" s="123">
+        <v>4.4609898333965132</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.4611825156440812</v>
+        <v>4.4609898333965132</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.9332171846311086</v>
+        <v>5.9329609239606622</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11901,25 +11915,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11928,29 +11942,29 @@
       <c r="B106" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="91" t="e">
+      <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D106" s="109" t="e">
+        <v>557648.21440128528</v>
+      </c>
+      <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E106" s="123" t="e">
+        <v>1.8959206791935181</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F106" s="109" t="e">
+        <v>2.2304949166982566</v>
+      </c>
+      <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H106" s="123" t="e">
+        <v>2.2304949166982566</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I106" s="123" t="e">
+        <v>2.2304949166982566</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>#DIV/0!</v>
+        <v>2.9664804619803311</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11961,14 +11975,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E63C3562-2D7C-4B1A-8229-702E0D611F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB047049-6771-4666-91E4-880791A275D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3262,9 +3262,7 @@
       <c r="B37" s="94" t="s">
         <v>259</v>
       </c>
-      <c r="C37" s="149">
-        <v>37038911</v>
-      </c>
+      <c r="C37" s="149"/>
       <c r="D37" s="149">
         <v>2466431</v>
       </c>
@@ -3336,9 +3334,7 @@
       <c r="B41" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>3255476</v>
-      </c>
+      <c r="C41" s="149"/>
       <c r="D41" s="149">
         <v>12220942</v>
       </c>
@@ -3356,9 +3352,7 @@
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="149">
-        <v>20815</v>
-      </c>
+      <c r="C42" s="149"/>
       <c r="D42" s="149">
         <v>-498</v>
       </c>
@@ -3415,7 +3409,7 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10187464834402163</v>
+        <v>0.10203446325302125</v>
       </c>
       <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4189,7 +4183,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>6.26</v>
+        <v>6.25</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>275</v>
@@ -4230,7 +4224,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>1565068.7190623598</v>
+        <v>1562568.6092874999</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4279,7 +4273,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>1.0682333310445149</v>
+        <v>1.0681999921798706</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4399,9 +4393,9 @@
       <c r="B20" s="272" t="s">
         <v>249</v>
       </c>
-      <c r="C20" s="273">
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
-        <v>0.15870040168042338</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
@@ -4414,9 +4408,9 @@
       <c r="B21" s="274" t="s">
         <v>247</v>
       </c>
-      <c r="C21" s="275">
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
-        <v>8.0275721777328446E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
@@ -4425,9 +4419,9 @@
       <c r="B22" s="276" t="s">
         <v>262</v>
       </c>
-      <c r="C22" s="277">
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
-        <v>3.4806212587376005E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="141" t="s">
         <v>171</v>
@@ -4444,9 +4438,9 @@
       <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="176">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.45004173323634566</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4462,7 +4456,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.8053904584710274</v>
+        <v>3.7994301377084199</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4494,7 +4488,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.8257720833515334E-2</v>
+        <v>6.8364799499511728E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4524,20 +4518,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.7918413583870363</v>
+        <v>3.7936237481775117</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>6.8229050625547609</v>
+        <v>6.8261122316252676</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.4609898333965132</v>
+        <v>4.4630867625617787</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.9329609239606622</v>
+        <v>5.9357497666306678</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -6826,7 +6820,7 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>40294387</v>
+        <v>0</v>
       </c>
       <c r="D27" s="65">
         <f>IF(D34="","",D34+D30)</f>
@@ -6979,7 +6973,7 @@
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>37038911</v>
+        <v>0</v>
       </c>
       <c r="D30" s="198">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
@@ -7183,7 +7177,7 @@
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>3255476</v>
+        <v>0</v>
       </c>
       <c r="D34" s="198">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
@@ -7234,7 +7228,7 @@
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
-        <v>20815</v>
+        <v>0</v>
       </c>
       <c r="D35" s="198">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
@@ -7831,9 +7825,9 @@
       <c r="B48" s="268" t="s">
         <v>251</v>
       </c>
-      <c r="C48" s="269">
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>3.4806212587376005E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D48" s="269">
         <f t="shared" si="41"/>
@@ -8052,9 +8046,9 @@
       <c r="B53" s="95" t="s">
         <v>247</v>
       </c>
-      <c r="C53" s="155">
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>8.0275721777328446E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D53" s="155">
         <f t="shared" si="45"/>
@@ -8302,9 +8296,9 @@
       <c r="B58" s="268" t="s">
         <v>249</v>
       </c>
-      <c r="C58" s="271">
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>0.15870040168042338</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D58" s="271">
         <f t="shared" si="49"/>
@@ -8352,9 +8346,9 @@
       <c r="B59" s="268" t="s">
         <v>250</v>
       </c>
-      <c r="C59" s="271">
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>0.15870040168042338</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D59" s="271">
         <f t="shared" si="50"/>
@@ -9727,11 +9721,11 @@
       <c r="C3" s="87"/>
       <c r="D3" s="204">
         <f>Inputs!C41</f>
-        <v>3255476</v>
+        <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
         <f>IF((C49-I49)=D3,"", "Error!")</f>
-        <v/>
+        <v>Error!</v>
       </c>
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
@@ -9740,7 +9734,7 @@
       </c>
       <c r="I3" s="282">
         <f>D3-D4</f>
-        <v>3234661</v>
+        <v>0</v>
       </c>
       <c r="K3" s="24"/>
     </row>
@@ -9751,7 +9745,7 @@
       <c r="C4" s="87"/>
       <c r="D4" s="198">
         <f>Inputs!C42</f>
-        <v>20815</v>
+        <v>0</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="87"/>
@@ -9783,11 +9777,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>-12767508.700000003</v>
-      </c>
-      <c r="E6" s="56">
+        <v>24292217.299999997</v>
+      </c>
+      <c r="E6" s="56" t="e">
         <f>1-D6/D3</f>
-        <v>4.9218561893867445</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9809,7 +9803,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0</v>
+        <v>103.79122785256416</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10330,9 +10324,9 @@
         <f>Inputs!C77</f>
         <v>37038911</v>
       </c>
-      <c r="J28" s="32">
+      <c r="J28" s="32" t="e">
         <f>IF(J26="",1,0)+IF(J27="",1,0)+IF(J46="",1,0)+IF(J47="",1,0)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10671,7 +10665,7 @@
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
-        <v>0</v>
+        <v>-37038911</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10772,13 +10766,13 @@
       <c r="H47" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I47" s="63">
+      <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
-        <v>0.6524606244497847</v>
-      </c>
-      <c r="J47" s="8" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J47" s="8" t="e">
         <f>IF(OR(I47&lt;0.5,C49&lt;I49),"Liquidity Issue!","")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10804,7 +10798,7 @@
       </c>
       <c r="I48" s="281">
         <f>I49-I28</f>
-        <v>0</v>
+        <v>-37038911</v>
       </c>
       <c r="J48" s="8"/>
     </row>
@@ -10831,7 +10825,7 @@
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
-        <v>37038911</v>
+        <v>0</v>
       </c>
       <c r="J49" s="87"/>
     </row>
@@ -10871,15 +10865,15 @@
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
-        <v>20815</v>
+        <v>0</v>
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>20815</v>
+        <v>0</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11127,7 +11121,7 @@
       <c r="D69" s="205"/>
       <c r="E69" s="125">
         <f>I49-E64</f>
-        <v>829600</v>
+        <v>-36209311</v>
       </c>
       <c r="F69" s="87"/>
       <c r="G69" s="87"/>
@@ -11140,15 +11134,15 @@
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
-        <v>26096861</v>
+        <v>63135772</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" si="2"/>
-        <v>0.58230671880422691</v>
+        <v>0.82734853547050946</v>
       </c>
       <c r="E70" s="68">
         <f>E68-E69</f>
-        <v>15196377.499999996</v>
+        <v>52235288.5</v>
       </c>
       <c r="F70" s="87"/>
       <c r="G70" s="87"/>
@@ -11560,17 +11554,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26278512308084973</v>
+        <v>0.26319736480353811</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26278512308084973</v>
+        <v>0.26319736480353811</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26278512308084973</v>
+        <v>0.26319736480353811</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11611,17 +11605,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10187464834402163</v>
+        <v>0.10203446325302125</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8257720833515334E-2</v>
+        <v>6.8364799499511728E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8257720833515334E-2</v>
+        <v>6.8364799499511728E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11681,14 +11675,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>79.732707128606719</v>
+        <v>79.860445112979093</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>79.732707128606719</v>
+        <v>79.860445112979093</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11709,14 +11703,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.9726439647665011</v>
+        <v>8.9768616383147375</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.9726439647665011</v>
+        <v>8.9768616383147375</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11759,21 +11753,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9910746.9179081023</v>
+        <v>9926624.7035811283</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>39.641247026695375</v>
+        <v>39.704755380739215</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>39.641247026695375</v>
+        <v>39.704755380739215</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>52.721476257520685</v>
+        <v>52.805940153866374</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11783,14 +11777,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-22235.276785691578</v>
+        <v>0</v>
       </c>
       <c r="D98" s="210"/>
       <c r="E98" s="210"/>
       <c r="F98" s="210"/>
       <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-8.8937201915210692E-2</v>
+        <v>0</v>
       </c>
       <c r="I98" s="212"/>
       <c r="K98" s="24"/>
@@ -11801,17 +11795,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-29849720.027590048</v>
+        <v>-29848788.437321566</v>
       </c>
       <c r="D99" s="211"/>
       <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-137.302683173785</v>
+        <v>-137.29839804670968</v>
       </c>
       <c r="F99" s="211"/>
       <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-119.39363754242174</v>
+        <v>-119.38991134496494</v>
       </c>
       <c r="I99" s="213"/>
       <c r="K99" s="24"/>
@@ -11822,7 +11816,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-19961208.386467636</v>
+        <v>-19922163.733740438</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -11883,27 +11877,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1115296.4288025706</v>
+        <v>1115820.6841128974</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.7918413583870363</v>
+        <v>3.7936237481775117</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.4609898333965132</v>
+        <v>4.4630867625617787</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.4609898333965132</v>
+        <v>4.4630867625617787</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.4609898333965132</v>
+        <v>4.4630867625617787</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.9329609239606622</v>
+        <v>5.9357497666306678</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11944,27 +11938,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>557648.21440128528</v>
+        <v>557910.34205644869</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.8959206791935181</v>
+        <v>1.8968118740887558</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>2.2304949166982566</v>
+        <v>2.2315433812808894</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.2304949166982566</v>
+        <v>2.2315433812808894</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>2.2304949166982566</v>
+        <v>2.2315433812808894</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>2.9664804619803311</v>
+        <v>2.9678748833153339</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB047049-6771-4666-91E4-880791A275D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1F63389-BB01-4CE0-B3F3-C8174B4E7E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -844,10 +841,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -959,10 +952,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -980,6 +969,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1687,7 +1684,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1835,7 +1832,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2025,9 +2021,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2363,6 +2356,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2818,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2832,172 +2826,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45605</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C9" s="189" t="s">
         <v>268</v>
       </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>250010977486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>250010977486</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C14" s="214">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>236</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
         <v>271</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="239" t="s">
+      <c r="C19" s="237" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
         <v>272</v>
       </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>272</v>
-      </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>272</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>271</v>
-      </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>273</v>
-      </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3045,430 +3039,431 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>1402495</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>1324203</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
+        <v>669001</v>
+      </c>
+      <c r="D26" s="148">
+        <v>567720</v>
+      </c>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
+        <v>220152</v>
+      </c>
+      <c r="D27" s="148">
+        <v>219991</v>
+      </c>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="149">
-        <v>669001</v>
-      </c>
-      <c r="D26" s="149">
-        <v>567720</v>
-      </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="148"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
+        <v>-193</v>
+      </c>
+      <c r="D30" s="148">
+        <v>136</v>
+      </c>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="149">
-        <v>220152</v>
-      </c>
-      <c r="D27" s="149">
-        <v>219991</v>
-      </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>237</v>
-      </c>
-      <c r="C29" s="149"/>
-      <c r="D29" s="149"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
-        <v>-193</v>
-      </c>
-      <c r="D30" s="149">
-        <v>136</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>261</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149">
+      <c r="B34" s="96" t="s">
+        <v>258</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148">
         <v>11972903</v>
       </c>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149">
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148">
         <v>213823</v>
       </c>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149">
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148">
         <v>8852611</v>
       </c>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149">
+      <c r="B37" s="93" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148">
         <v>2466431</v>
       </c>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>260</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149">
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>263</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148">
         <v>241133</v>
       </c>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149">
+      <c r="C39" s="212"/>
+      <c r="D39" s="148">
         <v>35175</v>
       </c>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149">
+      <c r="C40" s="212"/>
+      <c r="D40" s="148">
         <v>67759</v>
       </c>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148">
+        <v>12220942</v>
+      </c>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149">
-        <v>12220942</v>
-      </c>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149">
+      <c r="C42" s="148"/>
+      <c r="D42" s="148">
         <v>-498</v>
       </c>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149">
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148">
         <v>3475378</v>
       </c>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
         <f>0.4+0.197</f>
         <v>0.59699999999999998</v>
       </c>
-      <c r="D44" s="247"/>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>233</v>
-      </c>
-      <c r="C45" s="151">
+        <v>231</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10203446325302125</v>
-      </c>
-      <c r="D45" s="151" t="str">
+        <v>0.10184921660362341</v>
+      </c>
+      <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="151" t="str">
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet- Error</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59">
         <v>3339708</v>
@@ -3476,11 +3471,11 @@
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59">
         <v>683021</v>
@@ -3488,22 +3483,22 @@
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59">
         <v>2962684</v>
@@ -3511,11 +3506,11 @@
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59">
         <v>6961515</v>
@@ -3523,11 +3518,11 @@
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59">
         <v>25589624</v>
@@ -3536,79 +3531,79 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59">
         <v>82672</v>
@@ -3617,54 +3612,54 @@
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59">
         <v>21347</v>
@@ -3672,25 +3667,25 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59">
         <v>4094</v>
@@ -3699,13 +3694,13 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59">
         <v>181735</v>
@@ -3714,22 +3709,22 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59">
         <v>5722</v>
@@ -3737,11 +3732,11 @@
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59">
         <v>118797</v>
@@ -3750,23 +3745,23 @@
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244">
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242">
         <v>343468</v>
       </c>
-      <c r="D72" s="245">
-        <v>0</v>
-      </c>
-      <c r="E72" s="246"/>
+      <c r="D72" s="243">
+        <v>0</v>
+      </c>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59">
         <v>33710837</v>
@@ -3774,21 +3769,21 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119">
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118">
         <v>2498474</v>
       </c>
     </row>
@@ -3796,93 +3791,93 @@
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83">
+      <c r="C77" s="82">
         <v>37038911</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>264</v>
-      </c>
-      <c r="C82" s="214"/>
+        <v>261</v>
+      </c>
+      <c r="C82" s="212"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>265</v>
-      </c>
-      <c r="C83" s="214">
+        <v>262</v>
+      </c>
+      <c r="C83" s="212">
         <v>3234661</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C86" s="196">
+        <v>230</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>274</v>
-      </c>
-      <c r="D87" s="266">
+        <v>229</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>273</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3891,166 +3886,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>1402495</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>1402495</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>1402495</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>669001</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.47700776116848903</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>669001</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>669001</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>229</v>
+      <c r="B93" s="103" t="s">
+        <v>228</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>220152</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.15697168260849415</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>220152</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>220152</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>237</v>
+      <c r="B94" s="103" t="s">
+        <v>235</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>0</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>0</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.59699999999999998</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>0.4</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <v>0.4</v>
       </c>
       <c r="G98" s="1"/>
@@ -4062,32 +4057,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4146,13 +4141,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4163,82 +4158,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>0939.HK : 建设银行</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>0939.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>6.25</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>275</v>
+      <c r="G3" s="130">
+        <v>6.26</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>建设银行</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>250010977486</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>1562568.6092874999</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>1565068.7190623598</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4249,31 +4244,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0014</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>1.0681999921798706</v>
+      <c r="G7" s="131">
+        <v>1.0679666598637898</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4282,280 +4277,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>258</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>249</v>
-      </c>
-      <c r="C20" s="273" t="e">
+      <c r="B20" s="270" t="s">
+        <v>247</v>
+      </c>
+      <c r="C20" s="271" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="275" t="e">
+      <c r="B21" s="272" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="273" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>262</v>
-      </c>
-      <c r="C22" s="277" t="e">
+      <c r="B22" s="274" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="275" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>252</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>0.36602055622301682</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176" t="e">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>255</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>253</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>0</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>239</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>237</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.7994301377084199</v>
+        <v>3.8063406641327004</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>256</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0.2597472795768383</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>257</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.8364799499511728E-2</v>
+        <v>6.8240681141456233E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>238</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>236</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.7936237481775117</v>
-      </c>
-      <c r="D29" s="128">
+        <v>3.7905924406703844</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>6.8261122316252676</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>6.8206578042424342</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.4630867625617787</v>
-      </c>
-      <c r="G29" s="286">
+        <v>4.4595205184357463</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.9357497666306678</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>5.9310067862977691</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4563,9 +4558,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="str">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly disagree</v>
@@ -4573,17 +4568,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>agree</v>
       </c>
@@ -4591,26 +4586,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4618,9 +4613,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4633,16 +4628,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5594,10 +5589,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5623,59 +5618,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>513342</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
@@ -5683,19 +5678,19 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5744,928 +5739,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>1402495</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>1324203</v>
       </c>
-      <c r="E6" s="199" t="str">
+      <c r="E6" s="197" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="199" t="str">
+      <c r="F6" s="197" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>5.9123865449632662E-2</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="92" t="str">
+      <c r="E7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>669001</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>567720</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="196" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="198" t="str">
+      <c r="F8" s="196" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>733494</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>756483</v>
       </c>
-      <c r="E9" s="150" t="str">
+      <c r="E9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="150" t="str">
+      <c r="F9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>220152</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>219991</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="196" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="198" t="str">
+      <c r="F10" s="196" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>181.33333333333334</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.36602055622301682</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>0.40500638245545934</v>
       </c>
-      <c r="E13" s="226" t="str">
+      <c r="E13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="226" t="str">
+      <c r="F13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>513342</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>536310.66666666663</v>
       </c>
-      <c r="E14" s="227" t="str">
+      <c r="E14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="227" t="str">
+      <c r="F14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-4.282716733833368E-2</v>
       </c>
-      <c r="D15" s="229" t="str">
+      <c r="D15" s="227" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198" t="str">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="198" t="str">
+      <c r="D16" s="196" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="198" t="str">
+      <c r="B17" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="196" t="str">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v/>
       </c>
-      <c r="D17" s="198" t="str">
+      <c r="D17" s="196" t="str">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v/>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151" t="str">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="151" t="str">
+      <c r="D18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198" t="str">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="198" t="str">
+      <c r="D19" s="196" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="151" t="str">
+      <c r="E20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="151" t="str">
+      <c r="F20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198" t="str">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="198" t="str">
+      <c r="D21" s="196" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>513342</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>536310.66666666663</v>
       </c>
-      <c r="E22" s="160" t="str">
+      <c r="E22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="160" t="str">
+      <c r="F22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.27451541716726263</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>0.30375478684159452</v>
       </c>
-      <c r="E23" s="152" t="str">
+      <c r="E23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="152" t="str">
+      <c r="F23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>385006.5</v>
       </c>
@@ -6709,63 +6704,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-4.2827167338333749E-2</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6811,11 +6806,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6862,266 +6857,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="198">
+      <c r="D28" s="196">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v>213823</v>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="198">
+      <c r="D29" s="196">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v>8852611</v>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>259</v>
+      <c r="B30" s="93" t="s">
+        <v>257</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="196">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>2466431</v>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>36209311</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="196">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>35175</v>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="196">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>67759</v>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7168,169 +7163,169 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="196">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>12220942</v>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="196">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>-498</v>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="196">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v>3475378</v>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
-        <v>26926461</v>
+        <v>-13367926</v>
       </c>
       <c r="D37" s="65">
         <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
@@ -7372,63 +7367,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
-        <v>1.9064592261121876E-2</v>
-      </c>
-      <c r="D38" s="154">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="153">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>4.7833651965298471E-2</v>
       </c>
-      <c r="E38" s="154" t="str">
+      <c r="E38" s="153" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7441,372 +7436,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.47700776116848903</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.42872580714588321</v>
       </c>
-      <c r="E40" s="155" t="str">
+      <c r="E40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="155" t="str">
+      <c r="F40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.15697168260849415</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.16613087268341786</v>
       </c>
-      <c r="E41" s="152" t="str">
+      <c r="E41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="152" t="str">
+      <c r="F41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152" t="str">
+      <c r="E42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="152" t="str">
+      <c r="F42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E43" s="152" t="str">
+      <c r="E43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="152" t="str">
+      <c r="F43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>1.3693771523953151E-4</v>
       </c>
-      <c r="E44" s="152" t="str">
+      <c r="E44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="152" t="str">
+      <c r="F44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.36602055622301682</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>0.40500638245545934</v>
       </c>
-      <c r="E46" s="152" t="str">
+      <c r="E46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="152" t="str">
+      <c r="F46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>245</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>263</v>
+      <c r="B47" s="101" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>260</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7818,216 +7813,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>251</v>
-      </c>
-      <c r="C48" s="269" t="e">
+      <c r="B48" s="266" t="s">
+        <v>249</v>
+      </c>
+      <c r="C48" s="267" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="269">
+      <c r="D48" s="267">
         <f t="shared" si="41"/>
         <v>9.0159281717704043E-2</v>
       </c>
-      <c r="E48" s="269" t="str">
+      <c r="E48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="269" t="str">
+      <c r="F48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>252</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>250</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="152">
+      <c r="D49" s="151">
         <f t="shared" si="42"/>
         <v>0.16147297657534382</v>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>251</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="152">
+      <c r="D50" s="151">
         <f t="shared" si="43"/>
         <v>6.6852370822298397</v>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>243</v>
-      </c>
-      <c r="C51" s="152" t="e">
+      <c r="B51" s="93" t="s">
+        <v>241</v>
+      </c>
+      <c r="C51" s="151" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="152" t="str">
+      <c r="D51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="152" t="str">
+      <c r="E51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>246</v>
+      <c r="B52" s="101" t="s">
+        <v>244</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8043,350 +8038,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>247</v>
-      </c>
-      <c r="C53" s="155" t="e">
+      <c r="B53" s="94" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" s="154" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="155">
+      <c r="D53" s="154">
         <f t="shared" si="45"/>
         <v>0.83210523760784183</v>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>1.4177071748203107E-2</v>
       </c>
-      <c r="D54" s="156">
+      <c r="D54" s="155">
         <f t="shared" si="46"/>
         <v>5.2102382756588357</v>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152" t="str">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151" t="str">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>-</v>
       </c>
-      <c r="D55" s="152" t="str">
+      <c r="D55" s="151" t="str">
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>264</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v>1.6417707918223362E-2</v>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>249</v>
-      </c>
-      <c r="C58" s="271" t="e">
+      <c r="B58" s="266" t="s">
+        <v>247</v>
+      </c>
+      <c r="C58" s="269" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="271">
+      <c r="D58" s="269">
         <f t="shared" si="49"/>
         <v>4.3882772133780196E-2</v>
       </c>
-      <c r="E58" s="271" t="str">
+      <c r="E58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="271" t="str">
+      <c r="F58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>250</v>
-      </c>
-      <c r="C59" s="271" t="e">
+      <c r="B59" s="266" t="s">
+        <v>248</v>
+      </c>
+      <c r="C59" s="269" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="271">
+      <c r="D59" s="269">
         <f t="shared" si="50"/>
         <v>4.3882772133780196E-2</v>
       </c>
-      <c r="E59" s="271" t="str">
+      <c r="E59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="271" t="str">
+      <c r="F59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9665,7 +9660,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9683,7 +9678,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9701,38 +9696,38 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
         <f>IF((C49-I49)=D3,"", "Error!")</f>
-        <v>Error!</v>
-      </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+        <v/>
+      </c>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -9740,28 +9735,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -9774,7 +9769,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in CNY</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>24292217.299999997</v>
@@ -9783,16 +9778,16 @@
         <f>1-D6/D3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
         <v>1.0674328950978067</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9800,297 +9795,297 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>103.79122785256416</v>
+        <v>103.7685562107733</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
         <v>0.1885966085773958</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>3339708</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>3005737.2</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>33710837</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>683021</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>546416.80000000005</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>0</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>2962684</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>1777610.4</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>2498474</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>6961515</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>3480757.5</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>36209311</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>25589624</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>15353774.399999999</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10101,21 +10096,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10128,45 +10123,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10174,17 +10169,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10194,19 +10189,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0.76298486574809543</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>5329764.4000000004</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="112">
         <f>E24/$E$28</f>
         <v>0.22056360896385802</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10216,17 +10211,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0.57861360550240648</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>18834531.899999999</v>
       </c>
-      <c r="F25" s="113">
+      <c r="F25" s="112">
         <f>E25/$E$28</f>
         <v>0.77943639103614204</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10235,7 +10230,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10245,17 +10240,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="112">
         <f>E26/$E$28</f>
         <v>0</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10268,7 +10263,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10278,17 +10273,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113">
+      <c r="F27" s="112">
         <f>E27/$E$28</f>
         <v>0</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10315,12 +10310,12 @@
         <f>SUM(E24:E27)</f>
         <v>24164296.299999997</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>37038911</v>
       </c>
@@ -10330,171 +10325,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>82672</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
-        <v>0</v>
-      </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="E30" s="87">
+        <v>0</v>
+      </c>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>0</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>21347</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>2134.7000000000003</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10502,25 +10497,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10528,26 +10523,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>4094</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>409.40000000000003</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10555,113 +10550,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>181735</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>18173.5</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>5722</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>286.10000000000002</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>118797</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>106917.3</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>343468</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10669,17 +10664,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10689,16 +10684,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10708,16 +10703,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0.10000000000000002</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>2134.7000000000003</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10727,14 +10722,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0.1</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>18582.900000000001</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -10747,7 +10742,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10757,14 +10752,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0.22907345716868205</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>107203.40000000001</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10777,13 +10772,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>757835</v>
       </c>
-      <c r="D48" s="82">
+      <c r="D48" s="81">
         <f>E48/C48</f>
         <v>0.16879795733899861</v>
       </c>
@@ -10791,12 +10786,12 @@
         <f>SUM(E30:E42)</f>
         <v>127921</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>-37038911</v>
       </c>
@@ -10807,63 +10802,63 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
-        <v>40294387</v>
-      </c>
-      <c r="D49" s="56">
+        <f>Inputs!C41+Inputs!C37</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="56" t="e">
         <f>E49/C49</f>
-        <v>0.60286851615337878</v>
-      </c>
-      <c r="E49" s="88">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>24292217.299999997</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>0</v>
       </c>
@@ -10871,45 +10866,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>36209311</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10917,61 +10912,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
+        <f>Inputs!C84</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="K57" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
-        <f>Inputs!C84</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="K57" s="33" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -10985,35 +10980,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>5260502.6000000006</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>3422380</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0.87825933999146799</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>3005737.2</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11027,29 +11022,29 @@
         <f>E61+E62</f>
         <v>8266239.8000000007</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>36209311</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11063,9 +11058,9 @@
         <f>E63-E64</f>
         <v>-27943071.199999999</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11073,100 +11068,100 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
-        <v>26926461</v>
+        <v>-13367926</v>
       </c>
       <c r="D68" s="29">
         <f t="shared" si="2"/>
-        <v>0.59517578266226656</v>
+        <v>-1.198837987283891</v>
       </c>
       <c r="E68" s="68">
         <f>E49-E63</f>
         <v>16025977.499999996</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>-36209311</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
-        <v>63135772</v>
+        <v>22841385</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" si="2"/>
-        <v>0.82734853547050946</v>
+        <v>2.2868704546593825</v>
       </c>
       <c r="E70" s="68">
         <f>E68-E69</f>
         <v>52235288.5</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11176,66 +11171,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>1402495</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>1402495</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>1402495</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>669001</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.47700776116848903</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>669001</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.47700776116848903</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>669001</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.47700776116848903</v>
       </c>
@@ -11243,50 +11238,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>733494</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>733494</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>733494</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>229</v>
+      <c r="B77" s="103" t="s">
+        <v>228</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>220152</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.15697168260849415</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>220152</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.15697168260849415</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>220152</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.15697168260849415</v>
       </c>
@@ -11294,60 +11289,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>513342</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>0.36602055622301682</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>513342</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>0.36602055622301682</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>513342</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>0.36602055622301682</v>
       </c>
@@ -11355,61 +11350,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>237</v>
+      <c r="B81" s="103" t="s">
+        <v>235</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>0</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>0</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>0</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>0</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>0</v>
       </c>
@@ -11417,59 +11412,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>513342</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>0.36602055622301682</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>513342</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>0.36602055622301682</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>513342</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>0.36602055622301682</v>
       </c>
@@ -11477,184 +11472,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>385006.5</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>0.27451541716726263</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>385006.5</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>0.27451541716726263</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>385006.5</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>0.27451541716726263</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.5399583805137493</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>1.5399583805137493</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>1.5399583805137493</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26319736480353811</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>0.2627195220393802</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26319736480353811</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>0.2627195220393802</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26319736480353811</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>0.2627195220393802</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0.59699999999999998</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>0.38767281476843118</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.4</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0.2597472795768383</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.4</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0.2597472795768383</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10203446325302125</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>0.10184921660362341</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8364799499511728E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>6.8240681141456233E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8364799499511728E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>6.8240681141456233E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11662,55 +11657,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>79.860445112979093</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>79.692099803156424</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>79.860445112979093</v>
+        <v>79.692099803156424</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.9768616383147375</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+        <v>8.9696886475594617</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.9768616383147375</v>
+        <v>8.9696886475594617</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11720,121 +11715,121 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9926624.7035811283</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>9905699.4419093002</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>39.704755380739215</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>39.621058009198798</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>39.704755380739215</v>
-      </c>
-      <c r="I97" s="122">
+        <v>39.621058009198798</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>52.805940153866374</v>
+        <v>52.694625568240113</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-29848788.437321566</v>
-      </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+        <v>-29842268.415800061</v>
+      </c>
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-137.29839804670968</v>
-      </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+        <v>-137.26840726460432</v>
+      </c>
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-119.38991134496494</v>
-      </c>
-      <c r="I99" s="213"/>
+        <v>-119.36383240400376</v>
+      </c>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>-19922163.733740438</v>
-      </c>
-      <c r="D100" s="109">
+        <v>-19936568.973890759</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
         <v>0</v>
       </c>
-      <c r="E100" s="109">
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
         <v>0</v>
       </c>
-      <c r="F100" s="109">
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
         <v>0</v>
       </c>
-      <c r="H100" s="109">
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
         <v>0</v>
       </c>
-      <c r="I100" s="109">
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
         <v>0</v>
       </c>
@@ -11846,58 +11841,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1115820.6841128974</v>
-      </c>
-      <c r="D103" s="109">
+        <v>1114929.0839329944</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.7936237481775117</v>
-      </c>
-      <c r="E103" s="122">
+        <v>3.7905924406703844</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.4630867625617787</v>
-      </c>
-      <c r="F103" s="109">
+        <v>4.4595205184357463</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>4.4630867625617787</v>
-      </c>
-      <c r="H103" s="122">
+        <v>4.4595205184357463</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.4630867625617787</v>
-      </c>
-      <c r="I103" s="109">
+        <v>4.4595205184357463</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.9357497666306678</v>
+        <v>5.9310067862977691</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11907,58 +11902,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>557910.34205644869</v>
-      </c>
-      <c r="D106" s="109">
+        <v>557464.5419664972</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>1.8968118740887558</v>
-      </c>
-      <c r="E106" s="122">
+        <v>1.8952962203351922</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>2.2315433812808894</v>
-      </c>
-      <c r="F106" s="109">
+        <v>2.2297602592178731</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>2.2315433812808894</v>
-      </c>
-      <c r="H106" s="122">
+        <v>2.2297602592178731</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>2.2315433812808894</v>
-      </c>
-      <c r="I106" s="122">
+        <v>2.2297602592178731</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>2.9678748833153339</v>
+        <v>2.9655033931488846</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11967,15 +11962,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1F63389-BB01-4CE0-B3F3-C8174B4E7E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0613C315-B178-48C6-A84D-B90228EB015C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="277">
   <si>
     <t>Company Info:</t>
   </si>
@@ -977,6 +977,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1684,7 +1692,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2336,9 +2344,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2347,9 +2352,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2357,6 +2359,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,7 +2826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2834,7 +2848,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2842,7 +2856,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2866,7 +2880,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2875,7 +2889,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2891,7 +2905,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2934,13 +2948,16 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
         <v>208</v>
       </c>
       <c r="C17" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -2949,7 +2966,7 @@
         <v>222</v>
       </c>
       <c r="C18" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -2958,7 +2975,7 @@
         <v>223</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -2967,7 +2984,7 @@
         <v>212</v>
       </c>
       <c r="C20" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -2976,7 +2993,7 @@
         <v>215</v>
       </c>
       <c r="C21" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -2985,7 +3002,7 @@
         <v>214</v>
       </c>
       <c r="C22" s="238" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3403,7 +3420,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10184921660362341</v>
+        <v>0.10098562714792848</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3858,7 +3875,7 @@
         <v>229</v>
       </c>
       <c r="C87" s="231" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D87" s="264">
         <v>0.02</v>
@@ -3868,11 +3885,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3886,10 +3903,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4110,8 +4127,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4124,8 +4144,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4168,60 +4188,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>0939.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>6.26</v>
+        <v>6.31</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>建设银行</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>250010977486</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>1565068.7190623598</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>1577569.26793666</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4244,11 +4264,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4268,7 +4288,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.0679666598637898</v>
+        <v>1.067369023958842</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4389,7 +4409,7 @@
         <v>247</v>
       </c>
       <c r="C20" s="271" t="e">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4401,20 +4421,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>245</v>
-      </c>
-      <c r="C21" s="273" t="e">
-        <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>252</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.36602055622301682</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>259</v>
       </c>
-      <c r="C22" s="275" t="e">
+      <c r="C22" s="274" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -4423,12 +4443,12 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>252</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.36602055622301682</v>
+      <c r="B23" s="275" t="s">
+        <v>265</v>
+      </c>
+      <c r="C23" s="282" t="e">
+        <f>1/Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
@@ -4439,10 +4459,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>253</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>0</v>
       </c>
@@ -4451,7 +4471,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.8063406641327004</v>
+        <v>3.8388909958498334</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4483,7 +4503,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.8240681141456233E-2</v>
+        <v>6.7662061740655602E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4502,10 +4522,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>236</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4513,22 +4533,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.7905924406703844</v>
+        <v>3.7782220795317727</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>6.8206578042424342</v>
+        <v>6.7983990144722402</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.4595205184357463</v>
-      </c>
-      <c r="G29" s="285">
+        <v>4.4449671523903209</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.9310067862977691</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>5.9116513169323834</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5559,7 +5579,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7800,7 +7820,7 @@
       <c r="B47" s="101" t="s">
         <v>243</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>260</v>
       </c>
       <c r="D47" s="36"/>
@@ -9727,7 +9747,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -9798,7 +9818,7 @@
       <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>103.7685562107733</v>
+        <v>103.71048715550516</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10774,7 +10794,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>757835</v>
       </c>
@@ -10791,7 +10811,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>-37038911</v>
       </c>
@@ -10900,11 +10920,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>36209311</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10915,11 +10935,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10931,11 +10951,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11149,19 +11169,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11171,18 +11191,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11549,17 +11569,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2627195220393802</v>
+        <v>0.2604918975509033</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2627195220393802</v>
+        <v>0.2604918975509033</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2627195220393802</v>
+        <v>0.2604918975509033</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11600,17 +11620,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10184921660362341</v>
+        <v>0.10098562714792848</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8240681141456233E-2</v>
+        <v>6.7662061740655602E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8240681141456233E-2</v>
+        <v>6.7662061740655602E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11641,15 +11661,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11670,14 +11690,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>79.692099803156424</v>
+        <v>78.947428367802431</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>79.692099803156424</v>
+        <v>78.947428367802431</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11698,14 +11718,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.9696886475594617</v>
+        <v>8.9404166301616765</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.9696886475594617</v>
+        <v>8.9404166301616765</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11748,21 +11768,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9905699.4419093002</v>
+        <v>9813137.0494034942</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>39.621058009198798</v>
+        <v>39.250824696099613</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>39.621058009198798</v>
+        <v>39.250824696099613</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>52.694625568240113</v>
+        <v>52.202228171832338</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11790,17 +11810,17 @@
       </c>
       <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-29842268.415800061</v>
+        <v>-29825568.633156426</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-137.26840726460432</v>
+        <v>-137.19159163741347</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-119.36383240400376</v>
+        <v>-119.29703620644651</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11811,7 +11831,7 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>-19936568.973890759</v>
+        <v>-20012431.58375293</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -11872,27 +11892,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1114929.0839329944</v>
+        <v>1111290.5826622662</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.7905924406703844</v>
+        <v>3.7782220795317727</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.4595205184357463</v>
+        <v>4.4449671523903209</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>4.4595205184357463</v>
+        <v>4.4449671523903209</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.4595205184357463</v>
+        <v>4.4449671523903209</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.9310067862977691</v>
+        <v>5.9116513169323834</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11933,27 +11953,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>557464.5419664972</v>
+        <v>555645.29133113311</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>1.8952962203351922</v>
+        <v>1.8891110397658863</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>2.2297602592178731</v>
+        <v>2.2224835761951605</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>2.2297602592178731</v>
+        <v>2.2224835761951605</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>2.2297602592178731</v>
+        <v>2.2224835761951605</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>2.9655033931488846</v>
+        <v>2.9558256584661917</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0613C315-B178-48C6-A84D-B90228EB015C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8F21F25-2220-4263-8B1B-850F71247714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10098562714792848</v>
+        <v>0.1022838914126062</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4198,7 +4198,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>6.31</v>
+        <v>6.22</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>276</v>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>1577569.26793666</v>
+        <v>1555068.2799629199</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4288,7 +4288,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.067369023958842</v>
+        <v>1.0656713644663494</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.8388909958498334</v>
+        <v>3.7901648970763699</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.7662061740655602E-2</v>
+        <v>6.8531920544459779E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4533,20 +4533,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.7782220795317727</v>
+        <v>3.7876045638184141</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>6.7983990144722402</v>
+        <v>6.815281524442514</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.4449671523903209</v>
+        <v>4.4560053691981345</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.9116513169323834</v>
+        <v>5.9263317603847954</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9698,7 +9698,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9818,7 +9818,7 @@
       <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>103.71048715550516</v>
+        <v>103.5455347453841</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11569,17 +11569,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2604918975509033</v>
+        <v>0.26384076343785801</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2604918975509033</v>
+        <v>0.26384076343785801</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2604918975509033</v>
+        <v>0.26384076343785801</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11620,17 +11620,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10098562714792848</v>
+        <v>0.1022838914126062</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7662061740655602E-2</v>
+        <v>6.8531920544459779E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7662061740655602E-2</v>
+        <v>6.8531920544459779E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11690,14 +11690,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>78.947428367802431</v>
+        <v>79.874507095883502</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>78.947428367802431</v>
+        <v>79.874507095883502</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11718,14 +11718,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.9404166301616765</v>
+        <v>8.962618426875256</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.9404166301616765</v>
+        <v>8.962618426875256</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11768,21 +11768,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9813137.0494034942</v>
+        <v>9928372.6030159835</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>39.250824696099613</v>
+        <v>39.711746671491447</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>39.250824696099613</v>
+        <v>39.711746671491447</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>52.202228171832338</v>
+        <v>52.815238326780943</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11809,18 +11809,18 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-29825568.633156426</v>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
+        <v>-29778130.813084349</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-137.19159163741347</v>
+        <v>-136.97338724642449</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-119.29703620644651</v>
+        <v>-119.10729325776045</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11831,7 +11831,7 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>-20012431.58375293</v>
+        <v>-19849758.210068367</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -11892,27 +11892,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1111290.5826622662</v>
+        <v>1114050.2580360898</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.7782220795317727</v>
+        <v>3.7876045638184141</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.4449671523903209</v>
+        <v>4.4560053691981345</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>4.4449671523903209</v>
+        <v>4.4560053691981345</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.4449671523903209</v>
+        <v>4.4560053691981345</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.9116513169323834</v>
+        <v>5.9263317603847954</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11953,27 +11953,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>555645.29133113311</v>
+        <v>557025.12901804491</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>1.8891110397658863</v>
+        <v>1.8938022819092071</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>2.2224835761951605</v>
+        <v>2.2280026845990673</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>2.2224835761951605</v>
+        <v>2.2280026845990673</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>2.2224835761951605</v>
+        <v>2.2280026845990673</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>2.9558256584661917</v>
+        <v>2.9631658801923977</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DB00269-E870-4800-9B2C-DAACEAA59FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{913DC56B-6D2C-4724-B538-B8CE974FA356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.8016990629243253E-2</v>
+        <v>9.8010847634739329E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4501,7 +4501,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0639030138651531</v>
+        <v>1.0638363361358643</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4632,7 +4632,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4689,7 +4689,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.9551593277826003</v>
+        <v>3.9554072240369331</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5673025547231673E-2</v>
+        <v>6.5668909638016318E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4751,20 +4751,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.3448368335093308</v>
+        <v>3.7306983128189115</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>6.975197979875456</v>
+        <v>6.7128864315737884</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.1115727453050956</v>
+        <v>4.3890568386104842</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.0653895477177882</v>
+        <v>5.8372925491945988</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -10023,7 +10023,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="177">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>103.37371366177086</v>
+        <v>103.36723494669508</v>
       </c>
       <c r="E7" s="173" t="str">
         <f>Dashboard!H3</f>
@@ -11215,7 +11215,7 @@
       </c>
       <c r="I61" s="209">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-118.90964934927025</v>
+        <v>-118.9021969543566</v>
       </c>
       <c r="K61" s="178"/>
     </row>
@@ -11269,7 +11269,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-118.90964934927025</v>
+        <v>-118.9021969543566</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11290,7 +11290,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-118.90964934927025</v>
+        <v>-118.9021969543566</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11801,17 +11801,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25283431516288241</v>
+        <v>0.25281846934065838</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25283431516288241</v>
+        <v>0.25281846934065838</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25283431516288241</v>
+        <v>0.25281846934065838</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11852,17 +11852,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.8016990629243253E-2</v>
+        <v>9.8010847634739329E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5673025547231673E-2</v>
+        <v>6.5668909638016318E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5673025547231673E-2</v>
+        <v>6.5668909638016318E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11915,21 +11915,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>48.630200573157659</v>
+        <v>76.320051900548791</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>48.630200573157659</v>
+        <v>76.320051900548791</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11950,14 +11950,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.7740631990158855</v>
+        <v>8.8279610186852224</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.7740631990158855</v>
+        <v>8.8279610186852224</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12000,21 +12000,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>7994137.5725390902</v>
+        <v>9486555.0962406881</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>31.975146263274546</v>
+        <v>37.94455424171089</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>31.975146263274546</v>
+        <v>37.94455424171089</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>37.941691842328865</v>
+        <v>50.464934017070313</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12042,17 +12042,17 @@
       </c>
       <c r="C99" s="253">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-29728717.666328557</v>
+        <v>-29726854.485791586</v>
       </c>
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-118.90964934927025</v>
+        <v>-118.9021969543566</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>-118.90964934927025</v>
+        <v>-118.9021969543566</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12119,23 +12119,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.3448368335093308</v>
+        <v>3.7306983128189115</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.1115727453050956</v>
+        <v>4.3890568386104842</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>5.1115727453050956</v>
+        <v>4.3890568386104842</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.1115727453050956</v>
+        <v>4.3890568386104842</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.0653895477177882</v>
+        <v>5.8372925491945988</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12174,23 +12174,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>2.1724184167546654</v>
+        <v>1.8653491564094558</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>2.5557863726525478</v>
+        <v>2.1945284193052421</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>2.5557863726525478</v>
+        <v>2.1945284193052421</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>2.5557863726525478</v>
+        <v>2.1945284193052421</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>3.0326947738588941</v>
+        <v>2.9186462745972994</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{913DC56B-6D2C-4724-B538-B8CE974FA356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02E4601F-6774-4CCF-A8C5-2F8776717994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2588,6 +2588,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2604,9 +2607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2820,11 +2820,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3039,7 +3039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3064,6 +3064,7 @@
       <c r="C4" s="66" t="s">
         <v>279</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -4316,7 +4317,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4339,6 +4340,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4357,8 +4361,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4394,18 +4398,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>0939.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4421,7 +4428,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>建设银行</v>
       </c>
@@ -4450,11 +4457,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
         <v>1620071.1341092801</v>
       </c>
-      <c r="H5" s="313"/>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4477,11 +4484,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4549,10 +4556,10 @@
         <v>220</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4599,7 +4606,7 @@
         <v>221</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4740,10 +4747,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4751,22 +4758,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.7306983128189115</v>
+        <v>4.0852688136240136</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>6.7128864315737884</v>
+        <v>7.5485736895313895</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.3890568386104842</v>
-      </c>
-      <c r="G29" s="312">
+        <v>4.8061986042635461</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.8372925491945988</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>6.5639771213316438</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5748,15 +5755,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5784,7 +5792,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11911,7 +11919,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11922,14 +11930,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>76.320051900548791</v>
+        <v>83.573610552253825</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>76.320051900548791</v>
+        <v>83.573610552253825</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11950,14 +11958,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.8279610186852224</v>
+        <v>9.6669821072379492</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.8279610186852224</v>
+        <v>9.6669821072379492</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12000,21 +12008,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9486555.0962406881</v>
+        <v>10388169.836792486</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>37.94455424171089</v>
+        <v>41.550854851460265</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>37.94455424171089</v>
+        <v>41.550854851460265</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>50.464934017070313</v>
+        <v>56.747313848997486</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12119,23 +12127,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.7306983128189115</v>
+        <v>4.0852688136240136</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.3890568386104842</v>
+        <v>4.8061986042635461</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>4.3890568386104842</v>
+        <v>4.8061986042635461</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.3890568386104842</v>
+        <v>4.8061986042635461</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.8372925491945988</v>
+        <v>6.5639771213316438</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12174,23 +12182,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>1.8653491564094558</v>
+        <v>2.0426344068120068</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>2.1945284193052421</v>
+        <v>2.403099302131773</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>2.1945284193052421</v>
+        <v>2.403099302131773</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>2.1945284193052421</v>
+        <v>2.403099302131773</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>2.9186462745972994</v>
+        <v>3.2819885606658219</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02E4601F-6774-4CCF-A8C5-2F8776717994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21105480-94EC-45EA-B3F2-9B9AA572D93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2588,31 +2588,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3634,7 +3634,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.8010847634739329E-2</v>
+        <v>9.816233271609133E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4398,27 +4398,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>0939.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>6.48</v>
+        <v>6.47</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>258</v>
@@ -4428,40 +4428,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>建设银行</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>250010977486</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>1620071.1341092801</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>1617571.02433442</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4484,11 +4484,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4639,7 +4639,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.9554072240369331</v>
+        <v>3.9493032005430488</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4728,7 +4728,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5668909638016318E-2</v>
+        <v>6.5770407179960702E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4747,10 +4747,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4758,22 +4758,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.0852688136240136</v>
+        <v>4.4102339652926048</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>7.5485736895313895</v>
+        <v>7.656544673105353</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.8061986042635461</v>
-      </c>
-      <c r="G29" s="313">
+        <v>5.1885105474030651</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.5639771213316438</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>6.6578649331350901</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5756,15 +5756,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11137,7 +11137,7 @@
         <f>I15+I34</f>
         <v>36209311</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11148,11 +11148,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11164,11 +11164,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11809,17 +11809,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25281846934065838</v>
+        <v>0.25320922431645537</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25281846934065838</v>
+        <v>0.25320922431645537</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25281846934065838</v>
+        <v>0.25320922431645537</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11860,17 +11860,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.8010847634739329E-2</v>
+        <v>9.816233271609133E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5668909638016318E-2</v>
+        <v>6.5770407179960702E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5668909638016318E-2</v>
+        <v>6.5770407179960702E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11923,21 +11923,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>83.573610552253825</v>
+        <v>66.791740437151773</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>83.573610552253825</v>
+        <v>66.791740437151773</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11958,14 +11958,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.6669821072379492</v>
+        <v>9.0747373755988789</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.6669821072379492</v>
+        <v>9.0747373755988789</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12008,21 +12008,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10388169.836792486</v>
+        <v>9547517.8060018439</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>41.550854851460265</v>
+        <v>38.188394373748977</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>41.550854851460265</v>
+        <v>38.188394373748977</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>56.747313848997486</v>
+        <v>49.003113597017659</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12127,23 +12127,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.0852688136240136</v>
+        <v>4.4102339652926048</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.8061986042635461</v>
+        <v>5.1885105474030651</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>4.8061986042635461</v>
+        <v>5.1885105474030651</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.8061986042635461</v>
+        <v>5.1885105474030651</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.5639771213316438</v>
+        <v>6.6578649331350901</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12182,23 +12182,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>2.0426344068120068</v>
+        <v>2.2051169826463024</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>2.403099302131773</v>
+        <v>2.5942552737015325</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>2.403099302131773</v>
+        <v>2.5942552737015325</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>2.403099302131773</v>
+        <v>2.5942552737015325</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>3.2819885606658219</v>
+        <v>3.328932466567545</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2919271-6C5C-433E-95A1-E1678C70E40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FD1ECDD-0E90-4606-A987-2DFAE4FD522C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2601,6 +2601,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2617,9 +2620,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.8159260138109258E-2</v>
+        <v>0.1055567071287339</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4424,27 +4424,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>0939.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>6.47</v>
+        <v>6.02</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>255</v>
@@ -4454,7 +4454,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>建设银行</v>
       </c>
@@ -4483,11 +4483,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>1617571.02433442</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>1505066.08446572</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4510,11 +4510,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4534,7 +4534,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0638030370076497</v>
+        <v>1.0644076665242512</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4722,7 +4722,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.9494268215039394</v>
+        <v>3.6726497568329473</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.576834850124573E-2</v>
+        <v>7.0724761895299096E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4773,10 +4773,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>222</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4784,22 +4784,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.4468123613236239</v>
+        <v>4.5326865251917061</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>7.7343542240890262</v>
+        <v>7.8837154177004241</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.2315439544983811</v>
-      </c>
-      <c r="G29" s="313">
+        <v>5.3325723825784781</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.7255254122513275</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>6.8554047110438479</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5782,15 +5782,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10159,7 +10159,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="171">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>103.36399945013157</v>
+        <v>103.42274803689756</v>
       </c>
       <c r="E7" s="167" t="str">
         <f>Dashboard!H3</f>
@@ -11351,7 +11351,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-118.89847519813632</v>
+        <v>-118.96605305332456</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11405,7 +11405,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-118.89847519813632</v>
+        <v>-118.96605305332456</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11426,7 +11426,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-118.89847519813632</v>
+        <v>-118.96605305332456</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -11937,17 +11937,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25320129861760565</v>
+        <v>0.27228297447626332</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25320129861760565</v>
+        <v>0.27228297447626332</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25320129861760565</v>
+        <v>0.27228297447626332</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11988,17 +11988,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.8159260138109258E-2</v>
+        <v>0.1055567071287339</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.576834850124573E-2</v>
+        <v>7.0724761895299096E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.576834850124573E-2</v>
+        <v>7.0724761895299096E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12058,14 +12058,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>67.344526543752607</v>
+        <v>71.581466127958663</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>67.344526543752607</v>
+        <v>71.581466127958663</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12086,14 +12086,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.1500030735673814</v>
+        <v>9.3267024257071469</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.1500030735673814</v>
+        <v>9.3267024257071469</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12136,21 +12136,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9626535.5881578289</v>
+        <v>10232183.170604423</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>38.504451624316737</v>
+        <v>40.926935582968149</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>38.504451624316737</v>
+        <v>40.926935582968149</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>49.500237432101315</v>
+        <v>52.61451451098776</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12178,17 +12178,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-29725924.005880989</v>
+        <v>-29742819.211513009</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-118.89847519813632</v>
+        <v>-118.96605305332456</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>-118.89847519813632</v>
+        <v>-118.96605305332456</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12255,23 +12255,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.4468123613236239</v>
+        <v>4.5326865251917061</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.2315439544983811</v>
+        <v>5.3325723825784781</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>5.2315439544983811</v>
+        <v>5.3325723825784781</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.2315439544983811</v>
+        <v>5.3325723825784781</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.7255254122513275</v>
+        <v>6.8554047110438479</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12310,23 +12310,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>2.2234061806618119</v>
+        <v>2.2663432625958531</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>2.6157719772491905</v>
+        <v>2.666286191289239</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>2.6157719772491905</v>
+        <v>2.666286191289239</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>2.6157719772491905</v>
+        <v>2.666286191289239</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>3.3627627061256637</v>
+        <v>3.4277023555219239</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0939.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0939.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FD1ECDD-0E90-4606-A987-2DFAE4FD522C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBB3E33B-9305-4728-8C6B-43A5AE4BDF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2601,31 +2601,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.1055567071287339</v>
+        <v>0.10758625924688446</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4424,27 +4424,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>0939.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>6.02</v>
+        <v>5.89</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>255</v>
@@ -4454,40 +4454,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>建设银行</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>250010977486</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>1505066.08446572</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>1472564.65739254</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4510,11 +4510,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4534,7 +4534,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0644076665242512</v>
+        <v>1.061445673306783</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4722,7 +4722,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.6726497568329473</v>
+        <v>3.6033673582684549</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.0724761895299096E-2</v>
+        <v>7.208459581030785E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4773,10 +4773,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>222</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4784,22 +4784,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.5326865251917061</v>
+        <v>4.5430791167455764</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>7.8837154177004241</v>
+        <v>7.9017912837034538</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.3325723825784781</v>
-      </c>
-      <c r="G29" s="314">
+        <v>5.3447989608771485</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.8554047110438479</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>6.871122855394308</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5782,15 +5782,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10159,7 +10159,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="171">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>103.42274803689756</v>
+        <v>103.13494714269922</v>
       </c>
       <c r="E7" s="167" t="str">
         <f>Dashboard!H3</f>
@@ -11265,7 +11265,7 @@
         <f>I15+I34</f>
         <v>36209311</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11276,11 +11276,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11292,11 +11292,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11351,7 +11351,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-118.96605305332456</v>
+        <v>-118.63499884041798</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11405,7 +11405,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-118.96605305332456</v>
+        <v>-118.63499884041798</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11426,7 +11426,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-118.96605305332456</v>
+        <v>-118.63499884041798</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -11937,17 +11937,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.27228297447626332</v>
+        <v>0.27751819356007468</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.27228297447626332</v>
+        <v>0.27751819356007468</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.27228297447626332</v>
+        <v>0.27751819356007468</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11988,17 +11988,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1055567071287339</v>
+        <v>0.10758625924688446</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0724761895299096E-2</v>
+        <v>7.208459581030785E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0724761895299096E-2</v>
+        <v>7.208459581030785E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12058,14 +12058,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>71.581466127958663</v>
+        <v>72.564445246291683</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>71.581466127958663</v>
+        <v>72.564445246291683</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12086,14 +12086,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.3267024257071469</v>
+        <v>9.3480867875676346</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.3267024257071469</v>
+        <v>9.3480867875676346</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12136,21 +12136,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10232183.170604423</v>
+        <v>10372694.715501856</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>40.926935582968149</v>
+        <v>41.488957084225234</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>40.926935582968149</v>
+        <v>41.488957084225234</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>52.61451451098776</v>
+        <v>53.337033507638068</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12178,17 +12178,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-29742819.211513009</v>
+        <v>-29660052.024143375</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-118.96605305332456</v>
+        <v>-118.63499884041798</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>-118.96605305332456</v>
+        <v>-118.63499884041798</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12255,23 +12255,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.5326865251917061</v>
+        <v>4.5430791167455764</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.3325723825784781</v>
+        <v>5.3447989608771485</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>5.3325723825784781</v>
+        <v>5.3447989608771485</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.3325723825784781</v>
+        <v>5.3447989608771485</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.8554047110438479</v>
+        <v>6.871122855394308</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12310,23 +12310,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>2.2663432625958531</v>
+        <v>2.2715395583727882</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>2.666286191289239</v>
+        <v>2.6723994804385742</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>2.666286191289239</v>
+        <v>2.6723994804385742</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>2.666286191289239</v>
+        <v>2.6723994804385742</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>3.4277023555219239</v>
+        <v>3.435561427697154</v>
       </c>
       <c r="K106" s="75"/>
     </row>
